--- a/deployment/Omaha_Cal_Info_GI01SUMO_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GI01SUMO_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Desktop\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14148" windowHeight="8208" tabRatio="705" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14145" windowHeight="8205" tabRatio="705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -1217,7 +1217,7 @@
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3155,22 +3155,22 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="2" customWidth="1"/>
-    <col min="2" max="4" width="20.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="11" customWidth="1"/>
-    <col min="8" max="9" width="20.6640625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="13.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="20.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="11" customWidth="1"/>
+    <col min="8" max="9" width="20.7109375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="13.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" style="2" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="2"/>
+    <col min="14" max="14" width="15.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="30" customFormat="1" ht="27.6">
+    <row r="1" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="121" t="s">
         <v>238</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="33" customFormat="1" ht="14.4">
+    <row r="2" spans="1:14" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>240</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>-39.57371666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="15" customFormat="1">
+    <row r="3" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3263,16 +3263,16 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="5" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="6" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="7" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="8" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="9" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="10" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="11" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="12" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="13" spans="1:14" customFormat="1" ht="14.4"/>
+    <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3290,30 +3290,30 @@
   <dimension ref="A1:AMM361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E365" sqref="E365"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I186" sqref="I186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="17" customWidth="1"/>
-    <col min="4" max="5" width="11.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="49.44140625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="42.109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="17" customWidth="1"/>
+    <col min="4" max="5" width="11.140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="42.140625" style="17" customWidth="1"/>
     <col min="9" max="9" width="44" style="42" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="17"/>
-    <col min="11" max="11" width="4.109375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="17"/>
+    <col min="11" max="11" width="4.140625" style="17" customWidth="1"/>
     <col min="12" max="12" width="6" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="17" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" style="17" customWidth="1"/>
-    <col min="16" max="16384" width="8.6640625" style="17"/>
+    <col min="16" max="16384" width="8.7109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1027" s="9" customFormat="1" ht="41.4">
+    <row r="1" spans="1:1027" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:1027" s="9" customFormat="1">
+    <row r="2" spans="1:1027" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -3353,7 +3353,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:1027" ht="14.4">
+    <row r="3" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:1027" customFormat="1" ht="14.4">
+    <row r="5" spans="1:1027" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="110" t="s">
         <v>233</v>
       </c>
@@ -3400,10 +3400,10 @@
       </c>
       <c r="AMM5" s="111"/>
     </row>
-    <row r="6" spans="1:1027" customFormat="1" ht="14.4">
+    <row r="6" spans="1:1027" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="AMM6" s="111"/>
     </row>
-    <row r="7" spans="1:1027" customFormat="1" ht="14.4">
+    <row r="7" spans="1:1027" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="110" t="s">
         <v>234</v>
       </c>
@@ -4446,7 +4446,7 @@
       <c r="AML7" s="111"/>
       <c r="AMM7" s="111"/>
     </row>
-    <row r="8" spans="1:1027" customFormat="1" ht="14.4">
+    <row r="8" spans="1:1027" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="116"/>
       <c r="B8" s="116"/>
       <c r="C8" s="116"/>
@@ -5475,7 +5475,7 @@
       <c r="AML8" s="111"/>
       <c r="AMM8" s="111"/>
     </row>
-    <row r="9" spans="1:1027" ht="14.4">
+    <row r="9" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
@@ -5508,7 +5508,7 @@
       <c r="L9" s="23"/>
       <c r="M9" s="23"/>
     </row>
-    <row r="10" spans="1:1027" ht="14.4">
+    <row r="10" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>40</v>
       </c>
@@ -5541,7 +5541,7 @@
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
     </row>
-    <row r="11" spans="1:1027" ht="14.4">
+    <row r="11" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>40</v>
       </c>
@@ -5571,7 +5571,7 @@
       <c r="L11" s="23"/>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:1027" ht="14.4">
+    <row r="12" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>40</v>
       </c>
@@ -5601,7 +5601,7 @@
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
     </row>
-    <row r="13" spans="1:1027" ht="14.4">
+    <row r="13" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>40</v>
       </c>
@@ -5631,7 +5631,7 @@
       <c r="L13" s="23"/>
       <c r="M13" s="23"/>
     </row>
-    <row r="14" spans="1:1027" ht="14.4">
+    <row r="14" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>40</v>
       </c>
@@ -5661,7 +5661,7 @@
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:1027" ht="14.4">
+    <row r="15" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>40</v>
       </c>
@@ -5694,7 +5694,7 @@
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
     </row>
-    <row r="16" spans="1:1027" ht="14.4">
+    <row r="16" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>40</v>
       </c>
@@ -5727,7 +5727,7 @@
       <c r="L16" s="23"/>
       <c r="M16" s="23"/>
     </row>
-    <row r="17" spans="1:13" ht="14.4">
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>40</v>
       </c>
@@ -5760,7 +5760,7 @@
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="52"/>
@@ -5770,7 +5770,7 @@
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
     </row>
-    <row r="19" spans="1:13" ht="14.4">
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>41</v>
       </c>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="I19" s="43"/>
     </row>
-    <row r="20" spans="1:13" ht="14.4">
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>41</v>
       </c>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="I20" s="43"/>
     </row>
-    <row r="21" spans="1:13" ht="14.4">
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>41</v>
       </c>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="I21" s="43"/>
     </row>
-    <row r="22" spans="1:13" ht="14.4">
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>41</v>
       </c>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="I22" s="43"/>
     </row>
-    <row r="23" spans="1:13" ht="14.4">
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>41</v>
       </c>
@@ -5905,7 +5905,7 @@
       </c>
       <c r="I23" s="43"/>
     </row>
-    <row r="24" spans="1:13" ht="14.4">
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>41</v>
       </c>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="I24" s="43"/>
     </row>
-    <row r="25" spans="1:13" ht="14.4">
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>41</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="14.4">
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>41</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="14.4">
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>41</v>
       </c>
@@ -6019,11 +6019,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C28" s="52"/>
       <c r="I28" s="43"/>
     </row>
-    <row r="29" spans="1:13" ht="41.4">
+    <row r="29" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>42</v>
       </c>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="J29" s="50"/>
     </row>
-    <row r="30" spans="1:13" ht="14.4">
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>42</v>
       </c>
@@ -6081,7 +6081,7 @@
       <c r="I30" s="56"/>
       <c r="J30" s="50"/>
     </row>
-    <row r="31" spans="1:13" ht="14.4">
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>42</v>
       </c>
@@ -6109,7 +6109,7 @@
       <c r="I31" s="55"/>
       <c r="J31" s="50"/>
     </row>
-    <row r="32" spans="1:13" ht="14.4">
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>42</v>
       </c>
@@ -6135,7 +6135,7 @@
       <c r="I32" s="55"/>
       <c r="J32" s="50"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="52"/>
@@ -6144,7 +6144,7 @@
       <c r="H33" s="50"/>
       <c r="J33" s="50"/>
     </row>
-    <row r="34" spans="1:10" ht="27.6">
+    <row r="34" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>130</v>
       </c>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="J34" s="50"/>
     </row>
-    <row r="35" spans="1:10" ht="14.4">
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="85" t="s">
         <v>221</v>
       </c>
@@ -6202,7 +6202,7 @@
       <c r="I35" s="56"/>
       <c r="J35" s="50"/>
     </row>
-    <row r="36" spans="1:10" ht="14.4">
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="85" t="s">
         <v>221</v>
       </c>
@@ -6230,7 +6230,7 @@
       <c r="I36" s="55"/>
       <c r="J36" s="50"/>
     </row>
-    <row r="37" spans="1:10" ht="14.4">
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="85" t="s">
         <v>221</v>
       </c>
@@ -6256,7 +6256,7 @@
       <c r="I37" s="55"/>
       <c r="J37" s="50"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="52"/>
@@ -6265,7 +6265,7 @@
       <c r="H38" s="92"/>
       <c r="J38" s="50"/>
     </row>
-    <row r="39" spans="1:10" ht="27.6">
+    <row r="39" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>131</v>
       </c>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="J39" s="50"/>
     </row>
-    <row r="40" spans="1:10" ht="14.4">
+    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="85" t="s">
         <v>222</v>
       </c>
@@ -6323,7 +6323,7 @@
       <c r="I40" s="51"/>
       <c r="J40" s="50"/>
     </row>
-    <row r="41" spans="1:10" ht="14.4">
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="85" t="s">
         <v>222</v>
       </c>
@@ -6351,7 +6351,7 @@
       <c r="I41" s="51"/>
       <c r="J41" s="50"/>
     </row>
-    <row r="42" spans="1:10" ht="14.4">
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="85" t="s">
         <v>222</v>
       </c>
@@ -6377,12 +6377,12 @@
       <c r="I42" s="51"/>
       <c r="J42" s="50"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C43" s="52"/>
       <c r="F43" s="23"/>
       <c r="G43" s="27"/>
     </row>
-    <row r="44" spans="1:10" ht="27.6">
+    <row r="44" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>132</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14.4">
+    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="85" t="s">
         <v>223</v>
       </c>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="I45" s="51"/>
     </row>
-    <row r="46" spans="1:10" ht="14.4">
+    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="85" t="s">
         <v>223</v>
       </c>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="I46" s="51"/>
     </row>
-    <row r="47" spans="1:10" ht="14.4">
+    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="85" t="s">
         <v>223</v>
       </c>
@@ -6490,11 +6490,11 @@
       <c r="H47" s="29"/>
       <c r="I47" s="51"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C48" s="52"/>
       <c r="F48" s="54"/>
     </row>
-    <row r="49" spans="1:15" ht="14.4">
+    <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>133</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="14.4">
+    <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>224</v>
       </c>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="I50" s="51"/>
     </row>
-    <row r="51" spans="1:15" ht="14.4">
+    <row r="51" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="53" t="s">
         <v>224</v>
       </c>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="I51" s="51"/>
     </row>
-    <row r="52" spans="1:15" ht="14.4">
+    <row r="52" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>224</v>
       </c>
@@ -6602,11 +6602,11 @@
       <c r="H52" s="29"/>
       <c r="I52" s="51"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C53" s="52"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="14.4">
+    <row r="54" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>43</v>
       </c>
@@ -6641,7 +6641,7 @@
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
     </row>
-    <row r="55" spans="1:15" ht="14.4">
+    <row r="55" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>43</v>
       </c>
@@ -6674,7 +6674,7 @@
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
     </row>
-    <row r="56" spans="1:15" ht="14.4">
+    <row r="56" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>43</v>
       </c>
@@ -6707,7 +6707,7 @@
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="52"/>
@@ -6722,7 +6722,7 @@
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
     </row>
-    <row r="58" spans="1:15" ht="14.4">
+    <row r="58" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>44</v>
       </c>
@@ -6757,7 +6757,7 @@
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
     </row>
-    <row r="59" spans="1:15" ht="14.4">
+    <row r="59" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>44</v>
       </c>
@@ -6790,7 +6790,7 @@
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
     </row>
-    <row r="60" spans="1:15" ht="14.4">
+    <row r="60" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>44</v>
       </c>
@@ -6823,10 +6823,10 @@
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C61" s="52"/>
     </row>
-    <row r="62" spans="1:15" ht="27.6">
+    <row r="62" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>45</v>
       </c>
@@ -6856,7 +6856,7 @@
       </c>
       <c r="J62" s="50"/>
     </row>
-    <row r="63" spans="1:15" ht="14.4">
+    <row r="63" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="88" t="s">
         <v>46</v>
       </c>
@@ -6886,7 +6886,7 @@
       </c>
       <c r="J63" s="50"/>
     </row>
-    <row r="64" spans="1:15" ht="14.4">
+    <row r="64" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="88" t="s">
         <v>46</v>
       </c>
@@ -6914,7 +6914,7 @@
       <c r="I64" s="44"/>
       <c r="J64" s="50"/>
     </row>
-    <row r="65" spans="1:10" ht="14.4">
+    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="88" t="s">
         <v>46</v>
       </c>
@@ -6942,7 +6942,7 @@
       <c r="I65" s="44"/>
       <c r="J65" s="50"/>
     </row>
-    <row r="66" spans="1:10" ht="14.4">
+    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="88" t="s">
         <v>46</v>
       </c>
@@ -6970,7 +6970,7 @@
       <c r="I66" s="44"/>
       <c r="J66" s="50"/>
     </row>
-    <row r="67" spans="1:10" ht="14.4">
+    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="88" t="s">
         <v>46</v>
       </c>
@@ -6998,7 +6998,7 @@
       <c r="I67" s="44"/>
       <c r="J67" s="50"/>
     </row>
-    <row r="68" spans="1:10" ht="14.4">
+    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="88" t="s">
         <v>46</v>
       </c>
@@ -7026,7 +7026,7 @@
       <c r="I68" s="44"/>
       <c r="J68" s="50"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="52"/>
@@ -7036,7 +7036,7 @@
       <c r="I69" s="44"/>
       <c r="J69" s="50"/>
     </row>
-    <row r="70" spans="1:10" ht="27.6">
+    <row r="70" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>46</v>
       </c>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="J70" s="50"/>
     </row>
-    <row r="71" spans="1:10" ht="14.4">
+    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="88" t="s">
         <v>46</v>
       </c>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="J71" s="50"/>
     </row>
-    <row r="72" spans="1:10" ht="14.4">
+    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="88" t="s">
         <v>46</v>
       </c>
@@ -7124,7 +7124,7 @@
       <c r="I72" s="44"/>
       <c r="J72" s="50"/>
     </row>
-    <row r="73" spans="1:10" ht="14.4">
+    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="88" t="s">
         <v>46</v>
       </c>
@@ -7152,7 +7152,7 @@
       <c r="I73" s="44"/>
       <c r="J73" s="50"/>
     </row>
-    <row r="74" spans="1:10" ht="14.4">
+    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="88" t="s">
         <v>46</v>
       </c>
@@ -7180,7 +7180,7 @@
       <c r="I74" s="44"/>
       <c r="J74" s="50"/>
     </row>
-    <row r="75" spans="1:10" ht="14.4">
+    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="88" t="s">
         <v>46</v>
       </c>
@@ -7208,7 +7208,7 @@
       <c r="I75" s="44"/>
       <c r="J75" s="50"/>
     </row>
-    <row r="76" spans="1:10" ht="14.4">
+    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="88" t="s">
         <v>46</v>
       </c>
@@ -7236,10 +7236,10 @@
       <c r="I76" s="44"/>
       <c r="J76" s="50"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C77" s="52"/>
     </row>
-    <row r="78" spans="1:10" ht="14.4">
+    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>47</v>
       </c>
@@ -7262,10 +7262,10 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C79" s="52"/>
     </row>
-    <row r="80" spans="1:10" ht="14.4">
+    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>48</v>
       </c>
@@ -7292,7 +7292,7 @@
       </c>
       <c r="I80" s="63"/>
     </row>
-    <row r="81" spans="1:13" ht="14.4">
+    <row r="81" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>48</v>
       </c>
@@ -7319,10 +7319,10 @@
       </c>
       <c r="I81" s="63"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C82" s="52"/>
     </row>
-    <row r="83" spans="1:13" ht="14.4">
+    <row r="83" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>122</v>
       </c>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="J83" s="29"/>
     </row>
-    <row r="84" spans="1:13" ht="14.4">
+    <row r="84" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>122</v>
       </c>
@@ -7379,10 +7379,10 @@
       </c>
       <c r="I84" s="41"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C85" s="52"/>
     </row>
-    <row r="86" spans="1:13" ht="41.4">
+    <row r="86" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>49</v>
       </c>
@@ -7415,7 +7415,7 @@
       <c r="L86" s="24"/>
       <c r="M86" s="24"/>
     </row>
-    <row r="87" spans="1:13" ht="14.4">
+    <row r="87" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
         <v>49</v>
       </c>
@@ -7446,7 +7446,7 @@
       <c r="L87" s="24"/>
       <c r="M87" s="24"/>
     </row>
-    <row r="88" spans="1:13" ht="14.4">
+    <row r="88" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>49</v>
       </c>
@@ -7477,7 +7477,7 @@
       <c r="L88" s="24"/>
       <c r="M88" s="24"/>
     </row>
-    <row r="89" spans="1:13" ht="14.4">
+    <row r="89" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>49</v>
       </c>
@@ -7508,7 +7508,7 @@
       <c r="L89" s="24"/>
       <c r="M89" s="24"/>
     </row>
-    <row r="90" spans="1:13" ht="14.4">
+    <row r="90" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
         <v>49</v>
       </c>
@@ -7539,7 +7539,7 @@
       <c r="L90" s="24"/>
       <c r="M90" s="24"/>
     </row>
-    <row r="91" spans="1:13" ht="14.4">
+    <row r="91" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
         <v>49</v>
       </c>
@@ -7570,7 +7570,7 @@
       <c r="L91" s="24"/>
       <c r="M91" s="24"/>
     </row>
-    <row r="92" spans="1:13" ht="14.4">
+    <row r="92" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
         <v>49</v>
       </c>
@@ -7601,7 +7601,7 @@
       <c r="L92" s="24"/>
       <c r="M92" s="24"/>
     </row>
-    <row r="93" spans="1:13" ht="14.4">
+    <row r="93" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>49</v>
       </c>
@@ -7632,7 +7632,7 @@
       <c r="L93" s="24"/>
       <c r="M93" s="24"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C94" s="52"/>
       <c r="G94" s="24"/>
       <c r="H94" s="24"/>
@@ -7642,7 +7642,7 @@
       <c r="L94" s="24"/>
       <c r="M94" s="24"/>
     </row>
-    <row r="95" spans="1:13" ht="39.6">
+    <row r="95" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
         <v>50</v>
       </c>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="J95" s="24"/>
     </row>
-    <row r="96" spans="1:13" ht="14.4">
+    <row r="96" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>50</v>
       </c>
@@ -7700,7 +7700,7 @@
       <c r="I96" s="67"/>
       <c r="J96" s="24"/>
     </row>
-    <row r="97" spans="1:10" ht="14.4">
+    <row r="97" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>50</v>
       </c>
@@ -7728,7 +7728,7 @@
       <c r="I97" s="67"/>
       <c r="J97" s="24"/>
     </row>
-    <row r="98" spans="1:10" ht="14.4">
+    <row r="98" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>50</v>
       </c>
@@ -7756,7 +7756,7 @@
       <c r="I98" s="68"/>
       <c r="J98" s="24"/>
     </row>
-    <row r="99" spans="1:10" ht="14.4">
+    <row r="99" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>50</v>
       </c>
@@ -7784,7 +7784,7 @@
       <c r="I99" s="67"/>
       <c r="J99" s="24"/>
     </row>
-    <row r="100" spans="1:10" ht="14.4">
+    <row r="100" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>50</v>
       </c>
@@ -7812,7 +7812,7 @@
       <c r="I100" s="67"/>
       <c r="J100" s="24"/>
     </row>
-    <row r="101" spans="1:10" ht="14.4">
+    <row r="101" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>50</v>
       </c>
@@ -7840,7 +7840,7 @@
       <c r="I101" s="68"/>
       <c r="J101" s="24"/>
     </row>
-    <row r="102" spans="1:10" ht="14.4">
+    <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>50</v>
       </c>
@@ -7868,14 +7868,14 @@
       <c r="I102" s="67"/>
       <c r="J102" s="69"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C103" s="52"/>
       <c r="G103" s="24"/>
       <c r="H103" s="24"/>
       <c r="I103" s="43"/>
       <c r="J103" s="65"/>
     </row>
-    <row r="104" spans="1:10" ht="52.8">
+    <row r="104" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>51</v>
       </c>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="J104" s="70"/>
     </row>
-    <row r="105" spans="1:10" ht="14.4">
+    <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>51</v>
       </c>
@@ -7933,7 +7933,7 @@
       <c r="I105" s="73"/>
       <c r="J105" s="70"/>
     </row>
-    <row r="106" spans="1:10" ht="14.4">
+    <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>51</v>
       </c>
@@ -7961,7 +7961,7 @@
       <c r="I106" s="46"/>
       <c r="J106" s="70"/>
     </row>
-    <row r="107" spans="1:10" ht="14.4">
+    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>51</v>
       </c>
@@ -7989,7 +7989,7 @@
       <c r="I107" s="46"/>
       <c r="J107" s="70"/>
     </row>
-    <row r="108" spans="1:10" ht="14.4">
+    <row r="108" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>51</v>
       </c>
@@ -8017,7 +8017,7 @@
       <c r="I108" s="46"/>
       <c r="J108" s="70"/>
     </row>
-    <row r="109" spans="1:10" ht="14.4">
+    <row r="109" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>51</v>
       </c>
@@ -8045,7 +8045,7 @@
       <c r="I109" s="74"/>
       <c r="J109" s="70"/>
     </row>
-    <row r="110" spans="1:10" ht="14.4">
+    <row r="110" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>51</v>
       </c>
@@ -8075,7 +8075,7 @@
       </c>
       <c r="J110" s="70"/>
     </row>
-    <row r="111" spans="1:10" ht="14.4">
+    <row r="111" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>51</v>
       </c>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="J111" s="70"/>
     </row>
-    <row r="112" spans="1:10" ht="14.4">
+    <row r="112" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>51</v>
       </c>
@@ -8135,7 +8135,7 @@
       </c>
       <c r="J112" s="70"/>
     </row>
-    <row r="113" spans="1:10" ht="14.4">
+    <row r="113" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>51</v>
       </c>
@@ -8165,14 +8165,14 @@
       </c>
       <c r="J113" s="70"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C114" s="52"/>
       <c r="G114" s="65"/>
       <c r="H114" s="105"/>
       <c r="I114" s="43"/>
       <c r="J114" s="70"/>
     </row>
-    <row r="115" spans="1:10" ht="39.6">
+    <row r="115" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
         <v>52</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="14.4">
+    <row r="116" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>52</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="I116" s="73"/>
     </row>
-    <row r="117" spans="1:10" ht="14.4">
+    <row r="117" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>52</v>
       </c>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="I117" s="46"/>
     </row>
-    <row r="118" spans="1:10" ht="14.4">
+    <row r="118" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>52</v>
       </c>
@@ -8282,7 +8282,7 @@
       </c>
       <c r="I118" s="46"/>
     </row>
-    <row r="119" spans="1:10" ht="14.4">
+    <row r="119" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>52</v>
       </c>
@@ -8309,7 +8309,7 @@
       </c>
       <c r="I119" s="46"/>
     </row>
-    <row r="120" spans="1:10" ht="14.4">
+    <row r="120" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>52</v>
       </c>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="I120" s="74"/>
     </row>
-    <row r="121" spans="1:10" ht="14.4">
+    <row r="121" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
         <v>52</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="14.4">
+    <row r="122" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
         <v>52</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="14.4">
+    <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
         <v>52</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="14.4">
+    <row r="124" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
         <v>52</v>
       </c>
@@ -8452,13 +8452,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C125" s="52"/>
       <c r="G125" s="65"/>
       <c r="H125" s="105"/>
       <c r="I125" s="43"/>
     </row>
-    <row r="126" spans="1:10" ht="14.4">
+    <row r="126" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>53</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="14.4">
+    <row r="127" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
         <v>53</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>-39.573716670000003</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="14.4">
+    <row r="128" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
         <v>53</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>1.23989E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="14.4">
+    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
         <v>53</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>2.812243E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="14.4">
+    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
         <v>53</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>-2.0355120000000002E-6</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="14.4">
+    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
         <v>53</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>2.1719600000000001E-7</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="14.4">
+    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
         <v>53</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>-67.195139999999995</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="14.4">
+    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
         <v>53</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>53.856749999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="14.4">
+    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
         <v>53</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>-0.6133229</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="14.4">
+    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
         <v>53</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>524593.69999999995</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="14.4">
+    <row r="136" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
         <v>53</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>6.8696820000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="14.4">
+    <row r="137" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
         <v>53</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>-0.20935980000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="14.4">
+    <row r="138" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
         <v>53</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>24.944880000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="14.4">
+    <row r="139" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
         <v>53</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>1.75E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="14.4">
+    <row r="140" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
         <v>53</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="14.4">
+    <row r="141" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
         <v>53</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>2.300336E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="14.4">
+    <row r="142" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
         <v>53</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>4.8976260000000002E-4</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="14.4">
+    <row r="143" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
         <v>53</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>-5.1941929999999998E-12</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="14.4">
+    <row r="144" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
         <v>53</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>-0.97436889999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14.4">
+    <row r="145" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
         <v>53</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>0.15258389999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="14.4">
+    <row r="146" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
         <v>53</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>-2.0437090000000001E-4</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="14.4">
+    <row r="147" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
         <v>53</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>3.776429E-5</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="14.4">
+    <row r="148" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
         <v>53</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="14.4">
+    <row r="149" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
         <v>53</v>
       </c>
@@ -9085,10 +9085,10 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C150" s="52"/>
     </row>
-    <row r="151" spans="1:10" ht="14.4">
+    <row r="151" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
         <v>54</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="14.4">
+    <row r="152" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
         <v>54</v>
       </c>
@@ -9144,10 +9144,10 @@
       </c>
       <c r="I152" s="63"/>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C153" s="52"/>
     </row>
-    <row r="154" spans="1:10" ht="14.4">
+    <row r="154" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
         <v>55</v>
       </c>
@@ -9177,7 +9177,7 @@
       </c>
       <c r="J154" s="50"/>
     </row>
-    <row r="155" spans="1:10" ht="14.4">
+    <row r="155" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
         <v>55</v>
       </c>
@@ -9205,7 +9205,7 @@
       <c r="I155" s="56"/>
       <c r="J155" s="50"/>
     </row>
-    <row r="156" spans="1:10" ht="14.4">
+    <row r="156" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
         <v>55</v>
       </c>
@@ -9233,7 +9233,7 @@
       <c r="I156" s="56"/>
       <c r="J156" s="50"/>
     </row>
-    <row r="157" spans="1:10" ht="14.4">
+    <row r="157" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="s">
         <v>55</v>
       </c>
@@ -9261,7 +9261,7 @@
       <c r="I157" s="56"/>
       <c r="J157" s="50"/>
     </row>
-    <row r="158" spans="1:10" ht="14.4">
+    <row r="158" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
         <v>55</v>
       </c>
@@ -9289,7 +9289,7 @@
       <c r="I158" s="56"/>
       <c r="J158" s="50"/>
     </row>
-    <row r="159" spans="1:10" ht="14.4">
+    <row r="159" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="18" t="s">
         <v>55</v>
       </c>
@@ -9317,7 +9317,7 @@
       <c r="I159" s="56"/>
       <c r="J159" s="50"/>
     </row>
-    <row r="160" spans="1:10" ht="14.4">
+    <row r="160" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="18" t="s">
         <v>55</v>
       </c>
@@ -9345,7 +9345,7 @@
       <c r="I160" s="56"/>
       <c r="J160" s="50"/>
     </row>
-    <row r="161" spans="1:10" ht="14.4">
+    <row r="161" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="s">
         <v>55</v>
       </c>
@@ -9373,10 +9373,10 @@
       <c r="I161" s="56"/>
       <c r="J161" s="50"/>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C162" s="52"/>
     </row>
-    <row r="163" spans="1:10" ht="14.4">
+    <row r="163" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
         <v>195</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="14.4">
+    <row r="164" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="18" t="s">
         <v>195</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>59.9435833</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="14.4">
+    <row r="165" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="s">
         <v>195</v>
       </c>
@@ -9454,13 +9454,13 @@
         <v>-39.573716670000003</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="18"/>
       <c r="B166" s="18"/>
       <c r="C166" s="52"/>
       <c r="G166" s="20"/>
     </row>
-    <row r="167" spans="1:10" ht="14.4">
+    <row r="167" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
         <v>56</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="14.4">
+    <row r="168" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="18" t="s">
         <v>56</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>59.9435833</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="14.4">
+    <row r="169" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="18" t="s">
         <v>56</v>
       </c>
@@ -9538,13 +9538,13 @@
         <v>-39.573716670000003</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="18"/>
       <c r="B170" s="18"/>
       <c r="C170" s="52"/>
       <c r="G170" s="20"/>
     </row>
-    <row r="171" spans="1:10" ht="14.4">
+    <row r="171" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="s">
         <v>194</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="14.4">
+    <row r="172" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="18" t="s">
         <v>194</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>59.9435833</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="14.4">
+    <row r="173" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="18" t="s">
         <v>194</v>
       </c>
@@ -9622,13 +9622,13 @@
         <v>-39.573716670000003</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="18"/>
       <c r="B174" s="18"/>
       <c r="C174" s="52"/>
       <c r="G174" s="20"/>
     </row>
-    <row r="175" spans="1:10" ht="14.4">
+    <row r="175" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="17" t="s">
         <v>193</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="14.4">
+    <row r="176" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="18" t="s">
         <v>193</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>59.9435833</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="14.4">
+    <row r="177" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
         <v>193</v>
       </c>
@@ -9706,13 +9706,13 @@
         <v>-39.573716670000003</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="18"/>
       <c r="B178" s="18"/>
       <c r="C178" s="52"/>
       <c r="G178" s="20"/>
     </row>
-    <row r="179" spans="1:8" ht="14.4">
+    <row r="179" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="s">
         <v>192</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="14.4">
+    <row r="180" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
         <v>192</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>59.9435833</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="14.4">
+    <row r="181" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="s">
         <v>192</v>
       </c>
@@ -9790,13 +9790,13 @@
         <v>-39.573716670000003</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="18"/>
       <c r="B182" s="18"/>
       <c r="C182" s="52"/>
       <c r="G182" s="20"/>
     </row>
-    <row r="183" spans="1:8" ht="14.4">
+    <row r="183" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="s">
         <v>191</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="14.4">
+    <row r="184" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
         <v>191</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>59.9435833</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="14.4">
+    <row r="185" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
         <v>191</v>
       </c>
@@ -9874,13 +9874,13 @@
         <v>-39.573716670000003</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="18"/>
       <c r="B186" s="18"/>
       <c r="C186" s="52"/>
       <c r="G186" s="20"/>
     </row>
-    <row r="187" spans="1:8" ht="14.4">
+    <row r="187" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="17" t="s">
         <v>190</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="14.4">
+    <row r="188" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="18" t="s">
         <v>190</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>59.9435833</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="14.4">
+    <row r="189" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="18" t="s">
         <v>190</v>
       </c>
@@ -9958,13 +9958,13 @@
         <v>-39.573716670000003</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="18"/>
       <c r="B190" s="18"/>
       <c r="C190" s="52"/>
       <c r="G190" s="20"/>
     </row>
-    <row r="191" spans="1:8" ht="14.4">
+    <row r="191" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="23" t="s">
         <v>187</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>5076</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="14.4">
+    <row r="192" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
         <v>187</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>59.9435833</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="14.4">
+    <row r="193" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
         <v>187</v>
       </c>
@@ -10042,13 +10042,13 @@
         <v>-39.573716670000003</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="18"/>
       <c r="B194" s="18"/>
       <c r="C194" s="52"/>
       <c r="G194" s="20"/>
     </row>
-    <row r="195" spans="1:8" ht="14.4">
+    <row r="195" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="23" t="s">
         <v>188</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>5076</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="14.4">
+    <row r="196" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="18" t="s">
         <v>188</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>59.9435833</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="14.4">
+    <row r="197" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="s">
         <v>188</v>
       </c>
@@ -10126,13 +10126,13 @@
         <v>-39.573716670000003</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="18"/>
       <c r="B198" s="18"/>
       <c r="C198" s="52"/>
       <c r="G198" s="20"/>
     </row>
-    <row r="199" spans="1:8" ht="14.4">
+    <row r="199" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="23" t="s">
         <v>189</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>5076</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="14.4">
+    <row r="200" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
         <v>189</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>59.9435833</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="14.4">
+    <row r="201" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
         <v>189</v>
       </c>
@@ -10210,11 +10210,11 @@
         <v>-39.573716670000003</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C202" s="52"/>
       <c r="G202" s="20"/>
     </row>
-    <row r="203" spans="1:8" ht="14.4">
+    <row r="203" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="17" t="s">
         <v>186</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>17533</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="14.4">
+    <row r="204" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="18" t="s">
         <v>186</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="14.4">
+    <row r="205" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="18" t="s">
         <v>186</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="14.4">
+    <row r="206" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
         <v>186</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="14.4">
+    <row r="207" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="18" t="s">
         <v>186</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="14.4">
+    <row r="208" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="18" t="s">
         <v>186</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="14.4">
+    <row r="209" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="18" t="s">
         <v>186</v>
       </c>
@@ -10399,10 +10399,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C210" s="52"/>
     </row>
-    <row r="211" spans="1:9" ht="14.4">
+    <row r="211" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="17" t="s">
         <v>185</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>17533</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="14.4">
+    <row r="212" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="18" t="s">
         <v>185</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="14.4">
+    <row r="213" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="18" t="s">
         <v>185</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="14.4">
+    <row r="214" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="18" t="s">
         <v>185</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="14.4">
+    <row r="215" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="18" t="s">
         <v>185</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="14.4">
+    <row r="216" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="18" t="s">
         <v>185</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="14.4">
+    <row r="217" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="18" t="s">
         <v>185</v>
       </c>
@@ -10587,14 +10587,14 @@
         <v>121</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="18"/>
       <c r="B218" s="18"/>
       <c r="C218" s="52"/>
       <c r="G218" s="21"/>
       <c r="H218" s="21"/>
     </row>
-    <row r="219" spans="1:9" ht="27.6">
+    <row r="219" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A219" s="17" t="s">
         <v>182</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="14.4">
+    <row r="220" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="18" t="s">
         <v>182</v>
       </c>
@@ -10650,7 +10650,7 @@
       </c>
       <c r="I220" s="43"/>
     </row>
-    <row r="221" spans="1:9" ht="14.4">
+    <row r="221" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="18" t="s">
         <v>182</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>1.272385E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="14.4">
+    <row r="222" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="18" t="s">
         <v>182</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>2.6939759999999998E-4</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="14.4">
+    <row r="223" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="18" t="s">
         <v>182</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>-6.6644549999999997E-7</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="14.4">
+    <row r="224" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="18" t="s">
         <v>182</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>1.610758E-7</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="14.4">
+    <row r="225" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="18" t="s">
         <v>182</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>-106.18519999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="14.4">
+    <row r="226" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="18" t="s">
         <v>182</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>107.2362</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="14.4">
+    <row r="227" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="18" t="s">
         <v>182</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>-17.988040000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="14.4">
+    <row r="228" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="18" t="s">
         <v>182</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>524741.5</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="14.4">
+    <row r="229" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="18" t="s">
         <v>182</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>-24.065079999999998</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="14.4">
+    <row r="230" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="18" t="s">
         <v>182</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>0.38198009999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="14.4">
+    <row r="231" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="18" t="s">
         <v>182</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>25.12837</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="14.4">
+    <row r="232" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="18" t="s">
         <v>182</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>2.7500000000000002E-4</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="14.4">
+    <row r="233" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="18" t="s">
         <v>182</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="14.4">
+    <row r="234" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="18" t="s">
         <v>182</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>-0.94230559999999997</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="14.4">
+    <row r="235" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="18" t="s">
         <v>182</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>2.63949E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="14.4">
+    <row r="236" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="18" t="s">
         <v>182</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>2.0365509999999999E-11</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="14.4">
+    <row r="237" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="18" t="s">
         <v>182</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>-0.97904060000000004</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="14.4">
+    <row r="238" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="18" t="s">
         <v>182</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>0.14995810000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="14.4">
+    <row r="239" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="18" t="s">
         <v>182</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>-1.870187E-4</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="14.4">
+    <row r="240" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="18" t="s">
         <v>182</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>3.478694E-5</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="14.4">
+    <row r="241" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="18" t="s">
         <v>182</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="14.4">
+    <row r="242" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="18" t="s">
         <v>182</v>
       </c>
@@ -11222,12 +11222,12 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C243" s="52"/>
       <c r="F243" s="3"/>
       <c r="I243" s="43"/>
     </row>
-    <row r="244" spans="1:9" ht="27.6">
+    <row r="244" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="17" t="s">
         <v>183</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="14.4">
+    <row r="245" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="18" t="s">
         <v>183</v>
       </c>
@@ -11283,7 +11283,7 @@
       </c>
       <c r="I245" s="43"/>
     </row>
-    <row r="246" spans="1:9" ht="14.4">
+    <row r="246" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="18" t="s">
         <v>183</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>1.26964E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="14.4">
+    <row r="247" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="18" t="s">
         <v>183</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>2.7289829999999998E-4</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="14.4">
+    <row r="248" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="18" t="s">
         <v>183</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>-1.2887780000000001E-6</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="14.4">
+    <row r="249" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="18" t="s">
         <v>183</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>1.8637150000000001E-7</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="14.4">
+    <row r="250" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="18" t="s">
         <v>183</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>-106.18559999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="14.4">
+    <row r="251" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="18" t="s">
         <v>183</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>107.2367</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="14.4">
+    <row r="252" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="18" t="s">
         <v>183</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>-17.988189999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="14.4">
+    <row r="253" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="18" t="s">
         <v>183</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>524818.30000000005</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="14.4">
+    <row r="254" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="18" t="s">
         <v>183</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>-87.59254</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="14.4">
+    <row r="255" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="18" t="s">
         <v>183</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>1.4377599999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="14.4">
+    <row r="256" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="18" t="s">
         <v>183</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>25.076750000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="14.4">
+    <row r="257" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="18" t="s">
         <v>183</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>-8.4999999999999995E-4</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="14.4">
+    <row r="258" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="18" t="s">
         <v>183</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="14.4">
+    <row r="259" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="18" t="s">
         <v>183</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>-3.3342100000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="14.4">
+    <row r="260" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="18" t="s">
         <v>183</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>2.6420599999999999E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="14.4">
+    <row r="261" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="18" t="s">
         <v>183</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>2.0756889999999999E-11</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="14.4">
+    <row r="262" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="18" t="s">
         <v>183</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>-0.98462629999999995</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="14.4">
+    <row r="263" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="18" t="s">
         <v>183</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>0.15553159999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="14.4">
+    <row r="264" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="18" t="s">
         <v>183</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>-1.9385299999999999E-4</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="14.4">
+    <row r="265" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="18" t="s">
         <v>183</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>3.7671389999999999E-5</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="14.4">
+    <row r="266" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="18" t="s">
         <v>183</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="14.4">
+    <row r="267" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="18" t="s">
         <v>183</v>
       </c>
@@ -11855,12 +11855,12 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C268" s="52"/>
       <c r="F268" s="3"/>
       <c r="I268" s="43"/>
     </row>
-    <row r="269" spans="1:9" ht="27.6">
+    <row r="269" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A269" s="17" t="s">
         <v>184</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="14.4">
+    <row r="270" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="18" t="s">
         <v>184</v>
       </c>
@@ -11916,7 +11916,7 @@
       </c>
       <c r="I270" s="43"/>
     </row>
-    <row r="271" spans="1:9" ht="14.4">
+    <row r="271" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="18" t="s">
         <v>184</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>1.2500569999999999E-3</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="14.4">
+    <row r="272" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="18" t="s">
         <v>184</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>2.741547E-4</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="14.4">
+    <row r="273" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="18" t="s">
         <v>184</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>-1.042822E-6</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="14.4">
+    <row r="274" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="18" t="s">
         <v>184</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>1.8384059999999999E-7</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="14.4">
+    <row r="275" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="18" t="s">
         <v>184</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>-117.0891</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="14.4">
+    <row r="276" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="18" t="s">
         <v>184</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>110.8343</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="14.4">
+    <row r="277" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="18" t="s">
         <v>184</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>-17.988189999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="14.4">
+    <row r="278" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="18" t="s">
         <v>184</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>524006.40000000002</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="14.4">
+    <row r="279" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="18" t="s">
         <v>184</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>-17.020579999999999</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="14.4">
+    <row r="280" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="18" t="s">
         <v>184</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>0.25232939999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="14.4">
+    <row r="281" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="18" t="s">
         <v>184</v>
       </c>
@@ -12202,7 +12202,7 @@
         <v>24.986129999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="14.4">
+    <row r="282" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="18" t="s">
         <v>184</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>-3.7500000000000001E-4</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="14.4">
+    <row r="283" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="18" t="s">
         <v>184</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="14.4">
+    <row r="284" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="18" t="s">
         <v>184</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>-0.68240800000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="14.4">
+    <row r="285" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="18" t="s">
         <v>184</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>2.6478389999999999E-3</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="14.4">
+    <row r="286" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="18" t="s">
         <v>184</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>1.944753E-11</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="14.4">
+    <row r="287" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="18" t="s">
         <v>184</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>-0.9970329</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="14.4">
+    <row r="288" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="18" t="s">
         <v>184</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>0.15253030000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="14.4">
+    <row r="289" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="18" t="s">
         <v>184</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>-1.6533699999999999E-4</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="14.4">
+    <row r="290" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="18" t="s">
         <v>184</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>3.4513700000000001E-5</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="14.4">
+    <row r="291" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="18" t="s">
         <v>184</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="14.4">
+    <row r="292" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="18" t="s">
         <v>184</v>
       </c>
@@ -12488,12 +12488,12 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C293" s="52"/>
       <c r="F293" s="3"/>
       <c r="I293" s="43"/>
     </row>
-    <row r="294" spans="1:9" ht="41.4">
+    <row r="294" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A294" s="17" t="s">
         <v>181</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="14.4">
+    <row r="295" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="18" t="s">
         <v>181</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="14.4">
+    <row r="296" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="18" t="s">
         <v>181</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="14.4">
+    <row r="297" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="18" t="s">
         <v>181</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="14.4">
+    <row r="298" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="18" t="s">
         <v>181</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="14.4">
+    <row r="299" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="18" t="s">
         <v>181</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="14.4">
+    <row r="300" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="18" t="s">
         <v>181</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="14.4">
+    <row r="301" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="18" t="s">
         <v>181</v>
       </c>
@@ -12725,11 +12725,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C302" s="52"/>
       <c r="F302" s="23"/>
     </row>
-    <row r="303" spans="1:9" ht="41.4">
+    <row r="303" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A303" s="17" t="s">
         <v>180</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="14.4">
+    <row r="304" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="18" t="s">
         <v>180</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="14.4">
+    <row r="305" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="18" t="s">
         <v>180</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="14.4">
+    <row r="306" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="18" t="s">
         <v>180</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="14.4">
+    <row r="307" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="18" t="s">
         <v>180</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="14.4">
+    <row r="308" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="18" t="s">
         <v>180</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="14.4">
+    <row r="309" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="18" t="s">
         <v>180</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="14.4">
+    <row r="310" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="18" t="s">
         <v>180</v>
       </c>
@@ -12961,11 +12961,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C311" s="52"/>
       <c r="F311" s="23"/>
     </row>
-    <row r="312" spans="1:9" ht="41.4">
+    <row r="312" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A312" s="17" t="s">
         <v>179</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="14.4">
+    <row r="313" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="18" t="s">
         <v>179</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="14.4">
+    <row r="314" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="18" t="s">
         <v>179</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="14.4">
+    <row r="315" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="18" t="s">
         <v>179</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="14.4">
+    <row r="316" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="18" t="s">
         <v>179</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="14.4">
+    <row r="317" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="18" t="s">
         <v>179</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="14.4">
+    <row r="318" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="18" t="s">
         <v>179</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="14.4">
+    <row r="319" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="18" t="s">
         <v>179</v>
       </c>
@@ -13197,12 +13197,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C320" s="52"/>
       <c r="F320" s="23"/>
       <c r="I320" s="43"/>
     </row>
-    <row r="321" spans="1:9" ht="27.6">
+    <row r="321" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A321" s="17" t="s">
         <v>176</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="14.4">
+    <row r="322" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="18" t="s">
         <v>176</v>
       </c>
@@ -13258,7 +13258,7 @@
       </c>
       <c r="I322" s="43"/>
     </row>
-    <row r="323" spans="1:9" ht="14.4">
+    <row r="323" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="18" t="s">
         <v>176</v>
       </c>
@@ -13285,7 +13285,7 @@
       </c>
       <c r="I323" s="43"/>
     </row>
-    <row r="324" spans="1:9" ht="14.4">
+    <row r="324" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="18" t="s">
         <v>176</v>
       </c>
@@ -13312,7 +13312,7 @@
       </c>
       <c r="I324" s="43"/>
     </row>
-    <row r="325" spans="1:9" ht="14.4">
+    <row r="325" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="18" t="s">
         <v>176</v>
       </c>
@@ -13339,7 +13339,7 @@
       </c>
       <c r="I325" s="43"/>
     </row>
-    <row r="326" spans="1:9" ht="14.4">
+    <row r="326" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="18" t="s">
         <v>176</v>
       </c>
@@ -13366,7 +13366,7 @@
       </c>
       <c r="I326" s="43"/>
     </row>
-    <row r="327" spans="1:9" ht="14.4">
+    <row r="327" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="18" t="s">
         <v>176</v>
       </c>
@@ -13393,7 +13393,7 @@
       </c>
       <c r="I327" s="43"/>
     </row>
-    <row r="328" spans="1:9" ht="14.4">
+    <row r="328" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="18" t="s">
         <v>176</v>
       </c>
@@ -13420,12 +13420,12 @@
       </c>
       <c r="I328" s="43"/>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C329" s="52"/>
       <c r="F329" s="23"/>
       <c r="I329" s="43"/>
     </row>
-    <row r="330" spans="1:9" ht="27.6">
+    <row r="330" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A330" s="17" t="s">
         <v>177</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="14.4">
+    <row r="331" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="18" t="s">
         <v>177</v>
       </c>
@@ -13481,7 +13481,7 @@
       </c>
       <c r="I331" s="43"/>
     </row>
-    <row r="332" spans="1:9" ht="14.4">
+    <row r="332" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="18" t="s">
         <v>177</v>
       </c>
@@ -13508,7 +13508,7 @@
       </c>
       <c r="I332" s="43"/>
     </row>
-    <row r="333" spans="1:9" ht="14.4">
+    <row r="333" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="18" t="s">
         <v>177</v>
       </c>
@@ -13535,7 +13535,7 @@
       </c>
       <c r="I333" s="43"/>
     </row>
-    <row r="334" spans="1:9" ht="14.4">
+    <row r="334" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="18" t="s">
         <v>177</v>
       </c>
@@ -13562,7 +13562,7 @@
       </c>
       <c r="I334" s="43"/>
     </row>
-    <row r="335" spans="1:9" ht="14.4">
+    <row r="335" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="18" t="s">
         <v>177</v>
       </c>
@@ -13589,7 +13589,7 @@
       </c>
       <c r="I335" s="43"/>
     </row>
-    <row r="336" spans="1:9" ht="14.4">
+    <row r="336" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="18" t="s">
         <v>177</v>
       </c>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="I336" s="43"/>
     </row>
-    <row r="337" spans="1:9" ht="14.4">
+    <row r="337" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="18" t="s">
         <v>177</v>
       </c>
@@ -13643,12 +13643,12 @@
       </c>
       <c r="I337" s="43"/>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C338" s="52"/>
       <c r="F338" s="23"/>
       <c r="I338" s="43"/>
     </row>
-    <row r="339" spans="1:9" ht="27.6">
+    <row r="339" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A339" s="17" t="s">
         <v>178</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="14.4">
+    <row r="340" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="18" t="s">
         <v>178</v>
       </c>
@@ -13704,7 +13704,7 @@
       </c>
       <c r="I340" s="43"/>
     </row>
-    <row r="341" spans="1:9" ht="14.4">
+    <row r="341" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="18" t="s">
         <v>178</v>
       </c>
@@ -13731,7 +13731,7 @@
       </c>
       <c r="I341" s="43"/>
     </row>
-    <row r="342" spans="1:9" ht="14.4">
+    <row r="342" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="18" t="s">
         <v>178</v>
       </c>
@@ -13758,7 +13758,7 @@
       </c>
       <c r="I342" s="43"/>
     </row>
-    <row r="343" spans="1:9" ht="14.4">
+    <row r="343" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="18" t="s">
         <v>178</v>
       </c>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="I343" s="43"/>
     </row>
-    <row r="344" spans="1:9" ht="14.4">
+    <row r="344" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="18" t="s">
         <v>178</v>
       </c>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="I344" s="43"/>
     </row>
-    <row r="345" spans="1:9" ht="14.4">
+    <row r="345" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="18" t="s">
         <v>178</v>
       </c>
@@ -13839,7 +13839,7 @@
       </c>
       <c r="I345" s="43"/>
     </row>
-    <row r="346" spans="1:9" ht="14.4">
+    <row r="346" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="18" t="s">
         <v>178</v>
       </c>
@@ -13866,10 +13866,10 @@
       </c>
       <c r="I346" s="43"/>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C347" s="52"/>
     </row>
-    <row r="348" spans="1:9" ht="14.4">
+    <row r="348" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="17" t="s">
         <v>175</v>
       </c>
@@ -13895,7 +13895,7 @@
         <v>59.9435833</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="14.4">
+    <row r="349" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="18" t="s">
         <v>175</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>-39.573716670000003</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="14.4">
+    <row r="350" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="18" t="s">
         <v>175</v>
       </c>
@@ -13950,7 +13950,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="14.4">
+    <row r="351" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="18" t="s">
         <v>175</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="14.4">
+    <row r="352" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="18" t="s">
         <v>175</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="14.4">
+    <row r="353" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="18" t="s">
         <v>175</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="14.4">
+    <row r="354" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="18" t="s">
         <v>175</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="18"/>
       <c r="B355" s="18"/>
       <c r="C355" s="53"/>
@@ -14064,7 +14064,7 @@
       <c r="G355" s="22"/>
       <c r="H355" s="23"/>
     </row>
-    <row r="356" spans="1:9" ht="27.6">
+    <row r="356" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A356" s="76" t="s">
         <v>124</v>
       </c>
@@ -14087,7 +14087,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="27.6">
+    <row r="357" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A357" s="76" t="s">
         <v>125</v>
       </c>
@@ -14110,14 +14110,14 @@
         <v>123</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="76"/>
       <c r="B358" s="76"/>
       <c r="C358" s="77"/>
       <c r="D358" s="12"/>
       <c r="E358" s="12"/>
     </row>
-    <row r="359" spans="1:9" ht="27.6">
+    <row r="359" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A359" s="76" t="s">
         <v>126</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="27.6">
+    <row r="360" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A360" s="76" t="s">
         <v>127</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="27.6">
+    <row r="361" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A361" s="76" t="s">
         <v>128</v>
       </c>
@@ -14210,12 +14210,12 @@
       <selection activeCell="AJ10" sqref="AJ1:AJ1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="90"/>
+    <col min="1" max="16384" width="8.7109375" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="90">
         <v>-6.8700999999999998E-2</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>4.1104000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="90">
         <v>-6.2135000000000003E-2</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>3.4664E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="90">
         <v>-5.1394000000000002E-2</v>
       </c>
@@ -14545,7 +14545,7 @@
         <v>2.572E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="90">
         <v>-3.8256999999999999E-2</v>
       </c>
@@ -14655,7 +14655,7 @@
         <v>1.7861999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="90">
         <v>-2.8541E-2</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>1.1129999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="90">
         <v>-2.0045E-2</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>6.3470000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="90">
         <v>-1.3967E-2</v>
       </c>
@@ -14985,7 +14985,7 @@
         <v>3.539E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="90">
         <v>-1.0566000000000001E-2</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>1.9139999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="90">
         <v>-7.803E-3</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>8.8800000000000001E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="90">
         <v>-5.7109999999999999E-3</v>
       </c>
@@ -15315,7 +15315,7 @@
         <v>2.61E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="90">
         <v>-3.8779999999999999E-3</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="90">
         <v>-2.8319999999999999E-3</v>
       </c>
@@ -15535,7 +15535,7 @@
         <v>-2.9799999999999998E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="90">
         <v>-2.0660000000000001E-3</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>-6.2E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="90">
         <v>-3.4200000000000002E-4</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>-6.02E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="90">
         <v>2.5500000000000002E-4</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>-7.8600000000000002E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="90">
         <v>9.990000000000001E-4</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>-8.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="90">
         <v>1.2669999999999999E-3</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>-9.5E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="90">
         <v>1.3389999999999999E-3</v>
       </c>
@@ -16195,7 +16195,7 @@
         <v>-9.6900000000000003E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="90">
         <v>1.7359999999999999E-3</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>-8.43E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="90">
         <v>1.7930000000000001E-3</v>
       </c>
@@ -16415,7 +16415,7 @@
         <v>-9.0799999999999995E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="90">
         <v>1.6479999999999999E-3</v>
       </c>
@@ -16525,7 +16525,7 @@
         <v>-9.4200000000000002E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="90">
         <v>2.0119999999999999E-3</v>
       </c>
@@ -16635,7 +16635,7 @@
         <v>-9.7000000000000005E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="90">
         <v>2.0569999999999998E-3</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>-9.9700000000000006E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="90">
         <v>1.7650000000000001E-3</v>
       </c>
@@ -16855,7 +16855,7 @@
         <v>-1.016E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="90">
         <v>2.0349999999999999E-3</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>-1.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="90">
         <v>1.9729999999999999E-3</v>
       </c>
@@ -17075,7 +17075,7 @@
         <v>-1.0970000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="90">
         <v>1.7290000000000001E-3</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>-1.157E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="90">
         <v>1.8240000000000001E-3</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>-1.2210000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="90">
         <v>1.5510000000000001E-3</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>-1.25E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="90">
         <v>1.462E-3</v>
       </c>
@@ -17515,7 +17515,7 @@
         <v>-1.317E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="90">
         <v>1.467E-3</v>
       </c>
@@ -17625,7 +17625,7 @@
         <v>-1.408E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="90">
         <v>1.3090000000000001E-3</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>-1.4940000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="90">
         <v>1.1169999999999999E-3</v>
       </c>
@@ -17845,7 +17845,7 @@
         <v>-1.5839999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="90">
         <v>6.8999999999999997E-4</v>
       </c>
@@ -17955,7 +17955,7 @@
         <v>-1.629E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="90">
         <v>6.3100000000000005E-4</v>
       </c>
@@ -18065,7 +18065,7 @@
         <v>-1.7309999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="90">
         <v>6.0499999999999996E-4</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>-1.836E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="90">
         <v>5.2999999999999998E-4</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>-1.926E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="90">
         <v>1.8699999999999999E-4</v>
       </c>
@@ -18395,7 +18395,7 @@
         <v>-1.9780000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="90">
         <v>5.3000000000000001E-5</v>
       </c>
@@ -18505,7 +18505,7 @@
         <v>-2.075E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="90">
         <v>-1.94E-4</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>-2.1099999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="90">
         <v>-3.1599999999999998E-4</v>
       </c>
@@ -18725,7 +18725,7 @@
         <v>-2.147E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="90">
         <v>-4.6900000000000002E-4</v>
       </c>
@@ -18835,7 +18835,7 @@
         <v>-2.124E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="90">
         <v>2.3140000000000001E-3</v>
       </c>
@@ -18945,7 +18945,7 @@
         <v>-2.31E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="90">
         <v>2.2699999999999999E-3</v>
       </c>
@@ -19055,7 +19055,7 @@
         <v>-2.2759999999999998E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="90">
         <v>1.6459999999999999E-3</v>
       </c>
@@ -19165,7 +19165,7 @@
         <v>-2.281E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="90">
         <v>1.4469999999999999E-3</v>
       </c>
@@ -19275,7 +19275,7 @@
         <v>-2.1879999999999998E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="90">
         <v>1.1329999999999999E-3</v>
       </c>
@@ -19385,7 +19385,7 @@
         <v>-2.0929999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="90">
         <v>8.7399999999999999E-4</v>
       </c>
@@ -19495,7 +19495,7 @@
         <v>-1.9789999999999999E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="90">
         <v>7.7200000000000001E-4</v>
       </c>
@@ -19605,7 +19605,7 @@
         <v>-1.9300000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="90">
         <v>4.2099999999999999E-4</v>
       </c>
@@ -19715,7 +19715,7 @@
         <v>-1.8400000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="90">
         <v>2.3499999999999999E-4</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>-1.7769999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="90">
         <v>-1.0000000000000001E-5</v>
       </c>
@@ -19935,7 +19935,7 @@
         <v>-1.696E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="90">
         <v>-2.92E-4</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v>-1.6130000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="90">
         <v>-6.3299999999999999E-4</v>
       </c>
@@ -20155,7 +20155,7 @@
         <v>-1.5560000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="90">
         <v>-8.8900000000000003E-4</v>
       </c>
@@ -20265,7 +20265,7 @@
         <v>-1.5349999999999999E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="90">
         <v>-1.0070000000000001E-3</v>
       </c>
@@ -20375,7 +20375,7 @@
         <v>-1.4909999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="90">
         <v>-1.075E-3</v>
       </c>
@@ -20485,7 +20485,7 @@
         <v>-1.49E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="90">
         <v>-1.305E-3</v>
       </c>
@@ -20595,7 +20595,7 @@
         <v>-1.431E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="90">
         <v>-1.603E-3</v>
       </c>
@@ -20705,7 +20705,7 @@
         <v>-1.423E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="90">
         <v>-1.6609999999999999E-3</v>
       </c>
@@ -20815,7 +20815,7 @@
         <v>-1.426E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="90">
         <v>-2.0100000000000001E-3</v>
       </c>
@@ -20925,7 +20925,7 @@
         <v>-1.418E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="90">
         <v>-2.248E-3</v>
       </c>
@@ -21035,7 +21035,7 @@
         <v>-1.4530000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="90">
         <v>-2.4529999999999999E-3</v>
       </c>
@@ -21145,7 +21145,7 @@
         <v>-1.488E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="90">
         <v>-2.6940000000000002E-3</v>
       </c>
@@ -21255,7 +21255,7 @@
         <v>-1.547E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="90">
         <v>-2.8440000000000002E-3</v>
       </c>
@@ -21365,7 +21365,7 @@
         <v>-1.4989999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="90">
         <v>-3.1849999999999999E-3</v>
       </c>
@@ -21475,7 +21475,7 @@
         <v>-1.5319999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="90">
         <v>-3.627E-3</v>
       </c>
@@ -21585,7 +21585,7 @@
         <v>-1.511E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="90">
         <v>-3.6879999999999999E-3</v>
       </c>
@@ -21695,7 +21695,7 @@
         <v>-1.498E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="90">
         <v>-3.7910000000000001E-3</v>
       </c>
@@ -21805,7 +21805,7 @@
         <v>-1.4170000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="90">
         <v>-3.872E-3</v>
       </c>
@@ -21915,7 +21915,7 @@
         <v>-1.335E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="90">
         <v>-3.8700000000000002E-3</v>
       </c>
@@ -22025,7 +22025,7 @@
         <v>-1.274E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="90">
         <v>-3.604E-3</v>
       </c>
@@ -22135,7 +22135,7 @@
         <v>-1.207E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="90">
         <v>-3.712E-3</v>
       </c>
@@ -22245,7 +22245,7 @@
         <v>-1.041E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="90">
         <v>-3.7550000000000001E-3</v>
       </c>
@@ -22355,7 +22355,7 @@
         <v>-9.3899999999999995E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="90">
         <v>-4.0489999999999996E-3</v>
       </c>
@@ -22465,7 +22465,7 @@
         <v>-8.1800000000000004E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="90">
         <v>-4.0280000000000003E-3</v>
       </c>
@@ -22575,7 +22575,7 @@
         <v>-6.8999999999999997E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="90">
         <v>-4.0959999999999998E-3</v>
       </c>
@@ -22703,12 +22703,12 @@
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="90"/>
+    <col min="1" max="16384" width="8.7109375" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="90">
         <v>5.7436000000000001E-2</v>
       </c>
@@ -22818,7 +22818,7 @@
         <v>-1.9007E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="90">
         <v>5.3689000000000001E-2</v>
       </c>
@@ -22928,7 +22928,7 @@
         <v>-1.6233000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="90">
         <v>4.4874999999999998E-2</v>
       </c>
@@ -23038,7 +23038,7 @@
         <v>-1.3391999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="90">
         <v>3.7284999999999999E-2</v>
       </c>
@@ -23148,7 +23148,7 @@
         <v>-1.1384E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="90">
         <v>3.066E-2</v>
       </c>
@@ -23258,7 +23258,7 @@
         <v>-9.6640000000000007E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="90">
         <v>2.5294000000000001E-2</v>
       </c>
@@ -23368,7 +23368,7 @@
         <v>-8.3289999999999996E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="90">
         <v>1.9959999999999999E-2</v>
       </c>
@@ -23478,7 +23478,7 @@
         <v>-7.3039999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="90">
         <v>1.8272E-2</v>
       </c>
@@ -23588,7 +23588,7 @@
         <v>-5.9540000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="90">
         <v>1.5155999999999999E-2</v>
       </c>
@@ -23698,7 +23698,7 @@
         <v>-5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="90">
         <v>1.1957000000000001E-2</v>
       </c>
@@ -23808,7 +23808,7 @@
         <v>-4.4819999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="90">
         <v>1.0852000000000001E-2</v>
       </c>
@@ -23918,7 +23918,7 @@
         <v>-3.2810000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="90">
         <v>8.6560000000000005E-3</v>
       </c>
@@ -24028,7 +24028,7 @@
         <v>-3.0010000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="90">
         <v>6.8669999999999998E-3</v>
       </c>
@@ -24138,7 +24138,7 @@
         <v>-2.6329999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="90">
         <v>6.038E-3</v>
       </c>
@@ -24248,7 +24248,7 @@
         <v>-1.874E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="90">
         <v>4.7489999999999997E-3</v>
       </c>
@@ -24358,7 +24358,7 @@
         <v>-1.6069999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="90">
         <v>4.0140000000000002E-3</v>
       </c>
@@ -24468,7 +24468,7 @@
         <v>-1.4109999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="90">
         <v>2.8500000000000001E-3</v>
       </c>
@@ -24578,7 +24578,7 @@
         <v>-7.54E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="90">
         <v>2.0539999999999998E-3</v>
       </c>
@@ -24688,7 +24688,7 @@
         <v>-7.4200000000000004E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="90">
         <v>1.526E-3</v>
       </c>
@@ -24798,7 +24798,7 @@
         <v>-4.0999999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="90">
         <v>1.8000000000000001E-4</v>
       </c>
@@ -24908,7 +24908,7 @@
         <v>-1.4300000000000001E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="90">
         <v>-2.4600000000000002E-4</v>
       </c>
@@ -25018,7 +25018,7 @@
         <v>-1.95E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="90">
         <v>-2.5700000000000001E-4</v>
       </c>
@@ -25128,7 +25128,7 @@
         <v>2.8899999999999998E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="90">
         <v>-1.0039999999999999E-3</v>
       </c>
@@ -25238,7 +25238,7 @@
         <v>4.6999999999999999E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="90">
         <v>-1.1310000000000001E-3</v>
       </c>
@@ -25348,7 +25348,7 @@
         <v>2.8699999999999998E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="90">
         <v>-1.7619999999999999E-3</v>
       </c>
@@ -25458,7 +25458,7 @@
         <v>6.38E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="90">
         <v>-1.616E-3</v>
       </c>
@@ -25568,7 +25568,7 @@
         <v>8.5800000000000004E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="90">
         <v>-1.9650000000000002E-3</v>
       </c>
@@ -25678,7 +25678,7 @@
         <v>6.6299999999999996E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="90">
         <v>-2.9480000000000001E-3</v>
       </c>
@@ -25788,7 +25788,7 @@
         <v>8.6499999999999999E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="90">
         <v>-2.0820000000000001E-3</v>
       </c>
@@ -25898,7 +25898,7 @@
         <v>1.06E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="90">
         <v>-2.722E-3</v>
       </c>
@@ -26008,7 +26008,7 @@
         <v>9.0899999999999998E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="90">
         <v>-3.503E-3</v>
       </c>
@@ -26118,7 +26118,7 @@
         <v>8.6799999999999996E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="90">
         <v>-2.5790000000000001E-3</v>
       </c>
@@ -26228,7 +26228,7 @@
         <v>1.2260000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="90">
         <v>-2.4160000000000002E-3</v>
       </c>
@@ -26338,7 +26338,7 @@
         <v>1.255E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="90">
         <v>-3.8300000000000001E-3</v>
       </c>
@@ -26448,7 +26448,7 @@
         <v>8.2600000000000002E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="90">
         <v>-3.2669999999999999E-3</v>
       </c>
@@ -26558,7 +26558,7 @@
         <v>1.0759999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="90">
         <v>-2.696E-3</v>
       </c>
@@ -26668,7 +26668,7 @@
         <v>1.629E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="90">
         <v>-3.1389999999999999E-3</v>
       </c>
@@ -26778,7 +26778,7 @@
         <v>9.3199999999999999E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="90">
         <v>-4.2030000000000001E-3</v>
       </c>
@@ -26888,7 +26888,7 @@
         <v>5.5400000000000002E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="90">
         <v>-3.5869999999999999E-3</v>
       </c>
@@ -26998,7 +26998,7 @@
         <v>1.261E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="90">
         <v>-2.1610000000000002E-3</v>
       </c>
@@ -27108,7 +27108,7 @@
         <v>1.361E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="90">
         <v>-3.1779999999999998E-3</v>
       </c>
@@ -27218,7 +27218,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="90">
         <v>-4.4419999999999998E-3</v>
       </c>
@@ -27328,7 +27328,7 @@
         <v>2.9500000000000001E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="90">
         <v>-2.7780000000000001E-3</v>
       </c>
@@ -27438,7 +27438,7 @@
         <v>8.7299999999999997E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="90">
         <v>-1.3810000000000001E-3</v>
       </c>
@@ -27548,7 +27548,7 @@
         <v>1.3910000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="90">
         <v>-2.1540000000000001E-3</v>
       </c>
@@ -27658,7 +27658,7 @@
         <v>7.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="90">
         <v>-3.8370000000000001E-3</v>
       </c>
@@ -27768,7 +27768,7 @@
         <v>1.74E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="90">
         <v>-3.656E-3</v>
       </c>
@@ -27878,7 +27878,7 @@
         <v>8.4999999999999995E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="90">
         <v>-1.8730000000000001E-3</v>
       </c>
@@ -27988,7 +27988,7 @@
         <v>1.7290000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="90">
         <v>-1.8259999999999999E-3</v>
       </c>
@@ -28098,7 +28098,7 @@
         <v>1.263E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="90">
         <v>-3.98E-3</v>
       </c>
@@ -28208,7 +28208,7 @@
         <v>3.9800000000000002E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="90">
         <v>-4.679E-3</v>
       </c>
@@ -28318,7 +28318,7 @@
         <v>5.2700000000000002E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="90">
         <v>-2.934E-3</v>
       </c>
@@ -28428,7 +28428,7 @@
         <v>1.621E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="90">
         <v>-1.761E-3</v>
       </c>
@@ -28538,7 +28538,7 @@
         <v>2.026E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="90">
         <v>-2.8990000000000001E-3</v>
       </c>
@@ -28648,7 +28648,7 @@
         <v>1.189E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="90">
         <v>-5.2810000000000001E-3</v>
       </c>
@@ -28758,7 +28758,7 @@
         <v>5.1099999999999995E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="90">
         <v>-5.6969999999999998E-3</v>
       </c>
@@ -28868,7 +28868,7 @@
         <v>9.7799999999999992E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="90">
         <v>-3.405E-3</v>
       </c>
@@ -28978,7 +28978,7 @@
         <v>2.137E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="90">
         <v>-1.9949999999999998E-3</v>
       </c>
@@ -29088,7 +29088,7 @@
         <v>2.5010000000000002E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="90">
         <v>-3.2060000000000001E-3</v>
       </c>
@@ -29198,7 +29198,7 @@
         <v>1.7060000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="90">
         <v>-5.5880000000000001E-3</v>
       </c>
@@ -29308,7 +29308,7 @@
         <v>7.5299999999999998E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="90">
         <v>-6.3210000000000002E-3</v>
       </c>
@@ -29418,7 +29418,7 @@
         <v>9.4799999999999995E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="90">
         <v>-4.5389999999999996E-3</v>
       </c>
@@ -29528,7 +29528,7 @@
         <v>1.9659999999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="90">
         <v>-2.5360000000000001E-3</v>
       </c>
@@ -29638,7 +29638,7 @@
         <v>2.8289999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="90">
         <v>-2.4199999999999998E-3</v>
       </c>
@@ -29748,7 +29748,7 @@
         <v>2.464E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="90">
         <v>-4.1419999999999998E-3</v>
       </c>
@@ -29858,7 +29858,7 @@
         <v>1.3600000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="90">
         <v>-6.6769999999999998E-3</v>
       </c>
@@ -29968,7 +29968,7 @@
         <v>4.2400000000000001E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="90">
         <v>-6.4260000000000003E-3</v>
       </c>
@@ -30078,7 +30078,7 @@
         <v>4.73E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="90">
         <v>-4.5100000000000001E-3</v>
       </c>
@@ -30188,7 +30188,7 @@
         <v>1.4890000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="90">
         <v>-2.31E-3</v>
       </c>
@@ -30298,7 +30298,7 @@
         <v>2.261E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="90">
         <v>-7.3200000000000001E-4</v>
       </c>
@@ -30408,7 +30408,7 @@
         <v>2.3410000000000002E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="90">
         <v>-2.3570000000000002E-3</v>
       </c>
@@ -30518,7 +30518,7 @@
         <v>1.5169999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="90">
         <v>-5.0130000000000001E-3</v>
       </c>
@@ -30628,7 +30628,7 @@
         <v>4.7199999999999998E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="90">
         <v>-6.208E-3</v>
       </c>
@@ -30738,7 +30738,7 @@
         <v>-3.1000000000000001E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="90">
         <v>-6.8599999999999998E-3</v>
       </c>
@@ -30848,7 +30848,7 @@
         <v>4.4900000000000002E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="90">
         <v>-4.483E-3</v>
       </c>
@@ -30958,7 +30958,7 @@
         <v>1.48E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="90">
         <v>-2.434E-3</v>
       </c>
@@ -31068,7 +31068,7 @@
         <v>2.7070000000000002E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="90">
         <v>-2.3969999999999998E-3</v>
       </c>
@@ -31196,15 +31196,15 @@
       <selection activeCell="AK1" sqref="AK1:AK1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="36" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="90" customFormat="1">
+    <row r="1" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="90">
         <v>-6.7674999999999999E-2</v>
       </c>
@@ -31317,7 +31317,7 @@
         <v>3.7180999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="90" customFormat="1">
+    <row r="2" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="90">
         <v>-5.6888000000000001E-2</v>
       </c>
@@ -31430,7 +31430,7 @@
         <v>3.0324E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="90" customFormat="1">
+    <row r="3" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="90">
         <v>-4.5735999999999999E-2</v>
       </c>
@@ -31543,7 +31543,7 @@
         <v>2.2851E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="90" customFormat="1">
+    <row r="4" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="90">
         <v>-3.5597999999999998E-2</v>
       </c>
@@ -31656,7 +31656,7 @@
         <v>1.5746E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="90" customFormat="1">
+    <row r="5" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="90">
         <v>-2.6648000000000002E-2</v>
       </c>
@@ -31769,7 +31769,7 @@
         <v>1.1135000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="90" customFormat="1">
+    <row r="6" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90">
         <v>-2.0475E-2</v>
       </c>
@@ -31882,7 +31882,7 @@
         <v>8.0199999999999994E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="90" customFormat="1">
+    <row r="7" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="90">
         <v>-1.6839E-2</v>
       </c>
@@ -31995,7 +31995,7 @@
         <v>5.7780000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="90" customFormat="1">
+    <row r="8" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90">
         <v>-1.4141000000000001E-2</v>
       </c>
@@ -32108,7 +32108,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="90" customFormat="1">
+    <row r="9" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="90">
         <v>-1.2466E-2</v>
       </c>
@@ -32221,7 +32221,7 @@
         <v>4.2550000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="90" customFormat="1">
+    <row r="10" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="90">
         <v>-1.1051E-2</v>
       </c>
@@ -32334,7 +32334,7 @@
         <v>3.8119999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="90" customFormat="1">
+    <row r="11" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="90">
         <v>-1.0075000000000001E-2</v>
       </c>
@@ -32447,7 +32447,7 @@
         <v>3.8319999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="90" customFormat="1">
+    <row r="12" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="90">
         <v>-8.8070000000000006E-3</v>
       </c>
@@ -32560,7 +32560,7 @@
         <v>3.614E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="90" customFormat="1">
+    <row r="13" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="90">
         <v>-8.3239999999999998E-3</v>
       </c>
@@ -32673,7 +32673,7 @@
         <v>3.6410000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="90" customFormat="1">
+    <row r="14" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="90">
         <v>-7.2199999999999999E-3</v>
       </c>
@@ -32786,7 +32786,7 @@
         <v>3.503E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="90" customFormat="1">
+    <row r="15" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="90">
         <v>-6.8329999999999997E-3</v>
       </c>
@@ -32899,7 +32899,7 @@
         <v>3.1979999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="90" customFormat="1">
+    <row r="16" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="90">
         <v>-6.0340000000000003E-3</v>
       </c>
@@ -33012,7 +33012,7 @@
         <v>3.3430000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="90" customFormat="1">
+    <row r="17" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="90">
         <v>-5.476E-3</v>
       </c>
@@ -33125,7 +33125,7 @@
         <v>3.1280000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="90" customFormat="1">
+    <row r="18" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="90">
         <v>-5.3160000000000004E-3</v>
       </c>
@@ -33238,7 +33238,7 @@
         <v>3.0100000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="90" customFormat="1">
+    <row r="19" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="90">
         <v>-4.8250000000000003E-3</v>
       </c>
@@ -33351,7 +33351,7 @@
         <v>2.9940000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="90" customFormat="1">
+    <row r="20" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="90">
         <v>-4.5560000000000002E-3</v>
       </c>
@@ -33464,7 +33464,7 @@
         <v>2.7699999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="90" customFormat="1">
+    <row r="21" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="90">
         <v>-4.1529999999999996E-3</v>
       </c>
@@ -33577,7 +33577,7 @@
         <v>2.807E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="90" customFormat="1">
+    <row r="22" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="90">
         <v>-3.9090000000000001E-3</v>
       </c>
@@ -33690,7 +33690,7 @@
         <v>2.5920000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="90" customFormat="1">
+    <row r="23" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="90">
         <v>-3.594E-3</v>
       </c>
@@ -33803,7 +33803,7 @@
         <v>2.477E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="90" customFormat="1">
+    <row r="24" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="90">
         <v>-3.4129999999999998E-3</v>
       </c>
@@ -33916,7 +33916,7 @@
         <v>2.3700000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="90" customFormat="1">
+    <row r="25" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="90">
         <v>-3.2629999999999998E-3</v>
       </c>
@@ -34029,7 +34029,7 @@
         <v>2.2629999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="90" customFormat="1">
+    <row r="26" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="90">
         <v>-3.5109999999999998E-3</v>
       </c>
@@ -34142,7 +34142,7 @@
         <v>2.1719999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="90" customFormat="1">
+    <row r="27" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="90">
         <v>-3.0929999999999998E-3</v>
       </c>
@@ -34255,7 +34255,7 @@
         <v>2.2569999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="90" customFormat="1">
+    <row r="28" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="90">
         <v>-3.1589999999999999E-3</v>
       </c>
@@ -34368,7 +34368,7 @@
         <v>2.0960000000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="90" customFormat="1">
+    <row r="29" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="90">
         <v>-2.8579999999999999E-3</v>
       </c>
@@ -34481,7 +34481,7 @@
         <v>2.0660000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="90" customFormat="1">
+    <row r="30" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="90">
         <v>-2.7499999999999998E-3</v>
       </c>
@@ -34594,7 +34594,7 @@
         <v>1.9719999999999998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" s="90" customFormat="1">
+    <row r="31" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="90">
         <v>-2.8509999999999998E-3</v>
       </c>
@@ -34707,7 +34707,7 @@
         <v>1.7600000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="90" customFormat="1">
+    <row r="32" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="90">
         <v>-3.0460000000000001E-3</v>
       </c>
@@ -34820,7 +34820,7 @@
         <v>1.6490000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" s="90" customFormat="1">
+    <row r="33" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="90">
         <v>-2.9740000000000001E-3</v>
       </c>
@@ -34933,7 +34933,7 @@
         <v>1.462E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" s="90" customFormat="1">
+    <row r="34" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="90">
         <v>-2.7499999999999998E-3</v>
       </c>
@@ -35046,7 +35046,7 @@
         <v>1.2210000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" s="90" customFormat="1">
+    <row r="35" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="90">
         <v>-2.2659999999999998E-3</v>
       </c>
@@ -35159,7 +35159,7 @@
         <v>1.0499999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" s="90" customFormat="1">
+    <row r="36" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="90">
         <v>-1.8990000000000001E-3</v>
       </c>
@@ -35272,7 +35272,7 @@
         <v>7.6900000000000004E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:37" s="90" customFormat="1">
+    <row r="37" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="90">
         <v>-1.4599999999999999E-3</v>
       </c>
@@ -35385,7 +35385,7 @@
         <v>6.0800000000000003E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:37" s="90" customFormat="1">
+    <row r="38" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="90">
         <v>-9.7999999999999997E-4</v>
       </c>
@@ -35498,7 +35498,7 @@
         <v>5.2899999999999996E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:37" s="90" customFormat="1">
+    <row r="39" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="90">
         <v>-6.96E-4</v>
       </c>
@@ -35611,7 +35611,7 @@
         <v>3.8499999999999998E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:37" s="90" customFormat="1">
+    <row r="40" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="90">
         <v>-5.1500000000000005E-4</v>
       </c>
@@ -35724,7 +35724,7 @@
         <v>3.7100000000000002E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:37" s="90" customFormat="1">
+    <row r="41" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="90">
         <v>-3.5100000000000002E-4</v>
       </c>
@@ -35837,7 +35837,7 @@
         <v>3.5199999999999999E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:37" s="90" customFormat="1">
+    <row r="42" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="90">
         <v>-5.71E-4</v>
       </c>
@@ -35950,7 +35950,7 @@
         <v>3.2699999999999998E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:37" s="90" customFormat="1">
+    <row r="43" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="90">
         <v>-5.1400000000000003E-4</v>
       </c>
@@ -36063,7 +36063,7 @@
         <v>3.9800000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" s="90" customFormat="1">
+    <row r="44" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="90">
         <v>-4.84E-4</v>
       </c>
@@ -36176,7 +36176,7 @@
         <v>3.88E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37" s="90" customFormat="1">
+    <row r="45" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="90">
         <v>-5.9599999999999996E-4</v>
       </c>
@@ -36289,7 +36289,7 @@
         <v>1.1400000000000001E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:37" s="90" customFormat="1">
+    <row r="46" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="90">
         <v>-6.3699999999999998E-4</v>
       </c>
@@ -36402,7 +36402,7 @@
         <v>6.3999999999999997E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:37" s="90" customFormat="1">
+    <row r="47" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="90">
         <v>-7.45E-4</v>
       </c>
@@ -36515,7 +36515,7 @@
         <v>7.1000000000000005E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:37" s="90" customFormat="1">
+    <row r="48" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="90">
         <v>-8.83E-4</v>
       </c>
@@ -36628,7 +36628,7 @@
         <v>1.37E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" s="90" customFormat="1">
+    <row r="49" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="90">
         <v>-1.0009999999999999E-3</v>
       </c>
@@ -36741,7 +36741,7 @@
         <v>8.7999999999999998E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:37" s="90" customFormat="1">
+    <row r="50" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="90">
         <v>-1.2019999999999999E-3</v>
       </c>
@@ -36854,7 +36854,7 @@
         <v>2.2100000000000001E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:37" s="90" customFormat="1">
+    <row r="51" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="90">
         <v>-1.3090000000000001E-3</v>
       </c>
@@ -36967,7 +36967,7 @@
         <v>2.33E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:37" s="90" customFormat="1">
+    <row r="52" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="90">
         <v>-1.4959999999999999E-3</v>
       </c>
@@ -37080,7 +37080,7 @@
         <v>2.8699999999999998E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37" s="90" customFormat="1">
+    <row r="53" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="90">
         <v>-1.585E-3</v>
       </c>
@@ -37193,7 +37193,7 @@
         <v>3.8900000000000002E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:37" s="90" customFormat="1">
+    <row r="54" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="90">
         <v>-1.537E-3</v>
       </c>
@@ -37306,7 +37306,7 @@
         <v>4.3800000000000002E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:37" s="90" customFormat="1">
+    <row r="55" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="90">
         <v>-1.6379999999999999E-3</v>
       </c>
@@ -37419,7 +37419,7 @@
         <v>4.5399999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:37" s="90" customFormat="1">
+    <row r="56" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="90">
         <v>-1.601E-3</v>
       </c>
@@ -37532,7 +37532,7 @@
         <v>5.31E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:37" s="90" customFormat="1">
+    <row r="57" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="90">
         <v>-1.5299999999999999E-3</v>
       </c>
@@ -37645,7 +37645,7 @@
         <v>5.1599999999999997E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:37" s="90" customFormat="1">
+    <row r="58" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="90">
         <v>-1.5510000000000001E-3</v>
       </c>
@@ -37758,7 +37758,7 @@
         <v>5.1800000000000001E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:37" s="90" customFormat="1">
+    <row r="59" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="90">
         <v>-1.3339999999999999E-3</v>
       </c>
@@ -37871,7 +37871,7 @@
         <v>5.3899999999999998E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:37" s="90" customFormat="1">
+    <row r="60" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="90">
         <v>-1.268E-3</v>
       </c>
@@ -37984,7 +37984,7 @@
         <v>5.4100000000000003E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:37" s="90" customFormat="1">
+    <row r="61" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="90">
         <v>-1.279E-3</v>
       </c>
@@ -38097,7 +38097,7 @@
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:37" s="90" customFormat="1">
+    <row r="62" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="90">
         <v>-1.369E-3</v>
       </c>
@@ -38210,7 +38210,7 @@
         <v>5.3200000000000003E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:37" s="90" customFormat="1">
+    <row r="63" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="90">
         <v>-1.418E-3</v>
       </c>
@@ -38323,7 +38323,7 @@
         <v>5.5800000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37" s="90" customFormat="1">
+    <row r="64" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="90">
         <v>-1.4729999999999999E-3</v>
       </c>
@@ -38436,7 +38436,7 @@
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:37" s="90" customFormat="1">
+    <row r="65" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="90">
         <v>-1.408E-3</v>
       </c>
@@ -38549,7 +38549,7 @@
         <v>5.2899999999999996E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" s="90" customFormat="1">
+    <row r="66" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="90">
         <v>-1.4289999999999999E-3</v>
       </c>
@@ -38662,7 +38662,7 @@
         <v>5.2599999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" s="90" customFormat="1">
+    <row r="67" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="90">
         <v>-1.426E-3</v>
       </c>
@@ -38775,7 +38775,7 @@
         <v>5.0799999999999999E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:37" s="90" customFormat="1">
+    <row r="68" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="90">
         <v>-1.554E-3</v>
       </c>
@@ -38888,7 +38888,7 @@
         <v>4.2099999999999999E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:37" s="90" customFormat="1">
+    <row r="69" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="90">
         <v>-1.6570000000000001E-3</v>
       </c>
@@ -39001,7 +39001,7 @@
         <v>4.9200000000000003E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:37" s="90" customFormat="1">
+    <row r="70" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="90">
         <v>-1.6230000000000001E-3</v>
       </c>
@@ -39114,7 +39114,7 @@
         <v>3.6200000000000002E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" s="90" customFormat="1">
+    <row r="71" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="90">
         <v>-1.807E-3</v>
       </c>
@@ -39227,7 +39227,7 @@
         <v>3.2400000000000001E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" s="90" customFormat="1">
+    <row r="72" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="90">
         <v>-1.9400000000000001E-3</v>
       </c>
@@ -39340,7 +39340,7 @@
         <v>2.9799999999999998E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:37" s="90" customFormat="1">
+    <row r="73" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="90">
         <v>-1.9220000000000001E-3</v>
       </c>
@@ -39453,7 +39453,7 @@
         <v>2.1000000000000001E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:37" s="90" customFormat="1">
+    <row r="74" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="90">
         <v>-1.7589999999999999E-3</v>
       </c>
@@ -39566,7 +39566,7 @@
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:37" s="90" customFormat="1">
+    <row r="75" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="90">
         <v>-1.441E-3</v>
       </c>
@@ -39679,7 +39679,7 @@
         <v>-1.5E-5</v>
       </c>
     </row>
-    <row r="76" spans="1:37" s="90" customFormat="1">
+    <row r="76" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="90">
         <v>-1.291E-3</v>
       </c>
@@ -39792,7 +39792,7 @@
         <v>-1.5799999999999999E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:37" s="90" customFormat="1">
+    <row r="77" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="90">
         <v>-1.1540000000000001E-3</v>
       </c>
@@ -39905,7 +39905,7 @@
         <v>-2.32E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:37" s="90" customFormat="1">
+    <row r="78" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="90">
         <v>-9.19E-4</v>
       </c>
@@ -40018,7 +40018,7 @@
         <v>-3.3799999999999998E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:37" s="90" customFormat="1">
+    <row r="79" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="90">
         <v>-4.3600000000000003E-4</v>
       </c>
@@ -40131,7 +40131,7 @@
         <v>-4.08E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:37" s="90" customFormat="1">
+    <row r="80" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="90">
         <v>-3.5E-4</v>
       </c>
@@ -40244,7 +40244,7 @@
         <v>-4.73E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:37" s="90" customFormat="1">
+    <row r="81" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="90">
         <v>-3.1E-4</v>
       </c>
@@ -40357,7 +40357,7 @@
         <v>-5.4299999999999997E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:37" s="90" customFormat="1">
+    <row r="82" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="90">
         <v>-4.7100000000000001E-4</v>
       </c>
@@ -40470,7 +40470,7 @@
         <v>-4.7100000000000001E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:37" s="90" customFormat="1">
+    <row r="83" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="90">
         <v>-3.8200000000000002E-4</v>
       </c>
@@ -40583,7 +40583,7 @@
         <v>-4.06E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:37" s="90" customFormat="1">
+    <row r="84" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="90">
         <v>-7.27E-4</v>
       </c>
@@ -40696,7 +40696,7 @@
         <v>-3.9500000000000001E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:37" s="90" customFormat="1">
+    <row r="85" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="90">
         <v>-6.02E-4</v>
       </c>
@@ -40809,7 +40809,7 @@
         <v>-3.3799999999999998E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:37" s="90" customFormat="1">
+    <row r="86" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="90">
         <v>-9.2299999999999999E-4</v>
       </c>
@@ -40922,7 +40922,7 @@
         <v>-2.6899999999999998E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:37" s="90" customFormat="1">
+    <row r="87" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="90">
         <v>-9.6500000000000004E-4</v>
       </c>
@@ -41035,7 +41035,7 @@
         <v>-3.3300000000000002E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:37" s="90" customFormat="1">
+    <row r="88" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="90">
         <v>-1.026E-3</v>
       </c>
@@ -41148,7 +41148,7 @@
         <v>-2.0100000000000001E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:37" s="90" customFormat="1">
+    <row r="89" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="90">
         <v>-7.2800000000000002E-4</v>
       </c>
@@ -41280,9 +41280,9 @@
       <selection activeCell="AK1" sqref="AK1:AK1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37" s="90" customFormat="1">
+    <row r="1" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="90">
         <v>7.8650999999999999E-2</v>
       </c>
@@ -41395,7 +41395,7 @@
         <v>-2.384E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="90" customFormat="1">
+    <row r="2" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="90">
         <v>6.8090999999999999E-2</v>
       </c>
@@ -41508,7 +41508,7 @@
         <v>-2.0115000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="90" customFormat="1">
+    <row r="3" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="90">
         <v>5.9464000000000003E-2</v>
       </c>
@@ -41621,7 +41621,7 @@
         <v>-1.6920999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="90" customFormat="1">
+    <row r="4" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="90">
         <v>5.0222000000000003E-2</v>
       </c>
@@ -41734,7 +41734,7 @@
         <v>-1.5081000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="90" customFormat="1">
+    <row r="5" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="90">
         <v>4.3652999999999997E-2</v>
       </c>
@@ -41847,7 +41847,7 @@
         <v>-1.3016E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="90" customFormat="1">
+    <row r="6" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90">
         <v>3.8907999999999998E-2</v>
       </c>
@@ -41960,7 +41960,7 @@
         <v>-1.1227000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="90" customFormat="1">
+    <row r="7" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="90">
         <v>3.1968999999999997E-2</v>
       </c>
@@ -42073,7 +42073,7 @@
         <v>-9.5320000000000005E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="90" customFormat="1">
+    <row r="8" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90">
         <v>2.9179E-2</v>
       </c>
@@ -42186,7 +42186,7 @@
         <v>-8.5240000000000003E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="90" customFormat="1">
+    <row r="9" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="90">
         <v>2.5641000000000001E-2</v>
       </c>
@@ -42299,7 +42299,7 @@
         <v>-8.3879999999999996E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="90" customFormat="1">
+    <row r="10" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="90">
         <v>2.1085E-2</v>
       </c>
@@ -42412,7 +42412,7 @@
         <v>-7.1830000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="90" customFormat="1">
+    <row r="11" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="90">
         <v>2.0164999999999999E-2</v>
       </c>
@@ -42525,7 +42525,7 @@
         <v>-5.5009999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="90" customFormat="1">
+    <row r="12" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="90">
         <v>1.7701000000000001E-2</v>
       </c>
@@ -42638,7 +42638,7 @@
         <v>-6.4209999999999996E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="90" customFormat="1">
+    <row r="13" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="90">
         <v>1.5716999999999998E-2</v>
       </c>
@@ -42751,7 +42751,7 @@
         <v>-4.9100000000000003E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="90" customFormat="1">
+    <row r="14" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="90">
         <v>1.3695000000000001E-2</v>
       </c>
@@ -42864,7 +42864,7 @@
         <v>-4.6639999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="90" customFormat="1">
+    <row r="15" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="90">
         <v>1.2566000000000001E-2</v>
       </c>
@@ -42977,7 +42977,7 @@
         <v>-4.45E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="90" customFormat="1">
+    <row r="16" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="90">
         <v>1.1579000000000001E-2</v>
       </c>
@@ -43090,7 +43090,7 @@
         <v>-3.5959999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="90" customFormat="1">
+    <row r="17" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="90">
         <v>1.0725E-2</v>
       </c>
@@ -43203,7 +43203,7 @@
         <v>-3.5040000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="90" customFormat="1">
+    <row r="18" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="90">
         <v>9.8150000000000008E-3</v>
       </c>
@@ -43316,7 +43316,7 @@
         <v>-3.2309999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="90" customFormat="1">
+    <row r="19" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="90">
         <v>1.0147E-2</v>
       </c>
@@ -43429,7 +43429,7 @@
         <v>-2.3549999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="90" customFormat="1">
+    <row r="20" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="90">
         <v>8.7720000000000003E-3</v>
       </c>
@@ -43542,7 +43542,7 @@
         <v>-2.9580000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="90" customFormat="1">
+    <row r="21" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="90">
         <v>8.2150000000000001E-3</v>
       </c>
@@ -43655,7 +43655,7 @@
         <v>-2.0839999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="90" customFormat="1">
+    <row r="22" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="90">
         <v>8.5400000000000007E-3</v>
       </c>
@@ -43768,7 +43768,7 @@
         <v>-1.737E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="90" customFormat="1">
+    <row r="23" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="90">
         <v>7.0689999999999998E-3</v>
       </c>
@@ -43881,7 +43881,7 @@
         <v>-2.1380000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="90" customFormat="1">
+    <row r="24" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="90">
         <v>7.3150000000000003E-3</v>
       </c>
@@ -43994,7 +43994,7 @@
         <v>-1.181E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="90" customFormat="1">
+    <row r="25" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="90">
         <v>7.0200000000000002E-3</v>
       </c>
@@ -44107,7 +44107,7 @@
         <v>-1.364E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="90" customFormat="1">
+    <row r="26" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="90">
         <v>6.2610000000000001E-3</v>
       </c>
@@ -44220,7 +44220,7 @@
         <v>-1.485E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="90" customFormat="1">
+    <row r="27" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="90">
         <v>6.2690000000000003E-3</v>
       </c>
@@ -44333,7 +44333,7 @@
         <v>-7.9199999999999995E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="90" customFormat="1">
+    <row r="28" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="90">
         <v>6.1339999999999997E-3</v>
       </c>
@@ -44446,7 +44446,7 @@
         <v>-1.248E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="90" customFormat="1">
+    <row r="29" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="90">
         <v>5.3860000000000002E-3</v>
       </c>
@@ -44559,7 +44559,7 @@
         <v>-8.0999999999999996E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="90" customFormat="1">
+    <row r="30" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="90">
         <v>6.1830000000000001E-3</v>
       </c>
@@ -44672,7 +44672,7 @@
         <v>-5.6899999999999995E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:37" s="90" customFormat="1">
+    <row r="31" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="90">
         <v>5.4640000000000001E-3</v>
       </c>
@@ -44785,7 +44785,7 @@
         <v>-7.8399999999999997E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="90" customFormat="1">
+    <row r="32" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="90">
         <v>5.4359999999999999E-3</v>
       </c>
@@ -44898,7 +44898,7 @@
         <v>-3.0600000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" s="90" customFormat="1">
+    <row r="33" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="90">
         <v>5.8310000000000002E-3</v>
       </c>
@@ -45011,7 +45011,7 @@
         <v>-4.9299999999999995E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" s="90" customFormat="1">
+    <row r="34" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="90">
         <v>5.2119999999999996E-3</v>
       </c>
@@ -45124,7 +45124,7 @@
         <v>-7.2000000000000005E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37" s="90" customFormat="1">
+    <row r="35" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="90">
         <v>5.4990000000000004E-3</v>
       </c>
@@ -45237,7 +45237,7 @@
         <v>-2.6699999999999998E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:37" s="90" customFormat="1">
+    <row r="36" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="90">
         <v>5.7330000000000002E-3</v>
       </c>
@@ -45350,7 +45350,7 @@
         <v>-7.9299999999999998E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:37" s="90" customFormat="1">
+    <row r="37" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="90">
         <v>5.4549999999999998E-3</v>
       </c>
@@ -45463,7 +45463,7 @@
         <v>-7.5100000000000004E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:37" s="90" customFormat="1">
+    <row r="38" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="90">
         <v>5.986E-3</v>
       </c>
@@ -45576,7 +45576,7 @@
         <v>-6.96E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:37" s="90" customFormat="1">
+    <row r="39" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="90">
         <v>5.3489999999999996E-3</v>
       </c>
@@ -45689,7 +45689,7 @@
         <v>-1.044E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37" s="90" customFormat="1">
+    <row r="40" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="90">
         <v>5.4130000000000003E-3</v>
       </c>
@@ -45802,7 +45802,7 @@
         <v>-8.9700000000000001E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:37" s="90" customFormat="1">
+    <row r="41" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="90">
         <v>5.4310000000000001E-3</v>
       </c>
@@ -45915,7 +45915,7 @@
         <v>-9.6000000000000002E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:37" s="90" customFormat="1">
+    <row r="42" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="90">
         <v>4.8869999999999999E-3</v>
       </c>
@@ -46028,7 +46028,7 @@
         <v>-1.1800000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" s="90" customFormat="1">
+    <row r="43" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="90">
         <v>4.7739999999999996E-3</v>
       </c>
@@ -46141,7 +46141,7 @@
         <v>-1.0640000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" s="90" customFormat="1">
+    <row r="44" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="90">
         <v>4.9329999999999999E-3</v>
       </c>
@@ -46254,7 +46254,7 @@
         <v>-1.1720000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37" s="90" customFormat="1">
+    <row r="45" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="90">
         <v>3.9630000000000004E-3</v>
       </c>
@@ -46367,7 +46367,7 @@
         <v>-9.5200000000000005E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:37" s="90" customFormat="1">
+    <row r="46" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="90">
         <v>3.833E-3</v>
       </c>
@@ -46480,7 +46480,7 @@
         <v>-8.4500000000000005E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:37" s="90" customFormat="1">
+    <row r="47" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="90">
         <v>3.9750000000000002E-3</v>
       </c>
@@ -46593,7 +46593,7 @@
         <v>-1.034E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37" s="90" customFormat="1">
+    <row r="48" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="90">
         <v>3.4580000000000001E-3</v>
       </c>
@@ -46706,7 +46706,7 @@
         <v>-8.5999999999999998E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" s="90" customFormat="1">
+    <row r="49" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="90">
         <v>3.398E-3</v>
       </c>
@@ -46819,7 +46819,7 @@
         <v>-9.0700000000000004E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:37" s="90" customFormat="1">
+    <row r="50" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="90">
         <v>3.5860000000000002E-3</v>
       </c>
@@ -46932,7 +46932,7 @@
         <v>-1.0499999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37" s="90" customFormat="1">
+    <row r="51" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="90">
         <v>3.088E-3</v>
       </c>
@@ -47045,7 +47045,7 @@
         <v>-9.3400000000000004E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:37" s="90" customFormat="1">
+    <row r="52" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="90">
         <v>3.0370000000000002E-3</v>
       </c>
@@ -47158,7 +47158,7 @@
         <v>-1.1609999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" s="90" customFormat="1">
+    <row r="53" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="90">
         <v>3.3319999999999999E-3</v>
       </c>
@@ -47271,7 +47271,7 @@
         <v>-1.052E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37" s="90" customFormat="1">
+    <row r="54" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="90">
         <v>3.0469999999999998E-3</v>
       </c>
@@ -47384,7 +47384,7 @@
         <v>-1.098E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37" s="90" customFormat="1">
+    <row r="55" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="90">
         <v>3.0249999999999999E-3</v>
       </c>
@@ -47497,7 +47497,7 @@
         <v>-1.284E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37" s="90" customFormat="1">
+    <row r="56" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="90">
         <v>3.0010000000000002E-3</v>
       </c>
@@ -47610,7 +47610,7 @@
         <v>-1.116E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" s="90" customFormat="1">
+    <row r="57" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="90">
         <v>2.8999999999999998E-3</v>
       </c>
@@ -47723,7 +47723,7 @@
         <v>-1.0679999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37" s="90" customFormat="1">
+    <row r="58" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="90">
         <v>2.7469999999999999E-3</v>
       </c>
@@ -47836,7 +47836,7 @@
         <v>-1.1839999999999999E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" s="90" customFormat="1">
+    <row r="59" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="90">
         <v>2.8080000000000002E-3</v>
       </c>
@@ -47949,7 +47949,7 @@
         <v>-1.054E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37" s="90" customFormat="1">
+    <row r="60" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="90">
         <v>2.7810000000000001E-3</v>
       </c>
@@ -48062,7 +48062,7 @@
         <v>-9.2800000000000001E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:37" s="90" customFormat="1">
+    <row r="61" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="90">
         <v>2.8080000000000002E-3</v>
       </c>
@@ -48175,7 +48175,7 @@
         <v>-1.023E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37" s="90" customFormat="1">
+    <row r="62" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="90">
         <v>2.7680000000000001E-3</v>
       </c>
@@ -48288,7 +48288,7 @@
         <v>-8.6499999999999999E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:37" s="90" customFormat="1">
+    <row r="63" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="90">
         <v>2.4910000000000002E-3</v>
       </c>
@@ -48401,7 +48401,7 @@
         <v>-6.7299999999999999E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37" s="90" customFormat="1">
+    <row r="64" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="90">
         <v>2.4580000000000001E-3</v>
       </c>
@@ -48514,7 +48514,7 @@
         <v>-8.6600000000000002E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:37" s="90" customFormat="1">
+    <row r="65" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="90">
         <v>2.7109999999999999E-3</v>
       </c>
@@ -48627,7 +48627,7 @@
         <v>-9.0600000000000001E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" s="90" customFormat="1">
+    <row r="66" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="90">
         <v>3.0360000000000001E-3</v>
       </c>
@@ -48740,7 +48740,7 @@
         <v>-4.4700000000000002E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" s="90" customFormat="1">
+    <row r="67" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="90">
         <v>2.6020000000000001E-3</v>
       </c>
@@ -48853,7 +48853,7 @@
         <v>-7.3099999999999999E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:37" s="90" customFormat="1">
+    <row r="68" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="90">
         <v>2.3579999999999999E-3</v>
       </c>
@@ -48966,7 +48966,7 @@
         <v>-8.2299999999999995E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:37" s="90" customFormat="1">
+    <row r="69" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="90">
         <v>3.2190000000000001E-3</v>
       </c>
@@ -49079,7 +49079,7 @@
         <v>-4.0299999999999998E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:37" s="90" customFormat="1">
+    <row r="70" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="90">
         <v>2.5079999999999998E-3</v>
       </c>
@@ -49192,7 +49192,7 @@
         <v>-6.6799999999999997E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" s="90" customFormat="1">
+    <row r="71" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="90">
         <v>2.3630000000000001E-3</v>
       </c>
@@ -49305,7 +49305,7 @@
         <v>-6.0700000000000001E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" s="90" customFormat="1">
+    <row r="72" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="90">
         <v>2.7399999999999998E-3</v>
       </c>
@@ -49418,7 +49418,7 @@
         <v>-7.0299999999999996E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:37" s="90" customFormat="1">
+    <row r="73" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="90">
         <v>2.833E-3</v>
       </c>
@@ -49531,7 +49531,7 @@
         <v>-6.7299999999999999E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:37" s="90" customFormat="1">
+    <row r="74" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="90">
         <v>3.1059999999999998E-3</v>
       </c>
@@ -49644,7 +49644,7 @@
         <v>-2.9799999999999998E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:37" s="90" customFormat="1">
+    <row r="75" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="90">
         <v>2.5720000000000001E-3</v>
       </c>
@@ -49757,7 +49757,7 @@
         <v>-8.7200000000000005E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:37" s="90" customFormat="1">
+    <row r="76" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="90">
         <v>2.8999999999999998E-3</v>
       </c>
@@ -49870,7 +49870,7 @@
         <v>-9.3700000000000001E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:37" s="90" customFormat="1">
+    <row r="77" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="90">
         <v>3.4719999999999998E-3</v>
       </c>
@@ -49983,7 +49983,7 @@
         <v>-5.2700000000000002E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:37" s="90" customFormat="1">
+    <row r="78" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="90">
         <v>2.9559999999999999E-3</v>
       </c>
@@ -50096,7 +50096,7 @@
         <v>-7.3800000000000005E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:37" s="90" customFormat="1">
+    <row r="79" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="90">
         <v>2.9239999999999999E-3</v>
       </c>
@@ -50209,7 +50209,7 @@
         <v>-7.36E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:37" s="90" customFormat="1">
+    <row r="80" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="90">
         <v>2.9650000000000002E-3</v>
       </c>
@@ -50322,7 +50322,7 @@
         <v>-1.031E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:37" s="90" customFormat="1">
+    <row r="81" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="90">
         <v>2.8570000000000002E-3</v>
       </c>
@@ -50435,7 +50435,7 @@
         <v>-1.1839999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:37" s="90" customFormat="1">
+    <row r="82" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="90">
         <v>3.2429999999999998E-3</v>
       </c>
@@ -50548,7 +50548,7 @@
         <v>-4.6299999999999998E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:37" s="90" customFormat="1">
+    <row r="83" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="90">
         <v>3.0330000000000001E-3</v>
       </c>
@@ -50661,7 +50661,7 @@
         <v>-8.3600000000000005E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:37" s="90" customFormat="1">
+    <row r="84" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="90">
         <v>2.032E-3</v>
       </c>
@@ -50774,7 +50774,7 @@
         <v>-9.6500000000000004E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:37" s="90" customFormat="1">
+    <row r="85" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="90">
         <v>2.5850000000000001E-3</v>
       </c>
@@ -50887,7 +50887,7 @@
         <v>-7.85E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:37" s="90" customFormat="1">
+    <row r="86" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="90">
         <v>2.1589999999999999E-3</v>
       </c>
@@ -51000,7 +51000,7 @@
         <v>-1.2440000000000001E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:37" s="90" customFormat="1">
+    <row r="87" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="90">
         <v>2.5460000000000001E-3</v>
       </c>
@@ -51113,7 +51113,7 @@
         <v>-5.4100000000000003E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:37" s="90" customFormat="1">
+    <row r="88" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="90">
         <v>2.823E-3</v>
       </c>
@@ -51226,7 +51226,7 @@
         <v>-3.4200000000000002E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:37" s="90" customFormat="1">
+    <row r="89" spans="1:37" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="90">
         <v>1.7979999999999999E-3</v>
       </c>

--- a/deployment/Omaha_Cal_Info_GI01SUMO_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GI01SUMO_00002.xlsx
@@ -1623,7 +1623,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="410">
+  <cellStyleXfs count="411">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -2034,6 +2034,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2416,7 +2417,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="410">
+  <cellStyles count="411">
     <cellStyle name="Comma 2" xfId="72"/>
     <cellStyle name="Comma 2 2" xfId="100"/>
     <cellStyle name="Comma 2 2 2" xfId="101"/>
@@ -2721,6 +2722,7 @@
     <cellStyle name="Normal 15" xfId="3"/>
     <cellStyle name="Normal 15 2" xfId="98"/>
     <cellStyle name="Normal 16" xfId="99"/>
+    <cellStyle name="Normal 18" xfId="410"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Normal 2 2 2" xfId="19"/>
@@ -3290,8 +3292,8 @@
   <dimension ref="A1:AMM361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I186" sqref="I186"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/deployment/Omaha_Cal_Info_GI01SUMO_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GI01SUMO_00002.xlsx
@@ -813,9 +813,6 @@
     <t>GI01SUMO-RII11-02-FLORDG031</t>
   </si>
   <si>
-    <t>GI01SUMO-RII11-02-CTDBPP0031</t>
-  </si>
-  <si>
     <t>GI01SUMO-RII11-02-CTDBPP032</t>
   </si>
   <si>
@@ -1202,6 +1199,9 @@
   </si>
   <si>
     <t>GI01SUMO-00002-CPM1</t>
+  </si>
+  <si>
+    <t>GI01SUMO-RII11-02-CTDBPP031</t>
   </si>
 </sst>
 </file>
@@ -2036,7 +2036,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2415,6 +2415,9 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="411">
@@ -3153,7 +3156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -3174,7 +3177,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="121" t="s">
         <v>0</v>
@@ -3212,10 +3215,10 @@
     </row>
     <row r="2" spans="1:14" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>135</v>
@@ -3240,7 +3243,7 @@
         <v>2668</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="32">
@@ -3292,8 +3295,8 @@
   <dimension ref="A1:AMM361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G250" sqref="G250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3305,9 +3308,9 @@
     <col min="6" max="6" width="27.5703125" style="17" customWidth="1"/>
     <col min="7" max="7" width="49.42578125" style="17" customWidth="1"/>
     <col min="8" max="8" width="42.140625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="44" style="42" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="17"/>
-    <col min="11" max="11" width="4.140625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="42" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="17" customWidth="1"/>
     <col min="12" max="12" width="6" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="17" bestFit="1" customWidth="1"/>
@@ -3320,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -3329,7 +3332,7 @@
         <v>38</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>2</v>
@@ -3344,7 +3347,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:1027" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1027" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -3354,13 +3357,15 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="40"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
     </row>
     <row r="3" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>135</v>
@@ -3369,21 +3374,25 @@
         <v>2</v>
       </c>
       <c r="E3" s="124" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F3" s="123" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I3" s="41" t="s">
         <v>129</v>
       </c>
+      <c r="K3" s="131"/>
+    </row>
+    <row r="4" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
+      <c r="K4" s="131"/>
     </row>
     <row r="5" spans="1:1027" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="110" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>135</v>
@@ -3392,25 +3401,27 @@
         <v>2</v>
       </c>
       <c r="E5" s="125" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F5" s="123" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I5" s="112" t="s">
         <v>123</v>
       </c>
+      <c r="K5" s="131"/>
       <c r="AMM5" s="111"/>
     </row>
     <row r="6" spans="1:1027" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K6" s="131"/>
       <c r="AMM6" s="111"/>
     </row>
     <row r="7" spans="1:1027" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="110" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>135</v>
@@ -3419,10 +3430,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F7" s="123" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G7" s="113"/>
       <c r="H7" s="114"/>
@@ -3430,7 +3441,7 @@
         <v>123</v>
       </c>
       <c r="J7" s="115"/>
-      <c r="K7" s="111"/>
+      <c r="K7" s="131"/>
       <c r="L7" s="111"/>
       <c r="M7" s="111"/>
       <c r="N7" s="111"/>
@@ -4459,7 +4470,7 @@
       <c r="H8" s="118"/>
       <c r="I8" s="119"/>
       <c r="J8" s="115"/>
-      <c r="K8" s="111"/>
+      <c r="K8" s="131"/>
       <c r="L8" s="111"/>
       <c r="M8" s="111"/>
       <c r="N8" s="111"/>
@@ -5482,7 +5493,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C9" s="52" t="s">
         <v>135</v>
@@ -5491,7 +5502,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>136</v>
@@ -5506,7 +5517,7 @@
         <v>59.9435833</v>
       </c>
       <c r="J9" s="32"/>
-      <c r="K9" s="23"/>
+      <c r="K9" s="131"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23"/>
     </row>
@@ -5515,7 +5526,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>135</v>
@@ -5524,7 +5535,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F10" s="54" t="s">
         <v>136</v>
@@ -5539,7 +5550,7 @@
         <v>-39.573716670000003</v>
       </c>
       <c r="J10" s="32"/>
-      <c r="K10" s="23"/>
+      <c r="K10" s="131"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
     </row>
@@ -5548,7 +5559,7 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C11" s="53" t="s">
         <v>135</v>
@@ -5557,7 +5568,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F11" s="54" t="s">
         <v>136</v>
@@ -5569,7 +5580,7 @@
         <v>1.37</v>
       </c>
       <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="K11" s="131"/>
       <c r="L11" s="23"/>
       <c r="M11" s="23"/>
     </row>
@@ -5578,7 +5589,7 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>135</v>
@@ -5587,7 +5598,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F12" s="54" t="s">
         <v>136</v>
@@ -5599,7 +5610,7 @@
         <v>5.21</v>
       </c>
       <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="K12" s="131"/>
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
     </row>
@@ -5608,7 +5619,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>135</v>
@@ -5617,7 +5628,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F13" s="54" t="s">
         <v>136</v>
@@ -5629,7 +5640,7 @@
         <v>5.21</v>
       </c>
       <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="K13" s="131"/>
       <c r="L13" s="23"/>
       <c r="M13" s="23"/>
     </row>
@@ -5638,7 +5649,7 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C14" s="53" t="s">
         <v>135</v>
@@ -5647,7 +5658,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>136</v>
@@ -5659,7 +5670,7 @@
         <v>5.74</v>
       </c>
       <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+      <c r="K14" s="131"/>
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
     </row>
@@ -5668,7 +5679,7 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="53" t="s">
         <v>135</v>
@@ -5677,7 +5688,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F15" s="54" t="s">
         <v>136</v>
@@ -5692,7 +5703,7 @@
         <v>121</v>
       </c>
       <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="K15" s="131"/>
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
     </row>
@@ -5701,7 +5712,7 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>135</v>
@@ -5710,7 +5721,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F16" s="54" t="s">
         <v>136</v>
@@ -5725,7 +5736,7 @@
         <v>121</v>
       </c>
       <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
+      <c r="K16" s="131"/>
       <c r="L16" s="23"/>
       <c r="M16" s="23"/>
     </row>
@@ -5734,7 +5745,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>135</v>
@@ -5743,7 +5754,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F17" s="54" t="s">
         <v>136</v>
@@ -5758,17 +5769,17 @@
         <v>121</v>
       </c>
       <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="K17" s="131"/>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="52"/>
       <c r="F18" s="18"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="K18" s="131"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
     </row>
@@ -5777,7 +5788,7 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>135</v>
@@ -5786,7 +5797,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F19" s="38" t="s">
         <v>137</v>
@@ -5798,13 +5809,14 @@
         <v>59.9435833</v>
       </c>
       <c r="I19" s="43"/>
+      <c r="K19" s="131"/>
     </row>
     <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>135</v>
@@ -5813,7 +5825,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F20" s="54" t="s">
         <v>137</v>
@@ -5825,13 +5837,14 @@
         <v>-39.573716670000003</v>
       </c>
       <c r="I20" s="43"/>
+      <c r="K20" s="131"/>
     </row>
     <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>135</v>
@@ -5840,7 +5853,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F21" s="54" t="s">
         <v>137</v>
@@ -5852,13 +5865,14 @@
         <v>1.23</v>
       </c>
       <c r="I21" s="43"/>
+      <c r="K21" s="131"/>
     </row>
     <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>135</v>
@@ -5867,7 +5881,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F22" s="54" t="s">
         <v>137</v>
@@ -5879,13 +5893,14 @@
         <v>5.21</v>
       </c>
       <c r="I22" s="43"/>
+      <c r="K22" s="131"/>
     </row>
     <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>135</v>
@@ -5894,7 +5909,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F23" s="54" t="s">
         <v>137</v>
@@ -5906,13 +5921,14 @@
         <v>5.21</v>
       </c>
       <c r="I23" s="43"/>
+      <c r="K23" s="131"/>
     </row>
     <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C24" s="53" t="s">
         <v>135</v>
@@ -5921,7 +5937,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F24" s="54" t="s">
         <v>137</v>
@@ -5933,13 +5949,14 @@
         <v>5.74</v>
       </c>
       <c r="I24" s="43"/>
+      <c r="K24" s="131"/>
     </row>
     <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C25" s="53" t="s">
         <v>135</v>
@@ -5948,7 +5965,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F25" s="54" t="s">
         <v>137</v>
@@ -5962,13 +5979,14 @@
       <c r="I25" s="43" t="s">
         <v>121</v>
       </c>
+      <c r="K25" s="131"/>
     </row>
     <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C26" s="53" t="s">
         <v>135</v>
@@ -5977,7 +5995,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F26" s="54" t="s">
         <v>137</v>
@@ -5991,13 +6009,14 @@
       <c r="I26" s="43" t="s">
         <v>121</v>
       </c>
+      <c r="K26" s="131"/>
     </row>
     <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C27" s="53" t="s">
         <v>135</v>
@@ -6006,7 +6025,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F27" s="54" t="s">
         <v>137</v>
@@ -6020,17 +6039,19 @@
       <c r="I27" s="43" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K27" s="131"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C28" s="52"/>
       <c r="I28" s="43"/>
-    </row>
-    <row r="29" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="K28" s="131"/>
+    </row>
+    <row r="29" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="52" t="s">
         <v>135</v>
@@ -6039,7 +6060,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="122" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F29" s="38">
         <v>456</v>
@@ -6054,13 +6075,14 @@
         <v>144</v>
       </c>
       <c r="J29" s="50"/>
+      <c r="K29" s="131"/>
     </row>
     <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C30" s="53" t="s">
         <v>135</v>
@@ -6069,7 +6091,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="122" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F30" s="54">
         <v>456</v>
@@ -6082,13 +6104,14 @@
       </c>
       <c r="I30" s="56"/>
       <c r="J30" s="50"/>
+      <c r="K30" s="131"/>
     </row>
     <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C31" s="53" t="s">
         <v>135</v>
@@ -6097,7 +6120,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="122" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F31" s="54">
         <v>456</v>
@@ -6106,17 +6129,18 @@
         <v>14</v>
       </c>
       <c r="H31" s="93" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I31" s="55"/>
       <c r="J31" s="50"/>
+      <c r="K31" s="131"/>
     </row>
     <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C32" s="57" t="s">
         <v>135</v>
@@ -6125,7 +6149,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="122" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F32" s="58">
         <v>456</v>
@@ -6136,8 +6160,9 @@
       <c r="H32" s="29"/>
       <c r="I32" s="55"/>
       <c r="J32" s="50"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="131"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="52"/>
@@ -6145,13 +6170,14 @@
       <c r="G33" s="50"/>
       <c r="H33" s="50"/>
       <c r="J33" s="50"/>
-    </row>
-    <row r="34" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K33" s="131"/>
+    </row>
+    <row r="34" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C34" s="52" t="s">
         <v>135</v>
@@ -6160,7 +6186,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F34" s="38">
         <v>457</v>
@@ -6175,13 +6201,14 @@
         <v>145</v>
       </c>
       <c r="J34" s="50"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K34" s="131"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C35" s="53" t="s">
         <v>135</v>
@@ -6190,7 +6217,7 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F35" s="54">
         <v>457</v>
@@ -6203,13 +6230,14 @@
       </c>
       <c r="I35" s="56"/>
       <c r="J35" s="50"/>
-    </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K35" s="131"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="53" t="s">
         <v>135</v>
@@ -6218,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F36" s="54">
         <v>457</v>
@@ -6227,17 +6255,18 @@
         <v>14</v>
       </c>
       <c r="H36" s="93" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I36" s="55"/>
       <c r="J36" s="50"/>
-    </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K36" s="131"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="57" t="s">
         <v>135</v>
@@ -6246,7 +6275,7 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F37" s="58">
         <v>457</v>
@@ -6257,8 +6286,9 @@
       <c r="H37" s="29"/>
       <c r="I37" s="55"/>
       <c r="J37" s="50"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="131"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="52"/>
@@ -6266,13 +6296,14 @@
       <c r="G38" s="50"/>
       <c r="H38" s="92"/>
       <c r="J38" s="50"/>
-    </row>
-    <row r="39" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K38" s="131"/>
+    </row>
+    <row r="39" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C39" s="52" t="s">
         <v>135</v>
@@ -6281,7 +6312,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F39" s="48">
         <v>415</v>
@@ -6296,13 +6327,14 @@
         <v>174</v>
       </c>
       <c r="J39" s="50"/>
-    </row>
-    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K39" s="131"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>135</v>
@@ -6311,7 +6343,7 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F40" s="54">
         <v>415</v>
@@ -6324,13 +6356,14 @@
       </c>
       <c r="I40" s="51"/>
       <c r="J40" s="50"/>
-    </row>
-    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K40" s="131"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C41" s="53" t="s">
         <v>135</v>
@@ -6339,7 +6372,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F41" s="54">
         <v>415</v>
@@ -6348,17 +6381,18 @@
         <v>14</v>
       </c>
       <c r="H41" s="93" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I41" s="51"/>
       <c r="J41" s="50"/>
-    </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K41" s="131"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C42" s="53" t="s">
         <v>135</v>
@@ -6367,7 +6401,7 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F42" s="58">
         <v>415</v>
@@ -6378,18 +6412,20 @@
       <c r="H42" s="29"/>
       <c r="I42" s="51"/>
       <c r="J42" s="50"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="131"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C43" s="52"/>
       <c r="F43" s="23"/>
       <c r="G43" s="27"/>
-    </row>
-    <row r="44" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K43" s="131"/>
+    </row>
+    <row r="44" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C44" s="52" t="s">
         <v>135</v>
@@ -6398,7 +6434,7 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F44" s="48">
         <v>422</v>
@@ -6412,13 +6448,14 @@
       <c r="I44" s="51" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K44" s="131"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="85" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C45" s="53" t="s">
         <v>135</v>
@@ -6427,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F45" s="54">
         <v>422</v>
@@ -6439,13 +6476,14 @@
         <v>-39.573716670000003</v>
       </c>
       <c r="I45" s="51"/>
-    </row>
-    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K45" s="131"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="85" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C46" s="53" t="s">
         <v>135</v>
@@ -6454,7 +6492,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F46" s="54">
         <v>422</v>
@@ -6463,16 +6501,17 @@
         <v>14</v>
       </c>
       <c r="H46" s="93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I46" s="51"/>
-    </row>
-    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K46" s="131"/>
+    </row>
+    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="85" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C47" s="53" t="s">
         <v>135</v>
@@ -6481,7 +6520,7 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F47" s="58">
         <v>422</v>
@@ -6491,17 +6530,19 @@
       </c>
       <c r="H47" s="29"/>
       <c r="I47" s="51"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="131"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C48" s="52"/>
       <c r="F48" s="54"/>
+      <c r="K48" s="131"/>
     </row>
     <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>133</v>
       </c>
       <c r="B49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C49" s="52" t="s">
         <v>135</v>
@@ -6510,7 +6551,7 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F49" s="48">
         <v>439</v>
@@ -6524,13 +6565,14 @@
       <c r="I49" s="51" t="s">
         <v>146</v>
       </c>
+      <c r="K49" s="131"/>
     </row>
     <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C50" s="53" t="s">
         <v>135</v>
@@ -6539,7 +6581,7 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F50" s="54">
         <v>439</v>
@@ -6551,13 +6593,14 @@
         <v>-39.573716670000003</v>
       </c>
       <c r="I50" s="51"/>
+      <c r="K50" s="131"/>
     </row>
     <row r="51" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C51" s="53" t="s">
         <v>135</v>
@@ -6566,7 +6609,7 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F51" s="54">
         <v>439</v>
@@ -6575,16 +6618,17 @@
         <v>14</v>
       </c>
       <c r="H51" s="93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I51" s="51"/>
+      <c r="K51" s="131"/>
     </row>
     <row r="52" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C52" s="53" t="s">
         <v>135</v>
@@ -6593,7 +6637,7 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F52" s="58">
         <v>439</v>
@@ -6603,17 +6647,19 @@
       </c>
       <c r="H52" s="29"/>
       <c r="I52" s="51"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K52" s="131"/>
+    </row>
+    <row r="53" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="C53" s="52"/>
       <c r="F53" s="3"/>
+      <c r="K53" s="131"/>
     </row>
     <row r="54" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C54" s="52" t="s">
         <v>135</v>
@@ -6622,7 +6668,7 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F54" s="48">
         <v>288</v>
@@ -6637,7 +6683,7 @@
         <v>141</v>
       </c>
       <c r="J54" s="61"/>
-      <c r="K54" s="61"/>
+      <c r="K54" s="131"/>
       <c r="L54" s="25"/>
       <c r="M54" s="25"/>
       <c r="N54" s="25"/>
@@ -6648,7 +6694,7 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C55" s="53" t="s">
         <v>135</v>
@@ -6657,7 +6703,7 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F55" s="54">
         <v>288</v>
@@ -6666,11 +6712,11 @@
         <v>87</v>
       </c>
       <c r="H55" s="94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I55" s="62"/>
       <c r="J55" s="61"/>
-      <c r="K55" s="61"/>
+      <c r="K55" s="131"/>
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
       <c r="N55" s="25"/>
@@ -6681,7 +6727,7 @@
         <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C56" s="53" t="s">
         <v>135</v>
@@ -6690,7 +6736,7 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F56" s="54">
         <v>288</v>
@@ -6699,17 +6745,17 @@
         <v>88</v>
       </c>
       <c r="H56" s="94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I56" s="62"/>
       <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
+      <c r="K56" s="131"/>
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="52"/>
@@ -6718,7 +6764,7 @@
       <c r="H57" s="95"/>
       <c r="I57" s="62"/>
       <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
+      <c r="K57" s="131"/>
       <c r="L57" s="25"/>
       <c r="M57" s="25"/>
       <c r="N57" s="25"/>
@@ -6729,7 +6775,7 @@
         <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C58" s="52" t="s">
         <v>135</v>
@@ -6738,7 +6784,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F58" s="48">
         <v>275</v>
@@ -6753,7 +6799,7 @@
         <v>142</v>
       </c>
       <c r="J58" s="61"/>
-      <c r="K58" s="61"/>
+      <c r="K58" s="131"/>
       <c r="L58" s="25"/>
       <c r="M58" s="25"/>
       <c r="N58" s="25"/>
@@ -6764,7 +6810,7 @@
         <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C59" s="53" t="s">
         <v>135</v>
@@ -6773,7 +6819,7 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F59" s="54">
         <v>275</v>
@@ -6782,11 +6828,11 @@
         <v>87</v>
       </c>
       <c r="H59" s="94" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I59" s="62"/>
       <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
+      <c r="K59" s="131"/>
       <c r="L59" s="25"/>
       <c r="M59" s="25"/>
       <c r="N59" s="25"/>
@@ -6797,7 +6843,7 @@
         <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C60" s="53" t="s">
         <v>135</v>
@@ -6806,7 +6852,7 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F60" s="54">
         <v>275</v>
@@ -6815,25 +6861,26 @@
         <v>88</v>
       </c>
       <c r="H60" s="94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I60" s="62"/>
       <c r="J60" s="61"/>
-      <c r="K60" s="61"/>
+      <c r="K60" s="131"/>
       <c r="L60" s="25"/>
       <c r="M60" s="25"/>
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="C61" s="52"/>
+      <c r="K61" s="131"/>
     </row>
     <row r="62" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C62" s="52" t="s">
         <v>135</v>
@@ -6842,7 +6889,7 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F62" s="38">
         <v>274</v>
@@ -6857,13 +6904,14 @@
         <v>149</v>
       </c>
       <c r="J62" s="50"/>
+      <c r="K62" s="131"/>
     </row>
     <row r="63" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="88" t="s">
         <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C63" s="53" t="s">
         <v>135</v>
@@ -6872,7 +6920,7 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F63" s="54">
         <v>274</v>
@@ -6887,13 +6935,14 @@
         <v>121</v>
       </c>
       <c r="J63" s="50"/>
+      <c r="K63" s="131"/>
     </row>
     <row r="64" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="88" t="s">
         <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C64" s="53" t="s">
         <v>135</v>
@@ -6902,7 +6951,7 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F64" s="54">
         <v>274</v>
@@ -6915,13 +6964,14 @@
       </c>
       <c r="I64" s="44"/>
       <c r="J64" s="50"/>
-    </row>
-    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K64" s="131"/>
+    </row>
+    <row r="65" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="88" t="s">
         <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C65" s="53" t="s">
         <v>135</v>
@@ -6930,7 +6980,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F65" s="54">
         <v>274</v>
@@ -6939,17 +6989,18 @@
         <v>93</v>
       </c>
       <c r="H65" s="89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I65" s="44"/>
       <c r="J65" s="50"/>
-    </row>
-    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K65" s="131"/>
+    </row>
+    <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="88" t="s">
         <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C66" s="53" t="s">
         <v>135</v>
@@ -6958,7 +7009,7 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F66" s="54">
         <v>274</v>
@@ -6967,17 +7018,18 @@
         <v>94</v>
       </c>
       <c r="H66" s="89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I66" s="44"/>
       <c r="J66" s="50"/>
-    </row>
-    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K66" s="131"/>
+    </row>
+    <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="88" t="s">
         <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C67" s="53" t="s">
         <v>135</v>
@@ -6986,7 +7038,7 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F67" s="54">
         <v>274</v>
@@ -6995,17 +7047,18 @@
         <v>95</v>
       </c>
       <c r="H67" s="89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I67" s="44"/>
       <c r="J67" s="50"/>
-    </row>
-    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K67" s="131"/>
+    </row>
+    <row r="68" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="88" t="s">
         <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C68" s="53" t="s">
         <v>135</v>
@@ -7014,7 +7067,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F68" s="54">
         <v>274</v>
@@ -7023,12 +7076,13 @@
         <v>96</v>
       </c>
       <c r="H68" s="89" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I68" s="44"/>
       <c r="J68" s="50"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="131"/>
+    </row>
+    <row r="69" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="52"/>
@@ -7037,13 +7091,14 @@
       <c r="H69" s="97"/>
       <c r="I69" s="44"/>
       <c r="J69" s="50"/>
-    </row>
-    <row r="70" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K69" s="131"/>
+    </row>
+    <row r="70" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C70" s="52" t="s">
         <v>135</v>
@@ -7052,7 +7107,7 @@
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F70" s="38">
         <v>271</v>
@@ -7067,13 +7122,14 @@
         <v>150</v>
       </c>
       <c r="J70" s="50"/>
-    </row>
-    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K70" s="131"/>
+    </row>
+    <row r="71" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="88" t="s">
         <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C71" s="53" t="s">
         <v>135</v>
@@ -7082,7 +7138,7 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F71" s="54">
         <v>271</v>
@@ -7097,13 +7153,14 @@
         <v>121</v>
       </c>
       <c r="J71" s="50"/>
-    </row>
-    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K71" s="131"/>
+    </row>
+    <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="88" t="s">
         <v>46</v>
       </c>
       <c r="B72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C72" s="53" t="s">
         <v>135</v>
@@ -7112,7 +7169,7 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F72" s="54">
         <v>271</v>
@@ -7125,13 +7182,14 @@
       </c>
       <c r="I72" s="44"/>
       <c r="J72" s="50"/>
-    </row>
-    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K72" s="131"/>
+    </row>
+    <row r="73" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="88" t="s">
         <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C73" s="53" t="s">
         <v>135</v>
@@ -7140,7 +7198,7 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F73" s="54">
         <v>271</v>
@@ -7149,17 +7207,18 @@
         <v>93</v>
       </c>
       <c r="H73" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I73" s="44"/>
       <c r="J73" s="50"/>
-    </row>
-    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K73" s="131"/>
+    </row>
+    <row r="74" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="88" t="s">
         <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C74" s="53" t="s">
         <v>135</v>
@@ -7168,7 +7227,7 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F74" s="54">
         <v>271</v>
@@ -7177,17 +7236,18 @@
         <v>94</v>
       </c>
       <c r="H74" s="89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I74" s="44"/>
       <c r="J74" s="50"/>
-    </row>
-    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K74" s="131"/>
+    </row>
+    <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="88" t="s">
         <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C75" s="53" t="s">
         <v>135</v>
@@ -7196,7 +7256,7 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F75" s="54">
         <v>271</v>
@@ -7205,17 +7265,18 @@
         <v>95</v>
       </c>
       <c r="H75" s="89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I75" s="44"/>
       <c r="J75" s="50"/>
-    </row>
-    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K75" s="131"/>
+    </row>
+    <row r="76" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="88" t="s">
         <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C76" s="53" t="s">
         <v>135</v>
@@ -7224,7 +7285,7 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F76" s="54">
         <v>271</v>
@@ -7233,20 +7294,22 @@
         <v>96</v>
       </c>
       <c r="H76" s="89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I76" s="44"/>
       <c r="J76" s="50"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="131"/>
+    </row>
+    <row r="77" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C77" s="52"/>
-    </row>
-    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K77" s="131"/>
+    </row>
+    <row r="78" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C78" s="52" t="s">
         <v>135</v>
@@ -7255,7 +7318,7 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F78" s="38" t="s">
         <v>143</v>
@@ -7263,16 +7326,18 @@
       <c r="I78" s="41" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="131"/>
+    </row>
+    <row r="79" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C79" s="52"/>
-    </row>
-    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K79" s="131"/>
+    </row>
+    <row r="80" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B80" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C80" s="52" t="s">
         <v>135</v>
@@ -7281,10 +7346,10 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
+        <v>250</v>
+      </c>
+      <c r="F80" s="38" t="s">
         <v>251</v>
-      </c>
-      <c r="F80" s="38" t="s">
-        <v>252</v>
       </c>
       <c r="G80" s="17" t="s">
         <v>6</v>
@@ -7293,13 +7358,14 @@
         <v>59.9435833</v>
       </c>
       <c r="I80" s="63"/>
+      <c r="K80" s="131"/>
     </row>
     <row r="81" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="53" t="s">
         <v>135</v>
@@ -7308,10 +7374,10 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
+        <v>250</v>
+      </c>
+      <c r="F81" s="54" t="s">
         <v>251</v>
-      </c>
-      <c r="F81" s="54" t="s">
-        <v>252</v>
       </c>
       <c r="G81" s="17" t="s">
         <v>7</v>
@@ -7320,16 +7386,18 @@
         <v>-39.573716670000003</v>
       </c>
       <c r="I81" s="63"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K81" s="131"/>
+    </row>
+    <row r="82" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C82" s="52"/>
+      <c r="K82" s="131"/>
     </row>
     <row r="83" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>122</v>
       </c>
       <c r="B83" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C83" s="64" t="s">
         <v>135</v>
@@ -7338,7 +7406,7 @@
         <v>2</v>
       </c>
       <c r="E83" s="127" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F83" s="39">
         <v>144903</v>
@@ -7353,13 +7421,14 @@
         <v>140</v>
       </c>
       <c r="J83" s="29"/>
+      <c r="K83" s="131"/>
     </row>
     <row r="84" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>122</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C84" s="53" t="s">
         <v>135</v>
@@ -7368,7 +7437,7 @@
         <v>2</v>
       </c>
       <c r="E84" s="128" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F84" s="54">
         <v>144903</v>
@@ -7380,16 +7449,18 @@
         <v>-39.573716670000003</v>
       </c>
       <c r="I84" s="41"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K84" s="131"/>
+    </row>
+    <row r="85" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C85" s="52"/>
-    </row>
-    <row r="86" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="K85" s="131"/>
+    </row>
+    <row r="86" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B86" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C86" s="52" t="s">
         <v>135</v>
@@ -7398,22 +7469,22 @@
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F86" s="38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G86" s="24" t="s">
         <v>105</v>
       </c>
       <c r="H86" s="99" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I86" s="66" t="s">
         <v>144</v>
       </c>
       <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
+      <c r="K86" s="131"/>
       <c r="L86" s="24"/>
       <c r="M86" s="24"/>
     </row>
@@ -7422,7 +7493,7 @@
         <v>49</v>
       </c>
       <c r="B87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C87" s="53" t="s">
         <v>135</v>
@@ -7431,20 +7502,20 @@
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F87" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G87" s="24" t="s">
         <v>106</v>
       </c>
       <c r="H87" s="99" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I87" s="67"/>
       <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
+      <c r="K87" s="131"/>
       <c r="L87" s="24"/>
       <c r="M87" s="24"/>
     </row>
@@ -7453,7 +7524,7 @@
         <v>49</v>
       </c>
       <c r="B88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C88" s="53" t="s">
         <v>135</v>
@@ -7462,10 +7533,10 @@
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F88" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G88" s="24" t="s">
         <v>97</v>
@@ -7475,7 +7546,7 @@
       </c>
       <c r="I88" s="67"/>
       <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
+      <c r="K88" s="131"/>
       <c r="L88" s="24"/>
       <c r="M88" s="24"/>
     </row>
@@ -7484,7 +7555,7 @@
         <v>49</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C89" s="53" t="s">
         <v>135</v>
@@ -7493,20 +7564,20 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F89" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G89" s="24" t="s">
         <v>98</v>
       </c>
       <c r="H89" s="99" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I89" s="68"/>
       <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
+      <c r="K89" s="131"/>
       <c r="L89" s="24"/>
       <c r="M89" s="24"/>
     </row>
@@ -7515,7 +7586,7 @@
         <v>49</v>
       </c>
       <c r="B90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C90" s="53" t="s">
         <v>135</v>
@@ -7524,20 +7595,20 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F90" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G90" s="24" t="s">
         <v>107</v>
       </c>
       <c r="H90" s="99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I90" s="67"/>
       <c r="J90" s="24"/>
-      <c r="K90" s="24"/>
+      <c r="K90" s="131"/>
       <c r="L90" s="24"/>
       <c r="M90" s="24"/>
     </row>
@@ -7546,7 +7617,7 @@
         <v>49</v>
       </c>
       <c r="B91" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C91" s="53" t="s">
         <v>135</v>
@@ -7555,20 +7626,20 @@
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F91" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G91" s="24" t="s">
         <v>108</v>
       </c>
       <c r="H91" s="99" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I91" s="67"/>
       <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
+      <c r="K91" s="131"/>
       <c r="L91" s="24"/>
       <c r="M91" s="24"/>
     </row>
@@ -7577,7 +7648,7 @@
         <v>49</v>
       </c>
       <c r="B92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C92" s="53" t="s">
         <v>135</v>
@@ -7586,20 +7657,20 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F92" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G92" s="24" t="s">
         <v>109</v>
       </c>
       <c r="H92" s="99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I92" s="68"/>
       <c r="J92" s="24"/>
-      <c r="K92" s="24"/>
+      <c r="K92" s="131"/>
       <c r="L92" s="24"/>
       <c r="M92" s="24"/>
     </row>
@@ -7608,7 +7679,7 @@
         <v>49</v>
       </c>
       <c r="B93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C93" s="53" t="s">
         <v>135</v>
@@ -7617,30 +7688,30 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F93" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G93" s="24" t="s">
         <v>110</v>
       </c>
       <c r="H93" s="99" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I93" s="67"/>
       <c r="J93" s="69"/>
-      <c r="K93" s="24"/>
+      <c r="K93" s="131"/>
       <c r="L93" s="24"/>
       <c r="M93" s="24"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C94" s="52"/>
       <c r="G94" s="24"/>
       <c r="H94" s="24"/>
       <c r="I94" s="66"/>
       <c r="J94" s="65"/>
-      <c r="K94" s="70"/>
+      <c r="K94" s="131"/>
       <c r="L94" s="24"/>
       <c r="M94" s="24"/>
     </row>
@@ -7649,7 +7720,7 @@
         <v>50</v>
       </c>
       <c r="B95" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C95" s="52" t="s">
         <v>135</v>
@@ -7658,28 +7729,29 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F95" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G95" s="24" t="s">
         <v>105</v>
       </c>
       <c r="H95" s="99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I95" s="71" t="s">
         <v>148</v>
       </c>
       <c r="J95" s="24"/>
+      <c r="K95" s="131"/>
     </row>
     <row r="96" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B96" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C96" s="53" t="s">
         <v>135</v>
@@ -7688,26 +7760,27 @@
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F96" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G96" s="24" t="s">
         <v>106</v>
       </c>
       <c r="H96" s="99" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I96" s="67"/>
       <c r="J96" s="24"/>
-    </row>
-    <row r="97" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K96" s="131"/>
+    </row>
+    <row r="97" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C97" s="53" t="s">
         <v>135</v>
@@ -7716,7 +7789,7 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F97" s="54" t="s">
         <v>151</v>
@@ -7729,13 +7802,14 @@
       </c>
       <c r="I97" s="67"/>
       <c r="J97" s="24"/>
-    </row>
-    <row r="98" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K97" s="131"/>
+    </row>
+    <row r="98" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C98" s="53" t="s">
         <v>135</v>
@@ -7744,7 +7818,7 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F98" s="54" t="s">
         <v>151</v>
@@ -7753,17 +7827,18 @@
         <v>98</v>
       </c>
       <c r="H98" s="99" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I98" s="68"/>
       <c r="J98" s="24"/>
-    </row>
-    <row r="99" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K98" s="131"/>
+    </row>
+    <row r="99" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B99" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C99" s="53" t="s">
         <v>135</v>
@@ -7772,7 +7847,7 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F99" s="54" t="s">
         <v>151</v>
@@ -7781,17 +7856,18 @@
         <v>107</v>
       </c>
       <c r="H99" s="99" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I99" s="67"/>
       <c r="J99" s="24"/>
-    </row>
-    <row r="100" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K99" s="131"/>
+    </row>
+    <row r="100" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B100" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C100" s="53" t="s">
         <v>135</v>
@@ -7800,7 +7876,7 @@
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F100" s="54" t="s">
         <v>151</v>
@@ -7809,17 +7885,18 @@
         <v>108</v>
       </c>
       <c r="H100" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I100" s="67"/>
       <c r="J100" s="24"/>
-    </row>
-    <row r="101" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K100" s="131"/>
+    </row>
+    <row r="101" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B101" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C101" s="53" t="s">
         <v>135</v>
@@ -7828,7 +7905,7 @@
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F101" s="54" t="s">
         <v>151</v>
@@ -7837,17 +7914,18 @@
         <v>109</v>
       </c>
       <c r="H101" s="99" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I101" s="68"/>
       <c r="J101" s="24"/>
-    </row>
-    <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K101" s="131"/>
+    </row>
+    <row r="102" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B102" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C102" s="53" t="s">
         <v>135</v>
@@ -7856,7 +7934,7 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F102" s="54" t="s">
         <v>151</v>
@@ -7865,24 +7943,26 @@
         <v>110</v>
       </c>
       <c r="H102" s="99" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I102" s="67"/>
       <c r="J102" s="69"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="131"/>
+    </row>
+    <row r="103" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C103" s="52"/>
       <c r="G103" s="24"/>
       <c r="H103" s="24"/>
       <c r="I103" s="43"/>
       <c r="J103" s="65"/>
-    </row>
-    <row r="104" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+      <c r="K103" s="131"/>
+    </row>
+    <row r="104" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C104" s="52" t="s">
         <v>135</v>
@@ -7891,7 +7971,7 @@
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F104" s="38">
         <v>1296</v>
@@ -7906,13 +7986,14 @@
         <v>147</v>
       </c>
       <c r="J104" s="70"/>
-    </row>
-    <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K104" s="131"/>
+    </row>
+    <row r="105" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C105" s="53" t="s">
         <v>135</v>
@@ -7921,7 +8002,7 @@
         <v>2</v>
       </c>
       <c r="E105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F105" s="54">
         <v>1296</v>
@@ -7934,13 +8015,14 @@
       </c>
       <c r="I105" s="73"/>
       <c r="J105" s="70"/>
-    </row>
-    <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K105" s="131"/>
+    </row>
+    <row r="106" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B106" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C106" s="53" t="s">
         <v>135</v>
@@ -7949,7 +8031,7 @@
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F106" s="54">
         <v>1296</v>
@@ -7962,13 +8044,14 @@
       </c>
       <c r="I106" s="46"/>
       <c r="J106" s="70"/>
-    </row>
-    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K106" s="131"/>
+    </row>
+    <row r="107" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B107" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C107" s="53" t="s">
         <v>135</v>
@@ -7977,7 +8060,7 @@
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F107" s="54">
         <v>1296</v>
@@ -7990,13 +8073,14 @@
       </c>
       <c r="I107" s="46"/>
       <c r="J107" s="70"/>
-    </row>
-    <row r="108" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K107" s="131"/>
+    </row>
+    <row r="108" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C108" s="53" t="s">
         <v>135</v>
@@ -8005,7 +8089,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F108" s="54">
         <v>1296</v>
@@ -8018,13 +8102,14 @@
       </c>
       <c r="I108" s="46"/>
       <c r="J108" s="70"/>
-    </row>
-    <row r="109" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K108" s="131"/>
+    </row>
+    <row r="109" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B109" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C109" s="53" t="s">
         <v>135</v>
@@ -8033,7 +8118,7 @@
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F109" s="54">
         <v>1296</v>
@@ -8046,13 +8131,14 @@
       </c>
       <c r="I109" s="74"/>
       <c r="J109" s="70"/>
-    </row>
-    <row r="110" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K109" s="131"/>
+    </row>
+    <row r="110" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B110" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C110" s="53" t="s">
         <v>135</v>
@@ -8061,7 +8147,7 @@
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F110" s="54">
         <v>1296</v>
@@ -8076,13 +8162,14 @@
         <v>121</v>
       </c>
       <c r="J110" s="70"/>
-    </row>
-    <row r="111" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K110" s="131"/>
+    </row>
+    <row r="111" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B111" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C111" s="53" t="s">
         <v>135</v>
@@ -8091,7 +8178,7 @@
         <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F111" s="54">
         <v>1296</v>
@@ -8106,13 +8193,14 @@
         <v>121</v>
       </c>
       <c r="J111" s="70"/>
-    </row>
-    <row r="112" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K111" s="131"/>
+    </row>
+    <row r="112" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B112" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C112" s="53" t="s">
         <v>135</v>
@@ -8121,7 +8209,7 @@
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F112" s="54">
         <v>1296</v>
@@ -8136,13 +8224,14 @@
         <v>121</v>
       </c>
       <c r="J112" s="70"/>
-    </row>
-    <row r="113" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K112" s="131"/>
+    </row>
+    <row r="113" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B113" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C113" s="53" t="s">
         <v>135</v>
@@ -8151,7 +8240,7 @@
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F113" s="54">
         <v>1296</v>
@@ -8166,20 +8255,22 @@
         <v>121</v>
       </c>
       <c r="J113" s="70"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" s="131"/>
+    </row>
+    <row r="114" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C114" s="52"/>
       <c r="G114" s="65"/>
       <c r="H114" s="105"/>
       <c r="I114" s="43"/>
       <c r="J114" s="70"/>
-    </row>
-    <row r="115" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="K114" s="131"/>
+    </row>
+    <row r="115" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B115" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C115" s="52" t="s">
         <v>135</v>
@@ -8188,7 +8279,7 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F115" s="38">
         <v>1295</v>
@@ -8202,13 +8293,14 @@
       <c r="I115" s="71" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K115" s="131"/>
+    </row>
+    <row r="116" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C116" s="53" t="s">
         <v>135</v>
@@ -8217,7 +8309,7 @@
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F116" s="54">
         <v>1295</v>
@@ -8229,13 +8321,14 @@
         <v>1.7570000000000001E-6</v>
       </c>
       <c r="I116" s="73"/>
-    </row>
-    <row r="117" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K116" s="131"/>
+    </row>
+    <row r="117" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B117" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C117" s="53" t="s">
         <v>135</v>
@@ -8244,7 +8337,7 @@
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F117" s="54">
         <v>1295</v>
@@ -8256,13 +8349,14 @@
         <v>56</v>
       </c>
       <c r="I117" s="46"/>
-    </row>
-    <row r="118" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K117" s="131"/>
+    </row>
+    <row r="118" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C118" s="53" t="s">
         <v>135</v>
@@ -8271,7 +8365,7 @@
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F118" s="54">
         <v>1295</v>
@@ -8283,13 +8377,14 @@
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="I118" s="46"/>
-    </row>
-    <row r="119" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K118" s="131"/>
+    </row>
+    <row r="119" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B119" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C119" s="53" t="s">
         <v>135</v>
@@ -8298,7 +8393,7 @@
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F119" s="54">
         <v>1295</v>
@@ -8310,13 +8405,14 @@
         <v>46</v>
       </c>
       <c r="I119" s="46"/>
-    </row>
-    <row r="120" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K119" s="131"/>
+    </row>
+    <row r="120" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C120" s="53" t="s">
         <v>135</v>
@@ -8325,7 +8421,7 @@
         <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F120" s="54">
         <v>1295</v>
@@ -8337,13 +8433,14 @@
         <v>9.0499999999999997E-2</v>
       </c>
       <c r="I120" s="74"/>
-    </row>
-    <row r="121" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K120" s="131"/>
+    </row>
+    <row r="121" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B121" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C121" s="53" t="s">
         <v>135</v>
@@ -8352,7 +8449,7 @@
         <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F121" s="54">
         <v>1295</v>
@@ -8366,13 +8463,14 @@
       <c r="I121" s="75" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K121" s="131"/>
+    </row>
+    <row r="122" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C122" s="53" t="s">
         <v>135</v>
@@ -8381,7 +8479,7 @@
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F122" s="54">
         <v>1295</v>
@@ -8395,13 +8493,14 @@
       <c r="I122" s="75" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K122" s="131"/>
+    </row>
+    <row r="123" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B123" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C123" s="53" t="s">
         <v>135</v>
@@ -8410,7 +8509,7 @@
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F123" s="54">
         <v>1295</v>
@@ -8424,13 +8523,14 @@
       <c r="I123" s="75" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K123" s="131"/>
+    </row>
+    <row r="124" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B124" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C124" s="53" t="s">
         <v>135</v>
@@ -8439,7 +8539,7 @@
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F124" s="54">
         <v>1295</v>
@@ -8453,19 +8553,21 @@
       <c r="I124" s="75" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124" s="131"/>
+    </row>
+    <row r="125" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C125" s="52"/>
       <c r="G125" s="65"/>
       <c r="H125" s="105"/>
       <c r="I125" s="43"/>
-    </row>
-    <row r="126" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K125" s="131"/>
+    </row>
+    <row r="126" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B126" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C126" s="52" t="s">
         <v>135</v>
@@ -8474,7 +8576,7 @@
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F126" s="38" t="s">
         <v>152</v>
@@ -8488,13 +8590,14 @@
       <c r="I126" s="51" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K126" s="131"/>
+    </row>
+    <row r="127" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B127" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C127" s="53" t="s">
         <v>135</v>
@@ -8503,7 +8606,7 @@
         <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F127" s="54" t="s">
         <v>152</v>
@@ -8514,13 +8617,14 @@
       <c r="H127" s="32">
         <v>-39.573716670000003</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K127" s="131"/>
+    </row>
+    <row r="128" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B128" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C128" s="53" t="s">
         <v>135</v>
@@ -8529,7 +8633,7 @@
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F128" s="54" t="s">
         <v>152</v>
@@ -8540,13 +8644,14 @@
       <c r="H128" s="106">
         <v>1.23989E-3</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K128" s="131"/>
+    </row>
+    <row r="129" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B129" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C129" s="53" t="s">
         <v>135</v>
@@ -8555,7 +8660,7 @@
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F129" s="54" t="s">
         <v>152</v>
@@ -8566,13 +8671,14 @@
       <c r="H129" s="106">
         <v>2.812243E-4</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K129" s="131"/>
+    </row>
+    <row r="130" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B130" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C130" s="53" t="s">
         <v>135</v>
@@ -8581,7 +8687,7 @@
         <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F130" s="54" t="s">
         <v>152</v>
@@ -8592,13 +8698,14 @@
       <c r="H130" s="106">
         <v>-2.0355120000000002E-6</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K130" s="131"/>
+    </row>
+    <row r="131" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B131" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C131" s="53" t="s">
         <v>135</v>
@@ -8607,7 +8714,7 @@
         <v>2</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F131" s="54" t="s">
         <v>152</v>
@@ -8618,13 +8725,14 @@
       <c r="H131" s="106">
         <v>2.1719600000000001E-7</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K131" s="131"/>
+    </row>
+    <row r="132" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B132" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C132" s="53" t="s">
         <v>135</v>
@@ -8633,7 +8741,7 @@
         <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F132" s="54" t="s">
         <v>152</v>
@@ -8644,13 +8752,14 @@
       <c r="H132" s="106">
         <v>-67.195139999999995</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K132" s="131"/>
+    </row>
+    <row r="133" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B133" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C133" s="53" t="s">
         <v>135</v>
@@ -8659,7 +8768,7 @@
         <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F133" s="54" t="s">
         <v>152</v>
@@ -8670,13 +8779,14 @@
       <c r="H133" s="106">
         <v>53.856749999999998</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K133" s="131"/>
+    </row>
+    <row r="134" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B134" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C134" s="53" t="s">
         <v>135</v>
@@ -8685,7 +8795,7 @@
         <v>2</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F134" s="54" t="s">
         <v>152</v>
@@ -8696,13 +8806,14 @@
       <c r="H134" s="106">
         <v>-0.6133229</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K134" s="131"/>
+    </row>
+    <row r="135" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C135" s="53" t="s">
         <v>135</v>
@@ -8711,7 +8822,7 @@
         <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F135" s="54" t="s">
         <v>152</v>
@@ -8722,13 +8833,14 @@
       <c r="H135" s="106">
         <v>524593.69999999995</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K135" s="131"/>
+    </row>
+    <row r="136" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C136" s="53" t="s">
         <v>135</v>
@@ -8737,7 +8849,7 @@
         <v>2</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F136" s="54" t="s">
         <v>152</v>
@@ -8748,13 +8860,14 @@
       <c r="H136" s="106">
         <v>6.8696820000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K136" s="131"/>
+    </row>
+    <row r="137" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B137" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C137" s="53" t="s">
         <v>135</v>
@@ -8763,7 +8876,7 @@
         <v>2</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F137" s="54" t="s">
         <v>152</v>
@@ -8774,13 +8887,14 @@
       <c r="H137" s="106">
         <v>-0.20935980000000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K137" s="131"/>
+    </row>
+    <row r="138" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B138" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C138" s="53" t="s">
         <v>135</v>
@@ -8789,7 +8903,7 @@
         <v>2</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F138" s="54" t="s">
         <v>152</v>
@@ -8800,13 +8914,14 @@
       <c r="H138" s="106">
         <v>24.944880000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K138" s="131"/>
+    </row>
+    <row r="139" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B139" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C139" s="53" t="s">
         <v>135</v>
@@ -8815,7 +8930,7 @@
         <v>2</v>
       </c>
       <c r="E139" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F139" s="54" t="s">
         <v>152</v>
@@ -8826,13 +8941,14 @@
       <c r="H139" s="106">
         <v>1.75E-4</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K139" s="131"/>
+    </row>
+    <row r="140" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B140" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C140" s="53" t="s">
         <v>135</v>
@@ -8841,7 +8957,7 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F140" s="54" t="s">
         <v>152</v>
@@ -8852,13 +8968,14 @@
       <c r="H140" s="106">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K140" s="131"/>
+    </row>
+    <row r="141" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B141" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C141" s="53" t="s">
         <v>135</v>
@@ -8867,7 +8984,7 @@
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F141" s="54" t="s">
         <v>152</v>
@@ -8878,13 +8995,14 @@
       <c r="H141" s="106">
         <v>2.300336E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K141" s="131"/>
+    </row>
+    <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B142" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C142" s="53" t="s">
         <v>135</v>
@@ -8893,7 +9011,7 @@
         <v>2</v>
       </c>
       <c r="E142" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F142" s="54" t="s">
         <v>152</v>
@@ -8904,13 +9022,14 @@
       <c r="H142" s="106">
         <v>4.8976260000000002E-4</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K142" s="131"/>
+    </row>
+    <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B143" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C143" s="53" t="s">
         <v>135</v>
@@ -8919,7 +9038,7 @@
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F143" s="54" t="s">
         <v>152</v>
@@ -8930,13 +9049,14 @@
       <c r="H143" s="106">
         <v>-5.1941929999999998E-12</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K143" s="131"/>
+    </row>
+    <row r="144" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B144" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C144" s="53" t="s">
         <v>135</v>
@@ -8945,7 +9065,7 @@
         <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F144" s="54" t="s">
         <v>152</v>
@@ -8956,13 +9076,14 @@
       <c r="H144" s="106">
         <v>-0.97436889999999998</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K144" s="131"/>
+    </row>
+    <row r="145" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B145" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C145" s="53" t="s">
         <v>135</v>
@@ -8971,7 +9092,7 @@
         <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F145" s="54" t="s">
         <v>152</v>
@@ -8982,13 +9103,14 @@
       <c r="H145" s="106">
         <v>0.15258389999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K145" s="131"/>
+    </row>
+    <row r="146" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B146" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C146" s="53" t="s">
         <v>135</v>
@@ -8997,7 +9119,7 @@
         <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F146" s="54" t="s">
         <v>152</v>
@@ -9008,13 +9130,14 @@
       <c r="H146" s="106">
         <v>-2.0437090000000001E-4</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K146" s="131"/>
+    </row>
+    <row r="147" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B147" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C147" s="53" t="s">
         <v>135</v>
@@ -9023,7 +9146,7 @@
         <v>2</v>
       </c>
       <c r="E147" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F147" s="54" t="s">
         <v>152</v>
@@ -9034,13 +9157,14 @@
       <c r="H147" s="106">
         <v>3.776429E-5</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K147" s="131"/>
+    </row>
+    <row r="148" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B148" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C148" s="53" t="s">
         <v>135</v>
@@ -9049,7 +9173,7 @@
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F148" s="54" t="s">
         <v>152</v>
@@ -9060,13 +9184,14 @@
       <c r="H148" s="106">
         <v>-9.5700000000000003E-8</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K148" s="131"/>
+    </row>
+    <row r="149" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B149" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C149" s="53" t="s">
         <v>135</v>
@@ -9075,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F149" s="54" t="s">
         <v>152</v>
@@ -9086,16 +9211,18 @@
       <c r="H149" s="106">
         <v>3.2499999999999998E-6</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K149" s="131"/>
+    </row>
+    <row r="150" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C150" s="52"/>
-    </row>
-    <row r="151" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K150" s="131"/>
+    </row>
+    <row r="151" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B151" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C151" s="52" t="s">
         <v>135</v>
@@ -9104,7 +9231,7 @@
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F151" s="38" t="s">
         <v>154</v>
@@ -9118,13 +9245,14 @@
       <c r="I151" s="78" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K151" s="131"/>
+    </row>
+    <row r="152" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B152" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C152" s="53" t="s">
         <v>135</v>
@@ -9133,7 +9261,7 @@
         <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F152" s="54" t="s">
         <v>154</v>
@@ -9145,16 +9273,18 @@
         <v>-39.573716670000003</v>
       </c>
       <c r="I152" s="63"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K152" s="131"/>
+    </row>
+    <row r="153" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C153" s="52"/>
-    </row>
-    <row r="154" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K153" s="131"/>
+    </row>
+    <row r="154" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B154" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C154" s="52" t="s">
         <v>135</v>
@@ -9163,7 +9293,7 @@
         <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F154" s="38" t="s">
         <v>155</v>
@@ -9178,13 +9308,14 @@
         <v>153</v>
       </c>
       <c r="J154" s="50"/>
-    </row>
-    <row r="155" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K154" s="131"/>
+    </row>
+    <row r="155" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B155" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C155" s="53" t="s">
         <v>135</v>
@@ -9193,7 +9324,7 @@
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F155" s="54" t="s">
         <v>155</v>
@@ -9206,13 +9337,14 @@
       </c>
       <c r="I155" s="56"/>
       <c r="J155" s="50"/>
-    </row>
-    <row r="156" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K155" s="131"/>
+    </row>
+    <row r="156" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B156" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C156" s="53" t="s">
         <v>135</v>
@@ -9221,7 +9353,7 @@
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F156" s="54" t="s">
         <v>155</v>
@@ -9234,13 +9366,14 @@
       </c>
       <c r="I156" s="56"/>
       <c r="J156" s="50"/>
-    </row>
-    <row r="157" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K156" s="131"/>
+    </row>
+    <row r="157" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B157" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C157" s="53" t="s">
         <v>135</v>
@@ -9249,7 +9382,7 @@
         <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F157" s="54" t="s">
         <v>155</v>
@@ -9262,13 +9395,14 @@
       </c>
       <c r="I157" s="56"/>
       <c r="J157" s="50"/>
-    </row>
-    <row r="158" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K157" s="131"/>
+    </row>
+    <row r="158" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B158" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C158" s="53" t="s">
         <v>135</v>
@@ -9277,7 +9411,7 @@
         <v>2</v>
       </c>
       <c r="E158" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F158" s="54" t="s">
         <v>155</v>
@@ -9290,13 +9424,14 @@
       </c>
       <c r="I158" s="56"/>
       <c r="J158" s="50"/>
-    </row>
-    <row r="159" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K158" s="131"/>
+    </row>
+    <row r="159" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B159" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C159" s="53" t="s">
         <v>135</v>
@@ -9305,7 +9440,7 @@
         <v>2</v>
       </c>
       <c r="E159" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F159" s="54" t="s">
         <v>155</v>
@@ -9318,13 +9453,14 @@
       </c>
       <c r="I159" s="56"/>
       <c r="J159" s="50"/>
-    </row>
-    <row r="160" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K159" s="131"/>
+    </row>
+    <row r="160" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B160" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C160" s="53" t="s">
         <v>135</v>
@@ -9333,7 +9469,7 @@
         <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F160" s="54" t="s">
         <v>155</v>
@@ -9346,13 +9482,14 @@
       </c>
       <c r="I160" s="56"/>
       <c r="J160" s="50"/>
-    </row>
-    <row r="161" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K160" s="131"/>
+    </row>
+    <row r="161" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B161" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C161" s="53" t="s">
         <v>135</v>
@@ -9361,7 +9498,7 @@
         <v>2</v>
       </c>
       <c r="E161" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F161" s="54" t="s">
         <v>155</v>
@@ -9374,16 +9511,18 @@
       </c>
       <c r="I161" s="56"/>
       <c r="J161" s="50"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K161" s="131"/>
+    </row>
+    <row r="162" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C162" s="52"/>
-    </row>
-    <row r="163" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K162" s="131"/>
+    </row>
+    <row r="163" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B163" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C163" s="52" t="s">
         <v>135</v>
@@ -9392,7 +9531,7 @@
         <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F163" s="38" t="s">
         <v>156</v>
@@ -9403,13 +9542,14 @@
       <c r="H163" s="3">
         <v>1450</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K163" s="131"/>
+    </row>
+    <row r="164" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B164" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C164" s="53" t="s">
         <v>135</v>
@@ -9418,7 +9558,7 @@
         <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F164" s="54" t="s">
         <v>156</v>
@@ -9429,13 +9569,14 @@
       <c r="H164" s="32">
         <v>59.9435833</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K164" s="131"/>
+    </row>
+    <row r="165" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B165" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C165" s="53" t="s">
         <v>135</v>
@@ -9444,7 +9585,7 @@
         <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F165" s="54" t="s">
         <v>156</v>
@@ -9455,19 +9596,21 @@
       <c r="H165" s="32">
         <v>-39.573716670000003</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K165" s="131"/>
+    </row>
+    <row r="166" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="18"/>
       <c r="B166" s="18"/>
       <c r="C166" s="52"/>
       <c r="G166" s="20"/>
-    </row>
-    <row r="167" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K166" s="131"/>
+    </row>
+    <row r="167" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
         <v>56</v>
       </c>
       <c r="B167" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C167" s="52" t="s">
         <v>135</v>
@@ -9476,7 +9619,7 @@
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F167" s="38" t="s">
         <v>157</v>
@@ -9487,13 +9630,14 @@
       <c r="H167" s="3">
         <v>1450</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K167" s="131"/>
+    </row>
+    <row r="168" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B168" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C168" s="53" t="s">
         <v>135</v>
@@ -9502,7 +9646,7 @@
         <v>2</v>
       </c>
       <c r="E168" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F168" s="54" t="s">
         <v>157</v>
@@ -9513,13 +9657,14 @@
       <c r="H168" s="32">
         <v>59.9435833</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K168" s="131"/>
+    </row>
+    <row r="169" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B169" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C169" s="53" t="s">
         <v>135</v>
@@ -9528,7 +9673,7 @@
         <v>2</v>
       </c>
       <c r="E169" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F169" s="54" t="s">
         <v>157</v>
@@ -9539,19 +9684,21 @@
       <c r="H169" s="32">
         <v>-39.573716670000003</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K169" s="131"/>
+    </row>
+    <row r="170" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="18"/>
       <c r="B170" s="18"/>
       <c r="C170" s="52"/>
       <c r="G170" s="20"/>
-    </row>
-    <row r="171" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K170" s="131"/>
+    </row>
+    <row r="171" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B171" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C171" s="52" t="s">
         <v>135</v>
@@ -9560,7 +9707,7 @@
         <v>2</v>
       </c>
       <c r="E171" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F171" s="38" t="s">
         <v>158</v>
@@ -9571,13 +9718,14 @@
       <c r="H171" s="3">
         <v>1450</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K171" s="131"/>
+    </row>
+    <row r="172" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B172" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C172" s="53" t="s">
         <v>135</v>
@@ -9586,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="E172" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F172" s="54" t="s">
         <v>158</v>
@@ -9597,13 +9745,14 @@
       <c r="H172" s="32">
         <v>59.9435833</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K172" s="131"/>
+    </row>
+    <row r="173" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B173" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C173" s="53" t="s">
         <v>135</v>
@@ -9612,7 +9761,7 @@
         <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F173" s="54" t="s">
         <v>158</v>
@@ -9623,19 +9772,21 @@
       <c r="H173" s="32">
         <v>-39.573716670000003</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K173" s="131"/>
+    </row>
+    <row r="174" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="18"/>
       <c r="B174" s="18"/>
       <c r="C174" s="52"/>
       <c r="G174" s="20"/>
-    </row>
-    <row r="175" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K174" s="131"/>
+    </row>
+    <row r="175" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B175" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C175" s="52" t="s">
         <v>135</v>
@@ -9644,7 +9795,7 @@
         <v>2</v>
       </c>
       <c r="E175" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F175" s="38" t="s">
         <v>159</v>
@@ -9655,13 +9806,14 @@
       <c r="H175" s="3">
         <v>1450</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K175" s="131"/>
+    </row>
+    <row r="176" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B176" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C176" s="53" t="s">
         <v>135</v>
@@ -9670,7 +9822,7 @@
         <v>2</v>
       </c>
       <c r="E176" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F176" s="54" t="s">
         <v>159</v>
@@ -9681,13 +9833,14 @@
       <c r="H176" s="32">
         <v>59.9435833</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K176" s="131"/>
+    </row>
+    <row r="177" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B177" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C177" s="53" t="s">
         <v>135</v>
@@ -9696,7 +9849,7 @@
         <v>2</v>
       </c>
       <c r="E177" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F177" s="54" t="s">
         <v>159</v>
@@ -9707,19 +9860,21 @@
       <c r="H177" s="32">
         <v>-39.573716670000003</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K177" s="131"/>
+    </row>
+    <row r="178" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="18"/>
       <c r="B178" s="18"/>
       <c r="C178" s="52"/>
       <c r="G178" s="20"/>
-    </row>
-    <row r="179" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K178" s="131"/>
+    </row>
+    <row r="179" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B179" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C179" s="52" t="s">
         <v>135</v>
@@ -9728,7 +9883,7 @@
         <v>2</v>
       </c>
       <c r="E179" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F179" s="38" t="s">
         <v>160</v>
@@ -9739,13 +9894,14 @@
       <c r="H179" s="3">
         <v>1450</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K179" s="131"/>
+    </row>
+    <row r="180" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B180" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C180" s="53" t="s">
         <v>135</v>
@@ -9754,7 +9910,7 @@
         <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F180" s="54" t="s">
         <v>160</v>
@@ -9765,13 +9921,14 @@
       <c r="H180" s="32">
         <v>59.9435833</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K180" s="131"/>
+    </row>
+    <row r="181" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C181" s="53" t="s">
         <v>135</v>
@@ -9780,7 +9937,7 @@
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F181" s="54" t="s">
         <v>160</v>
@@ -9791,19 +9948,21 @@
       <c r="H181" s="32">
         <v>-39.573716670000003</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K181" s="131"/>
+    </row>
+    <row r="182" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="18"/>
       <c r="B182" s="18"/>
       <c r="C182" s="52"/>
       <c r="G182" s="20"/>
-    </row>
-    <row r="183" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K182" s="131"/>
+    </row>
+    <row r="183" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B183" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C183" s="52" t="s">
         <v>135</v>
@@ -9812,7 +9971,7 @@
         <v>2</v>
       </c>
       <c r="E183" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F183" s="79" t="s">
         <v>161</v>
@@ -9823,13 +9982,14 @@
       <c r="H183" s="3">
         <v>1450</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K183" s="131"/>
+    </row>
+    <row r="184" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B184" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C184" s="53" t="s">
         <v>135</v>
@@ -9838,7 +9998,7 @@
         <v>2</v>
       </c>
       <c r="E184" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F184" s="54" t="s">
         <v>161</v>
@@ -9849,13 +10009,14 @@
       <c r="H184" s="32">
         <v>59.9435833</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K184" s="131"/>
+    </row>
+    <row r="185" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B185" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C185" s="53" t="s">
         <v>135</v>
@@ -9864,7 +10025,7 @@
         <v>2</v>
       </c>
       <c r="E185" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F185" s="54" t="s">
         <v>161</v>
@@ -9875,19 +10036,21 @@
       <c r="H185" s="32">
         <v>-39.573716670000003</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K185" s="131"/>
+    </row>
+    <row r="186" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="18"/>
       <c r="B186" s="18"/>
       <c r="C186" s="52"/>
       <c r="G186" s="20"/>
-    </row>
-    <row r="187" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K186" s="131"/>
+    </row>
+    <row r="187" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C187" s="52" t="s">
         <v>135</v>
@@ -9896,7 +10059,7 @@
         <v>2</v>
       </c>
       <c r="E187" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F187" s="79" t="s">
         <v>162</v>
@@ -9907,13 +10070,14 @@
       <c r="H187" s="3">
         <v>1450</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K187" s="131"/>
+    </row>
+    <row r="188" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C188" s="53" t="s">
         <v>135</v>
@@ -9922,7 +10086,7 @@
         <v>2</v>
       </c>
       <c r="E188" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F188" s="54" t="s">
         <v>162</v>
@@ -9933,13 +10097,14 @@
       <c r="H188" s="32">
         <v>59.9435833</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K188" s="131"/>
+    </row>
+    <row r="189" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C189" s="53" t="s">
         <v>135</v>
@@ -9948,7 +10113,7 @@
         <v>2</v>
       </c>
       <c r="E189" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F189" s="54" t="s">
         <v>162</v>
@@ -9959,19 +10124,21 @@
       <c r="H189" s="32">
         <v>-39.573716670000003</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K189" s="131"/>
+    </row>
+    <row r="190" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="18"/>
       <c r="B190" s="18"/>
       <c r="C190" s="52"/>
       <c r="G190" s="20"/>
-    </row>
-    <row r="191" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K190" s="131"/>
+    </row>
+    <row r="191" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B191" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C191" s="52" t="s">
         <v>135</v>
@@ -9980,7 +10147,7 @@
         <v>2</v>
       </c>
       <c r="E191" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F191" s="79" t="s">
         <v>163</v>
@@ -9991,13 +10158,14 @@
       <c r="H191" s="3">
         <v>5076</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K191" s="131"/>
+    </row>
+    <row r="192" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B192" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C192" s="53" t="s">
         <v>135</v>
@@ -10006,7 +10174,7 @@
         <v>2</v>
       </c>
       <c r="E192" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F192" s="54" t="s">
         <v>163</v>
@@ -10017,13 +10185,14 @@
       <c r="H192" s="32">
         <v>59.9435833</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K192" s="131"/>
+    </row>
+    <row r="193" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B193" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C193" s="53" t="s">
         <v>135</v>
@@ -10032,7 +10201,7 @@
         <v>2</v>
       </c>
       <c r="E193" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F193" s="54" t="s">
         <v>163</v>
@@ -10043,19 +10212,21 @@
       <c r="H193" s="32">
         <v>-39.573716670000003</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K193" s="131"/>
+    </row>
+    <row r="194" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="18"/>
       <c r="B194" s="18"/>
       <c r="C194" s="52"/>
       <c r="G194" s="20"/>
-    </row>
-    <row r="195" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K194" s="131"/>
+    </row>
+    <row r="195" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B195" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C195" s="52" t="s">
         <v>135</v>
@@ -10064,7 +10235,7 @@
         <v>2</v>
       </c>
       <c r="E195" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F195" s="79" t="s">
         <v>164</v>
@@ -10075,13 +10246,14 @@
       <c r="H195" s="3">
         <v>5076</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K195" s="131"/>
+    </row>
+    <row r="196" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B196" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C196" s="53" t="s">
         <v>135</v>
@@ -10090,7 +10262,7 @@
         <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F196" s="54" t="s">
         <v>164</v>
@@ -10101,13 +10273,14 @@
       <c r="H196" s="32">
         <v>59.9435833</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K196" s="131"/>
+    </row>
+    <row r="197" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B197" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C197" s="53" t="s">
         <v>135</v>
@@ -10116,7 +10289,7 @@
         <v>2</v>
       </c>
       <c r="E197" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F197" s="54" t="s">
         <v>164</v>
@@ -10127,19 +10300,21 @@
       <c r="H197" s="32">
         <v>-39.573716670000003</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K197" s="131"/>
+    </row>
+    <row r="198" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="18"/>
       <c r="B198" s="18"/>
       <c r="C198" s="52"/>
       <c r="G198" s="20"/>
-    </row>
-    <row r="199" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K198" s="131"/>
+    </row>
+    <row r="199" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B199" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C199" s="52" t="s">
         <v>135</v>
@@ -10148,7 +10323,7 @@
         <v>2</v>
       </c>
       <c r="E199" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F199" s="79" t="s">
         <v>165</v>
@@ -10159,13 +10334,14 @@
       <c r="H199" s="3">
         <v>5076</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K199" s="131"/>
+    </row>
+    <row r="200" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B200" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C200" s="53" t="s">
         <v>135</v>
@@ -10174,7 +10350,7 @@
         <v>2</v>
       </c>
       <c r="E200" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F200" s="54" t="s">
         <v>165</v>
@@ -10185,13 +10361,14 @@
       <c r="H200" s="32">
         <v>59.9435833</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K200" s="131"/>
+    </row>
+    <row r="201" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B201" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C201" s="53" t="s">
         <v>135</v>
@@ -10200,7 +10377,7 @@
         <v>2</v>
       </c>
       <c r="E201" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F201" s="54" t="s">
         <v>165</v>
@@ -10211,17 +10388,19 @@
       <c r="H201" s="32">
         <v>-39.573716670000003</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K201" s="131"/>
+    </row>
+    <row r="202" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C202" s="52"/>
       <c r="G202" s="20"/>
-    </row>
-    <row r="203" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K202" s="131"/>
+    </row>
+    <row r="203" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B203" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C203" s="52" t="s">
         <v>135</v>
@@ -10230,7 +10409,7 @@
         <v>2</v>
       </c>
       <c r="E203" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F203" s="38" t="s">
         <v>166</v>
@@ -10241,13 +10420,14 @@
       <c r="H203" s="38">
         <v>17533</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K203" s="131"/>
+    </row>
+    <row r="204" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B204" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C204" s="53" t="s">
         <v>135</v>
@@ -10256,7 +10436,7 @@
         <v>2</v>
       </c>
       <c r="E204" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F204" s="54" t="s">
         <v>166</v>
@@ -10267,13 +10447,14 @@
       <c r="H204" s="38">
         <v>2229</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K204" s="131"/>
+    </row>
+    <row r="205" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B205" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C205" s="53" t="s">
         <v>135</v>
@@ -10282,7 +10463,7 @@
         <v>2</v>
       </c>
       <c r="E205" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F205" s="54" t="s">
         <v>166</v>
@@ -10293,13 +10474,14 @@
       <c r="H205" s="38">
         <v>101</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K205" s="131"/>
+    </row>
+    <row r="206" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B206" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C206" s="53" t="s">
         <v>135</v>
@@ -10308,7 +10490,7 @@
         <v>2</v>
       </c>
       <c r="E206" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F206" s="54" t="s">
         <v>166</v>
@@ -10319,13 +10501,14 @@
       <c r="H206" s="38">
         <v>38502</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K206" s="131"/>
+    </row>
+    <row r="207" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B207" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C207" s="53" t="s">
         <v>135</v>
@@ -10334,7 +10517,7 @@
         <v>2</v>
       </c>
       <c r="E207" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F207" s="54" t="s">
         <v>166</v>
@@ -10345,13 +10528,14 @@
       <c r="H207" s="107">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K207" s="131"/>
+    </row>
+    <row r="208" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B208" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C208" s="53" t="s">
         <v>135</v>
@@ -10360,7 +10544,7 @@
         <v>2</v>
       </c>
       <c r="E208" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F208" s="54" t="s">
         <v>166</v>
@@ -10371,13 +10555,14 @@
       <c r="H208" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K208" s="131"/>
+    </row>
+    <row r="209" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B209" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C209" s="53" t="s">
         <v>135</v>
@@ -10386,7 +10571,7 @@
         <v>2</v>
       </c>
       <c r="E209" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F209" s="54" t="s">
         <v>166</v>
@@ -10400,16 +10585,18 @@
       <c r="I209" s="42" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K209" s="131"/>
+    </row>
+    <row r="210" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C210" s="52"/>
-    </row>
-    <row r="211" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K210" s="131"/>
+    </row>
+    <row r="211" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B211" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C211" s="52" t="s">
         <v>135</v>
@@ -10418,7 +10605,7 @@
         <v>2</v>
       </c>
       <c r="E211" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F211" s="38" t="s">
         <v>167</v>
@@ -10429,13 +10616,14 @@
       <c r="H211" s="38">
         <v>17533</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K211" s="131"/>
+    </row>
+    <row r="212" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B212" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C212" s="53" t="s">
         <v>135</v>
@@ -10444,7 +10632,7 @@
         <v>2</v>
       </c>
       <c r="E212" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F212" s="54" t="s">
         <v>167</v>
@@ -10455,13 +10643,14 @@
       <c r="H212" s="38">
         <v>2229</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K212" s="131"/>
+    </row>
+    <row r="213" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B213" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C213" s="53" t="s">
         <v>135</v>
@@ -10470,7 +10659,7 @@
         <v>2</v>
       </c>
       <c r="E213" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F213" s="54" t="s">
         <v>167</v>
@@ -10481,13 +10670,14 @@
       <c r="H213" s="38">
         <v>101</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K213" s="131"/>
+    </row>
+    <row r="214" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B214" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C214" s="53" t="s">
         <v>135</v>
@@ -10496,7 +10686,7 @@
         <v>2</v>
       </c>
       <c r="E214" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F214" s="54" t="s">
         <v>167</v>
@@ -10507,13 +10697,14 @@
       <c r="H214" s="38">
         <v>38502</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K214" s="131"/>
+    </row>
+    <row r="215" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B215" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C215" s="53" t="s">
         <v>135</v>
@@ -10522,7 +10713,7 @@
         <v>2</v>
       </c>
       <c r="E215" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F215" s="54" t="s">
         <v>167</v>
@@ -10533,13 +10724,14 @@
       <c r="H215" s="107">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K215" s="131"/>
+    </row>
+    <row r="216" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B216" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C216" s="53" t="s">
         <v>135</v>
@@ -10548,7 +10740,7 @@
         <v>2</v>
       </c>
       <c r="E216" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F216" s="54" t="s">
         <v>167</v>
@@ -10559,13 +10751,14 @@
       <c r="H216" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K216" s="131"/>
+    </row>
+    <row r="217" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B217" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C217" s="53" t="s">
         <v>135</v>
@@ -10574,7 +10767,7 @@
         <v>2</v>
       </c>
       <c r="E217" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F217" s="54" t="s">
         <v>167</v>
@@ -10588,20 +10781,22 @@
       <c r="I217" s="42" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K217" s="131"/>
+    </row>
+    <row r="218" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="18"/>
       <c r="B218" s="18"/>
       <c r="C218" s="52"/>
       <c r="G218" s="21"/>
       <c r="H218" s="21"/>
-    </row>
-    <row r="219" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K218" s="131"/>
+    </row>
+    <row r="219" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A219" s="17" t="s">
-        <v>182</v>
+        <v>304</v>
       </c>
       <c r="B219" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C219" s="52" t="s">
         <v>135</v>
@@ -10610,7 +10805,7 @@
         <v>2</v>
       </c>
       <c r="E219" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F219" s="48" t="s">
         <v>168</v>
@@ -10624,13 +10819,14 @@
       <c r="I219" s="43" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A220" s="18" t="s">
-        <v>182</v>
+      <c r="K219" s="131"/>
+    </row>
+    <row r="220" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A220" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B220" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C220" s="53" t="s">
         <v>135</v>
@@ -10639,7 +10835,7 @@
         <v>2</v>
       </c>
       <c r="E220" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F220" s="54" t="s">
         <v>168</v>
@@ -10651,13 +10847,14 @@
         <v>-39.573716670000003</v>
       </c>
       <c r="I220" s="43"/>
-    </row>
-    <row r="221" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A221" s="18" t="s">
-        <v>182</v>
+      <c r="K220" s="131"/>
+    </row>
+    <row r="221" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A221" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B221" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C221" s="53" t="s">
         <v>135</v>
@@ -10666,7 +10863,7 @@
         <v>2</v>
       </c>
       <c r="E221" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F221" s="54" t="s">
         <v>168</v>
@@ -10677,13 +10874,14 @@
       <c r="H221" s="106">
         <v>1.272385E-3</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A222" s="18" t="s">
-        <v>182</v>
+      <c r="K221" s="131"/>
+    </row>
+    <row r="222" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A222" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B222" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C222" s="53" t="s">
         <v>135</v>
@@ -10692,7 +10890,7 @@
         <v>2</v>
       </c>
       <c r="E222" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F222" s="54" t="s">
         <v>168</v>
@@ -10703,13 +10901,14 @@
       <c r="H222" s="106">
         <v>2.6939759999999998E-4</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A223" s="18" t="s">
-        <v>182</v>
+      <c r="K222" s="131"/>
+    </row>
+    <row r="223" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A223" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B223" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C223" s="53" t="s">
         <v>135</v>
@@ -10718,7 +10917,7 @@
         <v>2</v>
       </c>
       <c r="E223" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F223" s="54" t="s">
         <v>168</v>
@@ -10729,13 +10928,14 @@
       <c r="H223" s="106">
         <v>-6.6644549999999997E-7</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A224" s="18" t="s">
-        <v>182</v>
+      <c r="K223" s="131"/>
+    </row>
+    <row r="224" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A224" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B224" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C224" s="53" t="s">
         <v>135</v>
@@ -10744,7 +10944,7 @@
         <v>2</v>
       </c>
       <c r="E224" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F224" s="54" t="s">
         <v>168</v>
@@ -10755,13 +10955,14 @@
       <c r="H224" s="106">
         <v>1.610758E-7</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A225" s="18" t="s">
-        <v>182</v>
+      <c r="K224" s="131"/>
+    </row>
+    <row r="225" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A225" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B225" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C225" s="53" t="s">
         <v>135</v>
@@ -10770,7 +10971,7 @@
         <v>2</v>
       </c>
       <c r="E225" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F225" s="54" t="s">
         <v>168</v>
@@ -10781,13 +10982,14 @@
       <c r="H225" s="106">
         <v>-106.18519999999999</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A226" s="18" t="s">
-        <v>182</v>
+      <c r="K225" s="131"/>
+    </row>
+    <row r="226" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A226" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B226" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C226" s="53" t="s">
         <v>135</v>
@@ -10796,7 +10998,7 @@
         <v>2</v>
       </c>
       <c r="E226" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F226" s="54" t="s">
         <v>168</v>
@@ -10807,13 +11009,14 @@
       <c r="H226" s="106">
         <v>107.2362</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A227" s="18" t="s">
-        <v>182</v>
+      <c r="K226" s="131"/>
+    </row>
+    <row r="227" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A227" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B227" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C227" s="53" t="s">
         <v>135</v>
@@ -10822,7 +11025,7 @@
         <v>2</v>
       </c>
       <c r="E227" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F227" s="54" t="s">
         <v>168</v>
@@ -10833,13 +11036,14 @@
       <c r="H227" s="106">
         <v>-17.988040000000002</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A228" s="18" t="s">
-        <v>182</v>
+      <c r="K227" s="131"/>
+    </row>
+    <row r="228" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A228" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B228" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C228" s="53" t="s">
         <v>135</v>
@@ -10848,7 +11052,7 @@
         <v>2</v>
       </c>
       <c r="E228" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F228" s="54" t="s">
         <v>168</v>
@@ -10859,13 +11063,14 @@
       <c r="H228" s="106">
         <v>524741.5</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A229" s="18" t="s">
-        <v>182</v>
+      <c r="K228" s="131"/>
+    </row>
+    <row r="229" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A229" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B229" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C229" s="53" t="s">
         <v>135</v>
@@ -10874,7 +11079,7 @@
         <v>2</v>
       </c>
       <c r="E229" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F229" s="54" t="s">
         <v>168</v>
@@ -10885,13 +11090,14 @@
       <c r="H229" s="106">
         <v>-24.065079999999998</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A230" s="18" t="s">
-        <v>182</v>
+      <c r="K229" s="131"/>
+    </row>
+    <row r="230" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A230" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B230" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C230" s="53" t="s">
         <v>135</v>
@@ -10900,7 +11106,7 @@
         <v>2</v>
       </c>
       <c r="E230" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F230" s="54" t="s">
         <v>168</v>
@@ -10911,13 +11117,14 @@
       <c r="H230" s="106">
         <v>0.38198009999999999</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A231" s="18" t="s">
-        <v>182</v>
+      <c r="K230" s="131"/>
+    </row>
+    <row r="231" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A231" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B231" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C231" s="53" t="s">
         <v>135</v>
@@ -10926,7 +11133,7 @@
         <v>2</v>
       </c>
       <c r="E231" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F231" s="54" t="s">
         <v>168</v>
@@ -10937,13 +11144,14 @@
       <c r="H231" s="106">
         <v>25.12837</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A232" s="18" t="s">
-        <v>182</v>
+      <c r="K231" s="131"/>
+    </row>
+    <row r="232" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A232" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B232" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C232" s="53" t="s">
         <v>135</v>
@@ -10952,7 +11160,7 @@
         <v>2</v>
       </c>
       <c r="E232" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F232" s="54" t="s">
         <v>168</v>
@@ -10963,13 +11171,14 @@
       <c r="H232" s="106">
         <v>2.7500000000000002E-4</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A233" s="18" t="s">
-        <v>182</v>
+      <c r="K232" s="131"/>
+    </row>
+    <row r="233" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A233" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B233" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C233" s="53" t="s">
         <v>135</v>
@@ -10978,7 +11187,7 @@
         <v>2</v>
       </c>
       <c r="E233" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F233" s="54" t="s">
         <v>168</v>
@@ -10989,13 +11198,14 @@
       <c r="H233" s="106">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A234" s="18" t="s">
-        <v>182</v>
+      <c r="K233" s="131"/>
+    </row>
+    <row r="234" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A234" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B234" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C234" s="53" t="s">
         <v>135</v>
@@ -11004,7 +11214,7 @@
         <v>2</v>
       </c>
       <c r="E234" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F234" s="54" t="s">
         <v>168</v>
@@ -11015,13 +11225,14 @@
       <c r="H234" s="106">
         <v>-0.94230559999999997</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A235" s="18" t="s">
-        <v>182</v>
+      <c r="K234" s="131"/>
+    </row>
+    <row r="235" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A235" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B235" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C235" s="53" t="s">
         <v>135</v>
@@ -11030,7 +11241,7 @@
         <v>2</v>
       </c>
       <c r="E235" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F235" s="54" t="s">
         <v>168</v>
@@ -11041,13 +11252,14 @@
       <c r="H235" s="106">
         <v>2.63949E-3</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A236" s="18" t="s">
-        <v>182</v>
+      <c r="K235" s="131"/>
+    </row>
+    <row r="236" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A236" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B236" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C236" s="53" t="s">
         <v>135</v>
@@ -11056,7 +11268,7 @@
         <v>2</v>
       </c>
       <c r="E236" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F236" s="54" t="s">
         <v>168</v>
@@ -11067,13 +11279,14 @@
       <c r="H236" s="106">
         <v>2.0365509999999999E-11</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A237" s="18" t="s">
-        <v>182</v>
+      <c r="K236" s="131"/>
+    </row>
+    <row r="237" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A237" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B237" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C237" s="53" t="s">
         <v>135</v>
@@ -11082,7 +11295,7 @@
         <v>2</v>
       </c>
       <c r="E237" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F237" s="54" t="s">
         <v>168</v>
@@ -11093,13 +11306,14 @@
       <c r="H237" s="106">
         <v>-0.97904060000000004</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A238" s="18" t="s">
-        <v>182</v>
+      <c r="K237" s="131"/>
+    </row>
+    <row r="238" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A238" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B238" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C238" s="53" t="s">
         <v>135</v>
@@ -11108,7 +11322,7 @@
         <v>2</v>
       </c>
       <c r="E238" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F238" s="54" t="s">
         <v>168</v>
@@ -11119,13 +11333,14 @@
       <c r="H238" s="106">
         <v>0.14995810000000001</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A239" s="18" t="s">
-        <v>182</v>
+      <c r="K238" s="131"/>
+    </row>
+    <row r="239" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A239" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B239" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C239" s="53" t="s">
         <v>135</v>
@@ -11134,7 +11349,7 @@
         <v>2</v>
       </c>
       <c r="E239" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F239" s="54" t="s">
         <v>168</v>
@@ -11145,13 +11360,14 @@
       <c r="H239" s="106">
         <v>-1.870187E-4</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A240" s="18" t="s">
-        <v>182</v>
+      <c r="K239" s="131"/>
+    </row>
+    <row r="240" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A240" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B240" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C240" s="53" t="s">
         <v>135</v>
@@ -11160,7 +11376,7 @@
         <v>2</v>
       </c>
       <c r="E240" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F240" s="54" t="s">
         <v>168</v>
@@ -11171,13 +11387,14 @@
       <c r="H240" s="106">
         <v>3.478694E-5</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A241" s="18" t="s">
-        <v>182</v>
+      <c r="K240" s="131"/>
+    </row>
+    <row r="241" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A241" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C241" s="53" t="s">
         <v>135</v>
@@ -11186,7 +11403,7 @@
         <v>2</v>
       </c>
       <c r="E241" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F241" s="54" t="s">
         <v>168</v>
@@ -11197,13 +11414,14 @@
       <c r="H241" s="106">
         <v>-9.5700000000000003E-8</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A242" s="18" t="s">
-        <v>182</v>
+      <c r="K241" s="131"/>
+    </row>
+    <row r="242" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A242" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B242" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C242" s="53" t="s">
         <v>135</v>
@@ -11212,7 +11430,7 @@
         <v>2</v>
       </c>
       <c r="E242" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F242" s="54" t="s">
         <v>168</v>
@@ -11223,18 +11441,20 @@
       <c r="H242" s="106">
         <v>3.2499999999999998E-6</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K242" s="131"/>
+    </row>
+    <row r="243" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C243" s="52"/>
       <c r="F243" s="3"/>
       <c r="I243" s="43"/>
-    </row>
-    <row r="244" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K243" s="131"/>
+    </row>
+    <row r="244" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B244" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C244" s="52" t="s">
         <v>135</v>
@@ -11243,7 +11463,7 @@
         <v>2</v>
       </c>
       <c r="E244" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F244" s="48" t="s">
         <v>169</v>
@@ -11257,13 +11477,14 @@
       <c r="I244" s="43" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K244" s="131"/>
+    </row>
+    <row r="245" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B245" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C245" s="53" t="s">
         <v>135</v>
@@ -11272,7 +11493,7 @@
         <v>2</v>
       </c>
       <c r="E245" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F245" s="54" t="s">
         <v>169</v>
@@ -11284,13 +11505,14 @@
         <v>-39.573716670000003</v>
       </c>
       <c r="I245" s="43"/>
-    </row>
-    <row r="246" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K245" s="131"/>
+    </row>
+    <row r="246" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B246" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C246" s="53" t="s">
         <v>135</v>
@@ -11299,7 +11521,7 @@
         <v>2</v>
       </c>
       <c r="E246" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F246" s="54" t="s">
         <v>169</v>
@@ -11310,13 +11532,14 @@
       <c r="H246" s="106">
         <v>1.26964E-3</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K246" s="131"/>
+    </row>
+    <row r="247" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B247" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C247" s="53" t="s">
         <v>135</v>
@@ -11325,7 +11548,7 @@
         <v>2</v>
       </c>
       <c r="E247" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F247" s="54" t="s">
         <v>169</v>
@@ -11336,13 +11559,14 @@
       <c r="H247" s="106">
         <v>2.7289829999999998E-4</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K247" s="131"/>
+    </row>
+    <row r="248" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B248" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C248" s="53" t="s">
         <v>135</v>
@@ -11351,7 +11575,7 @@
         <v>2</v>
       </c>
       <c r="E248" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F248" s="54" t="s">
         <v>169</v>
@@ -11362,13 +11586,14 @@
       <c r="H248" s="106">
         <v>-1.2887780000000001E-6</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K248" s="131"/>
+    </row>
+    <row r="249" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B249" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C249" s="53" t="s">
         <v>135</v>
@@ -11377,7 +11602,7 @@
         <v>2</v>
       </c>
       <c r="E249" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F249" s="54" t="s">
         <v>169</v>
@@ -11388,13 +11613,14 @@
       <c r="H249" s="106">
         <v>1.8637150000000001E-7</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K249" s="131"/>
+    </row>
+    <row r="250" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B250" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C250" s="53" t="s">
         <v>135</v>
@@ -11403,7 +11629,7 @@
         <v>2</v>
       </c>
       <c r="E250" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F250" s="54" t="s">
         <v>169</v>
@@ -11414,13 +11640,14 @@
       <c r="H250" s="106">
         <v>-106.18559999999999</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K250" s="131"/>
+    </row>
+    <row r="251" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B251" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C251" s="53" t="s">
         <v>135</v>
@@ -11429,7 +11656,7 @@
         <v>2</v>
       </c>
       <c r="E251" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F251" s="54" t="s">
         <v>169</v>
@@ -11440,13 +11667,14 @@
       <c r="H251" s="106">
         <v>107.2367</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K251" s="131"/>
+    </row>
+    <row r="252" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B252" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C252" s="53" t="s">
         <v>135</v>
@@ -11455,7 +11683,7 @@
         <v>2</v>
       </c>
       <c r="E252" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F252" s="54" t="s">
         <v>169</v>
@@ -11466,13 +11694,14 @@
       <c r="H252" s="106">
         <v>-17.988189999999999</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K252" s="131"/>
+    </row>
+    <row r="253" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B253" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C253" s="53" t="s">
         <v>135</v>
@@ -11481,7 +11710,7 @@
         <v>2</v>
       </c>
       <c r="E253" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F253" s="54" t="s">
         <v>169</v>
@@ -11492,13 +11721,14 @@
       <c r="H253" s="106">
         <v>524818.30000000005</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K253" s="131"/>
+    </row>
+    <row r="254" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B254" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C254" s="53" t="s">
         <v>135</v>
@@ -11507,7 +11737,7 @@
         <v>2</v>
       </c>
       <c r="E254" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F254" s="54" t="s">
         <v>169</v>
@@ -11518,13 +11748,14 @@
       <c r="H254" s="106">
         <v>-87.59254</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K254" s="131"/>
+    </row>
+    <row r="255" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B255" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C255" s="53" t="s">
         <v>135</v>
@@ -11533,7 +11764,7 @@
         <v>2</v>
       </c>
       <c r="E255" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F255" s="54" t="s">
         <v>169</v>
@@ -11544,13 +11775,14 @@
       <c r="H255" s="106">
         <v>1.4377599999999999</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K255" s="131"/>
+    </row>
+    <row r="256" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B256" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C256" s="53" t="s">
         <v>135</v>
@@ -11559,7 +11791,7 @@
         <v>2</v>
       </c>
       <c r="E256" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F256" s="54" t="s">
         <v>169</v>
@@ -11570,13 +11802,14 @@
       <c r="H256" s="106">
         <v>25.076750000000001</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K256" s="131"/>
+    </row>
+    <row r="257" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B257" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C257" s="53" t="s">
         <v>135</v>
@@ -11585,7 +11818,7 @@
         <v>2</v>
       </c>
       <c r="E257" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F257" s="54" t="s">
         <v>169</v>
@@ -11596,13 +11829,14 @@
       <c r="H257" s="106">
         <v>-8.4999999999999995E-4</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K257" s="131"/>
+    </row>
+    <row r="258" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B258" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C258" s="53" t="s">
         <v>135</v>
@@ -11611,7 +11845,7 @@
         <v>2</v>
       </c>
       <c r="E258" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F258" s="54" t="s">
         <v>169</v>
@@ -11622,13 +11856,14 @@
       <c r="H258" s="106">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K258" s="131"/>
+    </row>
+    <row r="259" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B259" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C259" s="53" t="s">
         <v>135</v>
@@ -11637,7 +11872,7 @@
         <v>2</v>
       </c>
       <c r="E259" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F259" s="54" t="s">
         <v>169</v>
@@ -11648,13 +11883,14 @@
       <c r="H259" s="106">
         <v>-3.3342100000000001</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K259" s="131"/>
+    </row>
+    <row r="260" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B260" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C260" s="53" t="s">
         <v>135</v>
@@ -11663,7 +11899,7 @@
         <v>2</v>
       </c>
       <c r="E260" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F260" s="54" t="s">
         <v>169</v>
@@ -11674,13 +11910,14 @@
       <c r="H260" s="106">
         <v>2.6420599999999999E-3</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K260" s="131"/>
+    </row>
+    <row r="261" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B261" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C261" s="53" t="s">
         <v>135</v>
@@ -11689,7 +11926,7 @@
         <v>2</v>
       </c>
       <c r="E261" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F261" s="54" t="s">
         <v>169</v>
@@ -11700,13 +11937,14 @@
       <c r="H261" s="106">
         <v>2.0756889999999999E-11</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K261" s="131"/>
+    </row>
+    <row r="262" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B262" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C262" s="53" t="s">
         <v>135</v>
@@ -11715,7 +11953,7 @@
         <v>2</v>
       </c>
       <c r="E262" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F262" s="54" t="s">
         <v>169</v>
@@ -11726,13 +11964,14 @@
       <c r="H262" s="106">
         <v>-0.98462629999999995</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K262" s="131"/>
+    </row>
+    <row r="263" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B263" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C263" s="53" t="s">
         <v>135</v>
@@ -11741,7 +11980,7 @@
         <v>2</v>
       </c>
       <c r="E263" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F263" s="54" t="s">
         <v>169</v>
@@ -11752,13 +11991,14 @@
       <c r="H263" s="106">
         <v>0.15553159999999999</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K263" s="131"/>
+    </row>
+    <row r="264" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B264" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C264" s="53" t="s">
         <v>135</v>
@@ -11767,7 +12007,7 @@
         <v>2</v>
       </c>
       <c r="E264" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F264" s="54" t="s">
         <v>169</v>
@@ -11778,13 +12018,14 @@
       <c r="H264" s="106">
         <v>-1.9385299999999999E-4</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K264" s="131"/>
+    </row>
+    <row r="265" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B265" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C265" s="53" t="s">
         <v>135</v>
@@ -11793,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="E265" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F265" s="54" t="s">
         <v>169</v>
@@ -11804,13 +12045,14 @@
       <c r="H265" s="106">
         <v>3.7671389999999999E-5</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K265" s="131"/>
+    </row>
+    <row r="266" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B266" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C266" s="53" t="s">
         <v>135</v>
@@ -11819,7 +12061,7 @@
         <v>2</v>
       </c>
       <c r="E266" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F266" s="54" t="s">
         <v>169</v>
@@ -11830,13 +12072,14 @@
       <c r="H266" s="106">
         <v>-9.5700000000000003E-8</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K266" s="131"/>
+    </row>
+    <row r="267" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B267" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C267" s="53" t="s">
         <v>135</v>
@@ -11845,7 +12088,7 @@
         <v>2</v>
       </c>
       <c r="E267" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F267" s="54" t="s">
         <v>169</v>
@@ -11856,18 +12099,20 @@
       <c r="H267" s="106">
         <v>3.2499999999999998E-6</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K267" s="131"/>
+    </row>
+    <row r="268" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C268" s="52"/>
       <c r="F268" s="3"/>
       <c r="I268" s="43"/>
-    </row>
-    <row r="269" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K268" s="131"/>
+    </row>
+    <row r="269" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A269" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B269" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C269" s="52" t="s">
         <v>135</v>
@@ -11876,7 +12121,7 @@
         <v>2</v>
       </c>
       <c r="E269" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F269" s="80" t="s">
         <v>170</v>
@@ -11890,13 +12135,14 @@
       <c r="I269" s="43" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K269" s="131"/>
+    </row>
+    <row r="270" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B270" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C270" s="53" t="s">
         <v>135</v>
@@ -11905,7 +12151,7 @@
         <v>2</v>
       </c>
       <c r="E270" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F270" s="54" t="s">
         <v>170</v>
@@ -11917,13 +12163,14 @@
         <v>-39.573716670000003</v>
       </c>
       <c r="I270" s="43"/>
-    </row>
-    <row r="271" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K270" s="131"/>
+    </row>
+    <row r="271" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B271" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C271" s="53" t="s">
         <v>135</v>
@@ -11932,7 +12179,7 @@
         <v>2</v>
       </c>
       <c r="E271" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F271" s="54" t="s">
         <v>170</v>
@@ -11943,13 +12190,14 @@
       <c r="H271" s="106">
         <v>1.2500569999999999E-3</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K271" s="131"/>
+    </row>
+    <row r="272" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B272" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C272" s="53" t="s">
         <v>135</v>
@@ -11958,7 +12206,7 @@
         <v>2</v>
       </c>
       <c r="E272" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F272" s="54" t="s">
         <v>170</v>
@@ -11969,13 +12217,14 @@
       <c r="H272" s="106">
         <v>2.741547E-4</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K272" s="131"/>
+    </row>
+    <row r="273" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B273" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C273" s="53" t="s">
         <v>135</v>
@@ -11984,7 +12233,7 @@
         <v>2</v>
       </c>
       <c r="E273" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F273" s="54" t="s">
         <v>170</v>
@@ -11995,13 +12244,14 @@
       <c r="H273" s="106">
         <v>-1.042822E-6</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K273" s="131"/>
+    </row>
+    <row r="274" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B274" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C274" s="53" t="s">
         <v>135</v>
@@ -12010,7 +12260,7 @@
         <v>2</v>
       </c>
       <c r="E274" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F274" s="54" t="s">
         <v>170</v>
@@ -12021,13 +12271,14 @@
       <c r="H274" s="106">
         <v>1.8384059999999999E-7</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K274" s="131"/>
+    </row>
+    <row r="275" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B275" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C275" s="53" t="s">
         <v>135</v>
@@ -12036,7 +12287,7 @@
         <v>2</v>
       </c>
       <c r="E275" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F275" s="54" t="s">
         <v>170</v>
@@ -12047,13 +12298,14 @@
       <c r="H275" s="106">
         <v>-117.0891</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K275" s="131"/>
+    </row>
+    <row r="276" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B276" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C276" s="53" t="s">
         <v>135</v>
@@ -12062,7 +12314,7 @@
         <v>2</v>
       </c>
       <c r="E276" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F276" s="54" t="s">
         <v>170</v>
@@ -12073,13 +12325,14 @@
       <c r="H276" s="106">
         <v>110.8343</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K276" s="131"/>
+    </row>
+    <row r="277" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B277" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C277" s="53" t="s">
         <v>135</v>
@@ -12088,7 +12341,7 @@
         <v>2</v>
       </c>
       <c r="E277" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F277" s="54" t="s">
         <v>170</v>
@@ -12099,13 +12352,14 @@
       <c r="H277" s="106">
         <v>-17.988189999999999</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K277" s="131"/>
+    </row>
+    <row r="278" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B278" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C278" s="53" t="s">
         <v>135</v>
@@ -12114,7 +12368,7 @@
         <v>2</v>
       </c>
       <c r="E278" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F278" s="54" t="s">
         <v>170</v>
@@ -12125,13 +12379,14 @@
       <c r="H278" s="106">
         <v>524006.40000000002</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K278" s="131"/>
+    </row>
+    <row r="279" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B279" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C279" s="53" t="s">
         <v>135</v>
@@ -12140,7 +12395,7 @@
         <v>2</v>
       </c>
       <c r="E279" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F279" s="54" t="s">
         <v>170</v>
@@ -12151,13 +12406,14 @@
       <c r="H279" s="106">
         <v>-17.020579999999999</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K279" s="131"/>
+    </row>
+    <row r="280" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B280" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C280" s="53" t="s">
         <v>135</v>
@@ -12166,7 +12422,7 @@
         <v>2</v>
       </c>
       <c r="E280" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F280" s="54" t="s">
         <v>170</v>
@@ -12177,13 +12433,14 @@
       <c r="H280" s="106">
         <v>0.25232939999999998</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K280" s="131"/>
+    </row>
+    <row r="281" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B281" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C281" s="53" t="s">
         <v>135</v>
@@ -12192,7 +12449,7 @@
         <v>2</v>
       </c>
       <c r="E281" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F281" s="54" t="s">
         <v>170</v>
@@ -12203,13 +12460,14 @@
       <c r="H281" s="106">
         <v>24.986129999999999</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K281" s="131"/>
+    </row>
+    <row r="282" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B282" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C282" s="53" t="s">
         <v>135</v>
@@ -12218,7 +12476,7 @@
         <v>2</v>
       </c>
       <c r="E282" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F282" s="54" t="s">
         <v>170</v>
@@ -12229,13 +12487,14 @@
       <c r="H282" s="106">
         <v>-3.7500000000000001E-4</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K282" s="131"/>
+    </row>
+    <row r="283" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B283" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C283" s="53" t="s">
         <v>135</v>
@@ -12244,7 +12503,7 @@
         <v>2</v>
       </c>
       <c r="E283" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F283" s="54" t="s">
         <v>170</v>
@@ -12255,13 +12514,14 @@
       <c r="H283" s="106">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K283" s="131"/>
+    </row>
+    <row r="284" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B284" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C284" s="53" t="s">
         <v>135</v>
@@ -12270,7 +12530,7 @@
         <v>2</v>
       </c>
       <c r="E284" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F284" s="54" t="s">
         <v>170</v>
@@ -12281,13 +12541,14 @@
       <c r="H284" s="106">
         <v>-0.68240800000000001</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K284" s="131"/>
+    </row>
+    <row r="285" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B285" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C285" s="53" t="s">
         <v>135</v>
@@ -12296,7 +12557,7 @@
         <v>2</v>
       </c>
       <c r="E285" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F285" s="54" t="s">
         <v>170</v>
@@ -12307,13 +12568,14 @@
       <c r="H285" s="106">
         <v>2.6478389999999999E-3</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K285" s="131"/>
+    </row>
+    <row r="286" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B286" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C286" s="53" t="s">
         <v>135</v>
@@ -12322,7 +12584,7 @@
         <v>2</v>
       </c>
       <c r="E286" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F286" s="54" t="s">
         <v>170</v>
@@ -12333,13 +12595,14 @@
       <c r="H286" s="106">
         <v>1.944753E-11</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K286" s="131"/>
+    </row>
+    <row r="287" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B287" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C287" s="53" t="s">
         <v>135</v>
@@ -12348,7 +12611,7 @@
         <v>2</v>
       </c>
       <c r="E287" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F287" s="54" t="s">
         <v>170</v>
@@ -12359,13 +12622,14 @@
       <c r="H287" s="106">
         <v>-0.9970329</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K287" s="131"/>
+    </row>
+    <row r="288" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B288" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C288" s="53" t="s">
         <v>135</v>
@@ -12374,7 +12638,7 @@
         <v>2</v>
       </c>
       <c r="E288" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F288" s="54" t="s">
         <v>170</v>
@@ -12385,13 +12649,14 @@
       <c r="H288" s="106">
         <v>0.15253030000000001</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K288" s="131"/>
+    </row>
+    <row r="289" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B289" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C289" s="53" t="s">
         <v>135</v>
@@ -12400,7 +12665,7 @@
         <v>2</v>
       </c>
       <c r="E289" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F289" s="54" t="s">
         <v>170</v>
@@ -12411,13 +12676,14 @@
       <c r="H289" s="106">
         <v>-1.6533699999999999E-4</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K289" s="131"/>
+    </row>
+    <row r="290" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B290" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C290" s="53" t="s">
         <v>135</v>
@@ -12426,7 +12692,7 @@
         <v>2</v>
       </c>
       <c r="E290" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F290" s="54" t="s">
         <v>170</v>
@@ -12437,13 +12703,14 @@
       <c r="H290" s="106">
         <v>3.4513700000000001E-5</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K290" s="131"/>
+    </row>
+    <row r="291" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B291" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C291" s="53" t="s">
         <v>135</v>
@@ -12452,7 +12719,7 @@
         <v>2</v>
       </c>
       <c r="E291" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F291" s="54" t="s">
         <v>170</v>
@@ -12463,13 +12730,14 @@
       <c r="H291" s="106">
         <v>-9.5700000000000003E-8</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K291" s="131"/>
+    </row>
+    <row r="292" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B292" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C292" s="53" t="s">
         <v>135</v>
@@ -12478,7 +12746,7 @@
         <v>2</v>
       </c>
       <c r="E292" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F292" s="54" t="s">
         <v>170</v>
@@ -12489,18 +12757,20 @@
       <c r="H292" s="106">
         <v>3.2499999999999998E-6</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K292" s="131"/>
+    </row>
+    <row r="293" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C293" s="52"/>
       <c r="F293" s="3"/>
       <c r="I293" s="43"/>
-    </row>
-    <row r="294" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="K293" s="131"/>
+    </row>
+    <row r="294" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A294" s="17" t="s">
         <v>181</v>
       </c>
       <c r="B294" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C294" s="52" t="s">
         <v>135</v>
@@ -12509,7 +12779,7 @@
         <v>2</v>
       </c>
       <c r="E294" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F294" s="48">
         <v>3286</v>
@@ -12521,15 +12791,16 @@
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="I294" s="42" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="K294" s="131"/>
+    </row>
+    <row r="295" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A295" s="18" t="s">
         <v>181</v>
       </c>
       <c r="B295" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C295" s="53" t="s">
         <v>135</v>
@@ -12538,7 +12809,7 @@
         <v>2</v>
       </c>
       <c r="E295" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F295" s="54">
         <v>3286</v>
@@ -12550,15 +12821,16 @@
         <v>1.3309999999999999E-3</v>
       </c>
       <c r="I295" s="42" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="K295" s="131"/>
+    </row>
+    <row r="296" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A296" s="18" t="s">
         <v>181</v>
       </c>
       <c r="B296" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C296" s="53" t="s">
         <v>135</v>
@@ -12567,7 +12839,7 @@
         <v>2</v>
       </c>
       <c r="E296" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F296" s="54">
         <v>3286</v>
@@ -12579,15 +12851,16 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="I296" s="42" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="K296" s="131"/>
+    </row>
+    <row r="297" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A297" s="18" t="s">
         <v>181</v>
       </c>
       <c r="B297" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C297" s="53" t="s">
         <v>135</v>
@@ -12596,7 +12869,7 @@
         <v>2</v>
       </c>
       <c r="E297" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F297" s="54">
         <v>3286</v>
@@ -12608,15 +12881,16 @@
         <v>6</v>
       </c>
       <c r="I297" s="42" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="K297" s="131"/>
+    </row>
+    <row r="298" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="18" t="s">
         <v>181</v>
       </c>
       <c r="B298" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C298" s="53" t="s">
         <v>135</v>
@@ -12625,7 +12899,7 @@
         <v>2</v>
       </c>
       <c r="E298" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F298" s="54">
         <v>3286</v>
@@ -12639,13 +12913,14 @@
       <c r="I298" s="75" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K298" s="131"/>
+    </row>
+    <row r="299" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="18" t="s">
         <v>181</v>
       </c>
       <c r="B299" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C299" s="53" t="s">
         <v>135</v>
@@ -12654,7 +12929,7 @@
         <v>2</v>
       </c>
       <c r="E299" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F299" s="54">
         <v>3286</v>
@@ -12668,13 +12943,14 @@
       <c r="I299" s="75" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K299" s="131"/>
+    </row>
+    <row r="300" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="18" t="s">
         <v>181</v>
       </c>
       <c r="B300" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C300" s="53" t="s">
         <v>135</v>
@@ -12683,7 +12959,7 @@
         <v>2</v>
       </c>
       <c r="E300" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F300" s="54">
         <v>3286</v>
@@ -12697,13 +12973,14 @@
       <c r="I300" s="75" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K300" s="131"/>
+    </row>
+    <row r="301" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="18" t="s">
         <v>181</v>
       </c>
       <c r="B301" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C301" s="53" t="s">
         <v>135</v>
@@ -12712,7 +12989,7 @@
         <v>2</v>
       </c>
       <c r="E301" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F301" s="54">
         <v>3286</v>
@@ -12726,17 +13003,19 @@
       <c r="I301" s="75" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K301" s="131"/>
+    </row>
+    <row r="302" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C302" s="52"/>
       <c r="F302" s="23"/>
-    </row>
-    <row r="303" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="K302" s="131"/>
+    </row>
+    <row r="303" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A303" s="17" t="s">
         <v>180</v>
       </c>
       <c r="B303" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C303" s="52" t="s">
         <v>135</v>
@@ -12745,7 +13024,7 @@
         <v>2</v>
       </c>
       <c r="E303" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F303" s="48">
         <v>3292</v>
@@ -12757,15 +13036,16 @@
         <v>4.1200000000000001E-2</v>
       </c>
       <c r="I303" s="42" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="K303" s="131"/>
+    </row>
+    <row r="304" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A304" s="18" t="s">
         <v>180</v>
       </c>
       <c r="B304" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C304" s="53" t="s">
         <v>135</v>
@@ -12774,7 +13054,7 @@
         <v>2</v>
       </c>
       <c r="E304" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F304" s="54">
         <v>3292</v>
@@ -12786,15 +13066,16 @@
         <v>1.358E-3</v>
       </c>
       <c r="I304" s="42" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="K304" s="131"/>
+    </row>
+    <row r="305" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A305" s="18" t="s">
         <v>180</v>
       </c>
       <c r="B305" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C305" s="53" t="s">
         <v>135</v>
@@ -12803,7 +13084,7 @@
         <v>2</v>
       </c>
       <c r="E305" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F305" s="54">
         <v>3292</v>
@@ -12815,15 +13096,16 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="I305" s="42" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="K305" s="131"/>
+    </row>
+    <row r="306" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A306" s="18" t="s">
         <v>180</v>
       </c>
       <c r="B306" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C306" s="53" t="s">
         <v>135</v>
@@ -12832,7 +13114,7 @@
         <v>2</v>
       </c>
       <c r="E306" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F306" s="54">
         <v>3292</v>
@@ -12844,15 +13126,16 @@
         <v>6</v>
       </c>
       <c r="I306" s="42" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="K306" s="131"/>
+    </row>
+    <row r="307" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="18" t="s">
         <v>180</v>
       </c>
       <c r="B307" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C307" s="53" t="s">
         <v>135</v>
@@ -12861,7 +13144,7 @@
         <v>2</v>
       </c>
       <c r="E307" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F307" s="54">
         <v>3292</v>
@@ -12875,13 +13158,14 @@
       <c r="I307" s="75" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K307" s="131"/>
+    </row>
+    <row r="308" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="18" t="s">
         <v>180</v>
       </c>
       <c r="B308" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C308" s="53" t="s">
         <v>135</v>
@@ -12890,7 +13174,7 @@
         <v>2</v>
       </c>
       <c r="E308" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F308" s="54">
         <v>3292</v>
@@ -12904,13 +13188,14 @@
       <c r="I308" s="75" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K308" s="131"/>
+    </row>
+    <row r="309" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="18" t="s">
         <v>180</v>
       </c>
       <c r="B309" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C309" s="53" t="s">
         <v>135</v>
@@ -12919,7 +13204,7 @@
         <v>2</v>
       </c>
       <c r="E309" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F309" s="54">
         <v>3292</v>
@@ -12933,13 +13218,14 @@
       <c r="I309" s="75" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K309" s="131"/>
+    </row>
+    <row r="310" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="18" t="s">
         <v>180</v>
       </c>
       <c r="B310" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C310" s="53" t="s">
         <v>135</v>
@@ -12948,7 +13234,7 @@
         <v>2</v>
       </c>
       <c r="E310" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F310" s="54">
         <v>3292</v>
@@ -12962,17 +13248,19 @@
       <c r="I310" s="75" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K310" s="131"/>
+    </row>
+    <row r="311" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C311" s="52"/>
       <c r="F311" s="23"/>
-    </row>
-    <row r="312" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="K311" s="131"/>
+    </row>
+    <row r="312" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A312" s="17" t="s">
         <v>179</v>
       </c>
       <c r="B312" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C312" s="52" t="s">
         <v>135</v>
@@ -12981,7 +13269,7 @@
         <v>2</v>
       </c>
       <c r="E312" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F312" s="48">
         <v>3304</v>
@@ -12993,15 +13281,16 @@
         <v>8.3500000000000005E-2</v>
       </c>
       <c r="I312" s="42" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="K312" s="131"/>
+    </row>
+    <row r="313" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A313" s="18" t="s">
         <v>179</v>
       </c>
       <c r="B313" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C313" s="53" t="s">
         <v>135</v>
@@ -13010,7 +13299,7 @@
         <v>2</v>
       </c>
       <c r="E313" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F313" s="54">
         <v>3304</v>
@@ -13022,15 +13311,16 @@
         <v>1.348E-3</v>
       </c>
       <c r="I313" s="42" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="K313" s="131"/>
+    </row>
+    <row r="314" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A314" s="18" t="s">
         <v>179</v>
       </c>
       <c r="B314" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C314" s="53" t="s">
         <v>135</v>
@@ -13039,7 +13329,7 @@
         <v>2</v>
       </c>
       <c r="E314" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F314" s="54">
         <v>3304</v>
@@ -13051,15 +13341,16 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="I314" s="42" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="K314" s="131"/>
+    </row>
+    <row r="315" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A315" s="18" t="s">
         <v>179</v>
       </c>
       <c r="B315" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C315" s="53" t="s">
         <v>135</v>
@@ -13068,7 +13359,7 @@
         <v>2</v>
       </c>
       <c r="E315" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F315" s="54">
         <v>3304</v>
@@ -13080,15 +13371,16 @@
         <v>6</v>
       </c>
       <c r="I315" s="42" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="K315" s="131"/>
+    </row>
+    <row r="316" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="18" t="s">
         <v>179</v>
       </c>
       <c r="B316" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C316" s="53" t="s">
         <v>135</v>
@@ -13097,7 +13389,7 @@
         <v>2</v>
       </c>
       <c r="E316" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F316" s="54">
         <v>3304</v>
@@ -13111,13 +13403,14 @@
       <c r="I316" s="75" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K316" s="131"/>
+    </row>
+    <row r="317" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="18" t="s">
         <v>179</v>
       </c>
       <c r="B317" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C317" s="53" t="s">
         <v>135</v>
@@ -13126,7 +13419,7 @@
         <v>2</v>
       </c>
       <c r="E317" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F317" s="54">
         <v>3304</v>
@@ -13140,13 +13433,14 @@
       <c r="I317" s="75" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K317" s="131"/>
+    </row>
+    <row r="318" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="18" t="s">
         <v>179</v>
       </c>
       <c r="B318" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C318" s="53" t="s">
         <v>135</v>
@@ -13155,7 +13449,7 @@
         <v>2</v>
       </c>
       <c r="E318" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F318" s="54">
         <v>3304</v>
@@ -13169,13 +13463,14 @@
       <c r="I318" s="75" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K318" s="131"/>
+    </row>
+    <row r="319" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="18" t="s">
         <v>179</v>
       </c>
       <c r="B319" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C319" s="53" t="s">
         <v>135</v>
@@ -13184,7 +13479,7 @@
         <v>2</v>
       </c>
       <c r="E319" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F319" s="54">
         <v>3304</v>
@@ -13198,18 +13493,20 @@
       <c r="I319" s="75" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K319" s="131"/>
+    </row>
+    <row r="320" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C320" s="52"/>
       <c r="F320" s="23"/>
       <c r="I320" s="43"/>
-    </row>
-    <row r="321" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K320" s="131"/>
+    </row>
+    <row r="321" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A321" s="17" t="s">
         <v>176</v>
       </c>
       <c r="B321" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C321" s="52" t="s">
         <v>135</v>
@@ -13218,7 +13515,7 @@
         <v>2</v>
       </c>
       <c r="E321" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F321" s="48" t="s">
         <v>172</v>
@@ -13232,13 +13529,14 @@
       <c r="I321" s="43" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K321" s="131"/>
+    </row>
+    <row r="322" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="18" t="s">
         <v>176</v>
       </c>
       <c r="B322" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C322" s="53" t="s">
         <v>135</v>
@@ -13247,7 +13545,7 @@
         <v>2</v>
       </c>
       <c r="E322" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F322" s="54" t="s">
         <v>172</v>
@@ -13259,13 +13557,14 @@
         <v>1.0920000000000001</v>
       </c>
       <c r="I322" s="43"/>
-    </row>
-    <row r="323" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K322" s="131"/>
+    </row>
+    <row r="323" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="18" t="s">
         <v>176</v>
       </c>
       <c r="B323" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C323" s="53" t="s">
         <v>135</v>
@@ -13274,7 +13573,7 @@
         <v>2</v>
       </c>
       <c r="E323" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F323" s="54" t="s">
         <v>172</v>
@@ -13286,13 +13585,14 @@
         <v>-2.1852</v>
       </c>
       <c r="I323" s="43"/>
-    </row>
-    <row r="324" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K323" s="131"/>
+    </row>
+    <row r="324" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="18" t="s">
         <v>176</v>
       </c>
       <c r="B324" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C324" s="53" t="s">
         <v>135</v>
@@ -13301,7 +13601,7 @@
         <v>2</v>
       </c>
       <c r="E324" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F324" s="54" t="s">
         <v>172</v>
@@ -13313,13 +13613,14 @@
         <v>14.129200000000001</v>
       </c>
       <c r="I324" s="43"/>
-    </row>
-    <row r="325" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K324" s="131"/>
+    </row>
+    <row r="325" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="18" t="s">
         <v>176</v>
       </c>
       <c r="B325" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C325" s="53" t="s">
         <v>135</v>
@@ -13328,7 +13629,7 @@
         <v>2</v>
       </c>
       <c r="E325" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F325" s="54" t="s">
         <v>172</v>
@@ -13340,13 +13641,14 @@
         <v>19706</v>
       </c>
       <c r="I325" s="43"/>
-    </row>
-    <row r="326" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K325" s="131"/>
+    </row>
+    <row r="326" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="18" t="s">
         <v>176</v>
       </c>
       <c r="B326" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C326" s="53" t="s">
         <v>135</v>
@@ -13355,7 +13657,7 @@
         <v>2</v>
       </c>
       <c r="E326" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F326" s="54" t="s">
         <v>172</v>
@@ -13367,13 +13669,14 @@
         <v>34</v>
       </c>
       <c r="I326" s="43"/>
-    </row>
-    <row r="327" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K326" s="131"/>
+    </row>
+    <row r="327" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="18" t="s">
         <v>176</v>
       </c>
       <c r="B327" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C327" s="53" t="s">
         <v>135</v>
@@ -13382,7 +13685,7 @@
         <v>2</v>
       </c>
       <c r="E327" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F327" s="54" t="s">
         <v>172</v>
@@ -13394,13 +13697,14 @@
         <v>3073</v>
       </c>
       <c r="I327" s="43"/>
-    </row>
-    <row r="328" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K327" s="131"/>
+    </row>
+    <row r="328" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="18" t="s">
         <v>176</v>
       </c>
       <c r="B328" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C328" s="53" t="s">
         <v>135</v>
@@ -13409,7 +13713,7 @@
         <v>2</v>
       </c>
       <c r="E328" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F328" s="54" t="s">
         <v>172</v>
@@ -13421,18 +13725,20 @@
         <v>44327</v>
       </c>
       <c r="I328" s="43"/>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K328" s="131"/>
+    </row>
+    <row r="329" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C329" s="52"/>
       <c r="F329" s="23"/>
       <c r="I329" s="43"/>
-    </row>
-    <row r="330" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K329" s="131"/>
+    </row>
+    <row r="330" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A330" s="17" t="s">
         <v>177</v>
       </c>
       <c r="B330" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C330" s="52" t="s">
         <v>135</v>
@@ -13441,7 +13747,7 @@
         <v>2</v>
       </c>
       <c r="E330" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F330" s="48" t="s">
         <v>171</v>
@@ -13455,13 +13761,14 @@
       <c r="I330" s="43" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K330" s="131"/>
+    </row>
+    <row r="331" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="18" t="s">
         <v>177</v>
       </c>
       <c r="B331" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C331" s="53" t="s">
         <v>135</v>
@@ -13470,7 +13777,7 @@
         <v>2</v>
       </c>
       <c r="E331" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F331" s="54" t="s">
         <v>171</v>
@@ -13482,13 +13789,14 @@
         <v>0.50290000000000001</v>
       </c>
       <c r="I331" s="43"/>
-    </row>
-    <row r="332" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K331" s="131"/>
+    </row>
+    <row r="332" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="18" t="s">
         <v>177</v>
       </c>
       <c r="B332" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C332" s="53" t="s">
         <v>135</v>
@@ -13497,7 +13805,7 @@
         <v>2</v>
       </c>
       <c r="E332" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F332" s="54" t="s">
         <v>171</v>
@@ -13509,13 +13817,14 @@
         <v>-1.4136</v>
       </c>
       <c r="I332" s="43"/>
-    </row>
-    <row r="333" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K332" s="131"/>
+    </row>
+    <row r="333" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="18" t="s">
         <v>177</v>
       </c>
       <c r="B333" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C333" s="53" t="s">
         <v>135</v>
@@ -13524,7 +13833,7 @@
         <v>2</v>
       </c>
       <c r="E333" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F333" s="54" t="s">
         <v>171</v>
@@ -13536,13 +13845,14 @@
         <v>14.28</v>
       </c>
       <c r="I333" s="43"/>
-    </row>
-    <row r="334" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K333" s="131"/>
+    </row>
+    <row r="334" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="18" t="s">
         <v>177</v>
       </c>
       <c r="B334" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C334" s="53" t="s">
         <v>135</v>
@@ -13551,7 +13861,7 @@
         <v>2</v>
       </c>
       <c r="E334" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F334" s="54" t="s">
         <v>171</v>
@@ -13563,13 +13873,14 @@
         <v>19706</v>
       </c>
       <c r="I334" s="43"/>
-    </row>
-    <row r="335" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K334" s="131"/>
+    </row>
+    <row r="335" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="18" t="s">
         <v>177</v>
       </c>
       <c r="B335" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C335" s="53" t="s">
         <v>135</v>
@@ -13578,7 +13889,7 @@
         <v>2</v>
       </c>
       <c r="E335" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F335" s="54" t="s">
         <v>171</v>
@@ -13590,13 +13901,14 @@
         <v>34</v>
       </c>
       <c r="I335" s="43"/>
-    </row>
-    <row r="336" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K335" s="131"/>
+    </row>
+    <row r="336" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="18" t="s">
         <v>177</v>
       </c>
       <c r="B336" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C336" s="53" t="s">
         <v>135</v>
@@ -13605,7 +13917,7 @@
         <v>2</v>
       </c>
       <c r="E336" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F336" s="54" t="s">
         <v>171</v>
@@ -13617,13 +13929,14 @@
         <v>3073</v>
       </c>
       <c r="I336" s="43"/>
-    </row>
-    <row r="337" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K336" s="131"/>
+    </row>
+    <row r="337" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="18" t="s">
         <v>177</v>
       </c>
       <c r="B337" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C337" s="53" t="s">
         <v>135</v>
@@ -13632,7 +13945,7 @@
         <v>2</v>
       </c>
       <c r="E337" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F337" s="54" t="s">
         <v>171</v>
@@ -13644,18 +13957,20 @@
         <v>44327</v>
       </c>
       <c r="I337" s="43"/>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K337" s="131"/>
+    </row>
+    <row r="338" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C338" s="52"/>
       <c r="F338" s="23"/>
       <c r="I338" s="43"/>
-    </row>
-    <row r="339" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K338" s="131"/>
+    </row>
+    <row r="339" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A339" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B339" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C339" s="52" t="s">
         <v>135</v>
@@ -13664,7 +13979,7 @@
         <v>2</v>
       </c>
       <c r="E339" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F339" s="48" t="s">
         <v>173</v>
@@ -13678,13 +13993,14 @@
       <c r="I339" s="43" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K339" s="131"/>
+    </row>
+    <row r="340" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="18" t="s">
         <v>178</v>
       </c>
       <c r="B340" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C340" s="53" t="s">
         <v>135</v>
@@ -13693,7 +14009,7 @@
         <v>2</v>
       </c>
       <c r="E340" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F340" s="54" t="s">
         <v>173</v>
@@ -13705,13 +14021,14 @@
         <v>0.64649999999999996</v>
       </c>
       <c r="I340" s="43"/>
-    </row>
-    <row r="341" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K340" s="131"/>
+    </row>
+    <row r="341" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="18" t="s">
         <v>178</v>
       </c>
       <c r="B341" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C341" s="53" t="s">
         <v>135</v>
@@ -13720,7 +14037,7 @@
         <v>2</v>
       </c>
       <c r="E341" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F341" s="54" t="s">
         <v>173</v>
@@ -13732,13 +14049,14 @@
         <v>-1.6147</v>
       </c>
       <c r="I341" s="43"/>
-    </row>
-    <row r="342" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K341" s="131"/>
+    </row>
+    <row r="342" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="18" t="s">
         <v>178</v>
       </c>
       <c r="B342" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C342" s="53" t="s">
         <v>135</v>
@@ -13747,7 +14065,7 @@
         <v>2</v>
       </c>
       <c r="E342" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F342" s="54" t="s">
         <v>173</v>
@@ -13759,13 +14077,14 @@
         <v>14.7821</v>
       </c>
       <c r="I342" s="43"/>
-    </row>
-    <row r="343" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K342" s="131"/>
+    </row>
+    <row r="343" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="18" t="s">
         <v>178</v>
       </c>
       <c r="B343" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C343" s="53" t="s">
         <v>135</v>
@@ -13774,7 +14093,7 @@
         <v>2</v>
       </c>
       <c r="E343" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F343" s="54" t="s">
         <v>173</v>
@@ -13786,13 +14105,14 @@
         <v>19706</v>
       </c>
       <c r="I343" s="43"/>
-    </row>
-    <row r="344" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K343" s="131"/>
+    </row>
+    <row r="344" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="18" t="s">
         <v>178</v>
       </c>
       <c r="B344" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C344" s="53" t="s">
         <v>135</v>
@@ -13801,7 +14121,7 @@
         <v>2</v>
       </c>
       <c r="E344" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F344" s="54" t="s">
         <v>173</v>
@@ -13813,13 +14133,14 @@
         <v>34</v>
       </c>
       <c r="I344" s="43"/>
-    </row>
-    <row r="345" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K344" s="131"/>
+    </row>
+    <row r="345" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="18" t="s">
         <v>178</v>
       </c>
       <c r="B345" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C345" s="53" t="s">
         <v>135</v>
@@ -13828,7 +14149,7 @@
         <v>2</v>
       </c>
       <c r="E345" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F345" s="54" t="s">
         <v>173</v>
@@ -13840,13 +14161,14 @@
         <v>3073</v>
       </c>
       <c r="I345" s="43"/>
-    </row>
-    <row r="346" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K345" s="131"/>
+    </row>
+    <row r="346" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="18" t="s">
         <v>178</v>
       </c>
       <c r="B346" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C346" s="53" t="s">
         <v>135</v>
@@ -13855,7 +14177,7 @@
         <v>2</v>
       </c>
       <c r="E346" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F346" s="54" t="s">
         <v>173</v>
@@ -13867,16 +14189,18 @@
         <v>44327</v>
       </c>
       <c r="I346" s="43"/>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K346" s="131"/>
+    </row>
+    <row r="347" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C347" s="52"/>
-    </row>
-    <row r="348" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K347" s="131"/>
+    </row>
+    <row r="348" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="17" t="s">
         <v>175</v>
       </c>
       <c r="B348" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C348" s="52" t="s">
         <v>135</v>
@@ -13885,7 +14209,7 @@
         <v>2</v>
       </c>
       <c r="E348" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F348" s="38">
         <v>22865</v>
@@ -13896,13 +14220,14 @@
       <c r="H348" s="32">
         <v>59.9435833</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K348" s="131"/>
+    </row>
+    <row r="349" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="18" t="s">
         <v>175</v>
       </c>
       <c r="B349" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C349" s="53" t="s">
         <v>135</v>
@@ -13911,7 +14236,7 @@
         <v>2</v>
       </c>
       <c r="E349" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F349" s="54">
         <v>22865</v>
@@ -13922,13 +14247,14 @@
       <c r="H349" s="32">
         <v>-39.573716670000003</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K349" s="131"/>
+    </row>
+    <row r="350" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="18" t="s">
         <v>175</v>
       </c>
       <c r="B350" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C350" s="53" t="s">
         <v>135</v>
@@ -13937,7 +14263,7 @@
         <v>2</v>
       </c>
       <c r="E350" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F350" s="54">
         <v>22865</v>
@@ -13949,15 +14275,16 @@
         <v>500000</v>
       </c>
       <c r="I350" s="87" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="K350" s="131"/>
+    </row>
+    <row r="351" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="18" t="s">
         <v>175</v>
       </c>
       <c r="B351" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C351" s="53" t="s">
         <v>135</v>
@@ -13966,7 +14293,7 @@
         <v>2</v>
       </c>
       <c r="E351" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F351" s="54">
         <v>22865</v>
@@ -13977,13 +14304,14 @@
       <c r="H351" s="23">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K351" s="131"/>
+    </row>
+    <row r="352" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="18" t="s">
         <v>175</v>
       </c>
       <c r="B352" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C352" s="53" t="s">
         <v>135</v>
@@ -13992,7 +14320,7 @@
         <v>2</v>
       </c>
       <c r="E352" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F352" s="54">
         <v>22865</v>
@@ -14003,13 +14331,14 @@
       <c r="H352" s="23">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K352" s="131"/>
+    </row>
+    <row r="353" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="18" t="s">
         <v>175</v>
       </c>
       <c r="B353" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C353" s="53" t="s">
         <v>135</v>
@@ -14018,7 +14347,7 @@
         <v>2</v>
       </c>
       <c r="E353" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F353" s="54">
         <v>22865</v>
@@ -14029,13 +14358,14 @@
       <c r="H353" s="23">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K353" s="131"/>
+    </row>
+    <row r="354" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="18" t="s">
         <v>175</v>
       </c>
       <c r="B354" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C354" s="53" t="s">
         <v>135</v>
@@ -14044,7 +14374,7 @@
         <v>2</v>
       </c>
       <c r="E354" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F354" s="54">
         <v>22865</v>
@@ -14055,8 +14385,9 @@
       <c r="H354" s="23">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K354" s="131"/>
+    </row>
+    <row r="355" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="18"/>
       <c r="B355" s="18"/>
       <c r="C355" s="53"/>
@@ -14065,13 +14396,14 @@
       <c r="F355" s="54"/>
       <c r="G355" s="22"/>
       <c r="H355" s="23"/>
-    </row>
-    <row r="356" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K355" s="131"/>
+    </row>
+    <row r="356" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A356" s="76" t="s">
         <v>124</v>
       </c>
       <c r="B356" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C356" s="77" t="s">
         <v>135</v>
@@ -14080,21 +14412,22 @@
         <v>2</v>
       </c>
       <c r="E356" s="129" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F356" s="81" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I356" s="47" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K356" s="131"/>
+    </row>
+    <row r="357" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A357" s="76" t="s">
         <v>125</v>
       </c>
       <c r="B357" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C357" s="77" t="s">
         <v>135</v>
@@ -14103,28 +14436,30 @@
         <v>2</v>
       </c>
       <c r="E357" s="129" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F357" s="81" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I357" s="47" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K357" s="131"/>
+    </row>
+    <row r="358" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="76"/>
       <c r="B358" s="76"/>
       <c r="C358" s="77"/>
       <c r="D358" s="12"/>
       <c r="E358" s="12"/>
-    </row>
-    <row r="359" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K358" s="131"/>
+    </row>
+    <row r="359" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A359" s="76" t="s">
         <v>126</v>
       </c>
       <c r="B359" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C359" s="77" t="s">
         <v>135</v>
@@ -14133,21 +14468,22 @@
         <v>2</v>
       </c>
       <c r="E359" s="130" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F359" s="81" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I359" s="47" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K359" s="131"/>
+    </row>
+    <row r="360" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A360" s="76" t="s">
         <v>127</v>
       </c>
       <c r="B360" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C360" s="77" t="s">
         <v>135</v>
@@ -14156,21 +14492,22 @@
         <v>2</v>
       </c>
       <c r="E360" s="130" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F360" s="81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I360" s="47" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K360" s="131"/>
+    </row>
+    <row r="361" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A361" s="76" t="s">
         <v>128</v>
       </c>
       <c r="B361" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C361" s="77" t="s">
         <v>135</v>
@@ -14179,14 +14516,15 @@
         <v>2</v>
       </c>
       <c r="E361" s="130" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F361" s="81" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I361" s="47" t="s">
         <v>123</v>
       </c>
+      <c r="K361" s="131"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A361">

--- a/deployment/Omaha_Cal_Info_GI01SUMO_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GI01SUMO_00002.xlsx
@@ -3296,7 +3296,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G250" sqref="G250"/>
+      <selection pane="bottomLeft" activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6157,7 +6157,9 @@
       <c r="G32" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>1</v>
+      </c>
       <c r="I32" s="55"/>
       <c r="J32" s="50"/>
       <c r="K32" s="131"/>
@@ -6283,7 +6285,9 @@
       <c r="G37" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="H37" s="29"/>
+      <c r="H37" s="29">
+        <v>12</v>
+      </c>
       <c r="I37" s="55"/>
       <c r="J37" s="50"/>
       <c r="K37" s="131"/>
@@ -6409,7 +6413,9 @@
       <c r="G42" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="H42" s="29"/>
+      <c r="H42" s="29">
+        <v>40</v>
+      </c>
       <c r="I42" s="51"/>
       <c r="J42" s="50"/>
       <c r="K42" s="131"/>
@@ -6528,7 +6534,9 @@
       <c r="G47" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="H47" s="29"/>
+      <c r="H47" s="29">
+        <v>80</v>
+      </c>
       <c r="I47" s="51"/>
       <c r="K47" s="131"/>
     </row>
@@ -6645,7 +6653,9 @@
       <c r="G52" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="H52" s="29"/>
+      <c r="H52" s="29">
+        <v>130</v>
+      </c>
       <c r="I52" s="51"/>
       <c r="K52" s="131"/>
     </row>

--- a/deployment/Omaha_Cal_Info_GI01SUMO_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GI01SUMO_00002.xlsx
@@ -3296,7 +3296,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G94" sqref="G94"/>
+      <selection pane="bottomLeft" activeCell="F360" sqref="F360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -14343,7 +14343,7 @@
       </c>
       <c r="K352" s="131"/>
     </row>
-    <row r="353" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="18" t="s">
         <v>175</v>
       </c>
@@ -14370,7 +14370,7 @@
       </c>
       <c r="K353" s="131"/>
     </row>
-    <row r="354" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="18" t="s">
         <v>175</v>
       </c>
@@ -14397,7 +14397,7 @@
       </c>
       <c r="K354" s="131"/>
     </row>
-    <row r="355" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="18"/>
       <c r="B355" s="18"/>
       <c r="C355" s="53"/>
@@ -14408,7 +14408,7 @@
       <c r="H355" s="23"/>
       <c r="K355" s="131"/>
     </row>
-    <row r="356" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A356" s="76" t="s">
         <v>124</v>
       </c>
@@ -14432,31 +14432,30 @@
       </c>
       <c r="K356" s="131"/>
     </row>
-    <row r="357" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A357" s="76" t="s">
+    <row r="357" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I357" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="B357" t="s">
+      <c r="J357" t="s">
         <v>239</v>
       </c>
-      <c r="C357" s="77" t="s">
+      <c r="K357" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="D357" s="12">
+      <c r="L357" s="12">
         <v>2</v>
       </c>
-      <c r="E357" s="129" t="s">
+      <c r="M357" s="129" t="s">
         <v>293</v>
       </c>
-      <c r="F357" s="81" t="s">
+      <c r="N357" s="81" t="s">
         <v>297</v>
       </c>
-      <c r="I357" s="47" t="s">
+      <c r="Q357" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="K357" s="131"/>
-    </row>
-    <row r="358" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="76"/>
       <c r="B358" s="76"/>
       <c r="C358" s="77"/>
@@ -14464,7 +14463,7 @@
       <c r="E358" s="12"/>
       <c r="K358" s="131"/>
     </row>
-    <row r="359" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A359" s="76" t="s">
         <v>126</v>
       </c>
@@ -14488,7 +14487,7 @@
       </c>
       <c r="K359" s="131"/>
     </row>
-    <row r="360" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A360" s="76" t="s">
         <v>127</v>
       </c>
@@ -14512,7 +14511,7 @@
       </c>
       <c r="K360" s="131"/>
     </row>
-    <row r="361" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A361" s="76" t="s">
         <v>128</v>
       </c>

--- a/deployment/Omaha_Cal_Info_GI01SUMO_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GI01SUMO_00002.xlsx
@@ -476,9 +476,6 @@
     </r>
   </si>
   <si>
-    <t>GI01SUMO-RID16-07-NUTNRB000</t>
-  </si>
-  <si>
     <t>CC_upper_wavelength_limit_for_spectra_fit</t>
   </si>
   <si>
@@ -507,6 +504,9 @@
   </si>
   <si>
     <t>[34, 27, 47, 39, 47, 45, 40, 34, 36, 38, 28, 33, 35, 59, 145, 377, 982, 2075, 3646, 5586, 7657, 9664, 11441, 12898, 14060, 14940, 15665, 16327, 16929, 17733, 18611, 19653, 20921, 22413, 24154, 26197, 28434, 30861, 33432, 36007, 38367, 40359, 41846, 42705, 42873, 42335, 41295, 39916, 38338, 36746, 35317, 34105, 33151, 32489, 32110, 32003, 32133, 32437, 29025, 32245, 34623, 35633, 36819, 38147, 39575, 41027, 42432, 43782, 44945, 45744, 46177, 46148, 45615, 44610, 43117, 41274, 39191, 36953, 34717, 32565, 30521, 28608, 26941, 25418, 24084, 22917, 21917, 21099, 20414, 19841, 19407, 19145, 18929, 18867, 18899, 19036, 19282, 19607, 19991, 20441, 20929, 21393, 21869, 22305, 22638, 22885, 22991, 22934, 22738, 22387, 21915, 21307, 20615, 19848, 19085, 18296, 17553, 16846, 16176, 15561, 15021, 14530, 14118, 13769, 13483, 13254, 13099, 12977, 12924, 12889, 12900, 12953, 13041, 13159, 13314, 13469, 13681, 13885, 14130, 14371, 14641, 14899, 15182, 15437, 15706, 15951, 16209, 16415, 16590, 16734, 16841, 16904, 16920, 16865, 16771, 16617, 16397, 16160, 15696, 15507, 15194, 14829, 14439, 14049, 13649, 13251, 12850, 12468, 12085, 11664, 11251, 10862, 10497, 10118, 9781, 9487, 9194, 8931, 8696, 8487, 8305, 8137, 7992, 7854, 7709, 7588, 7464, 7360, 7245, 7135, 7021, 6917, 6828, 6745, 6690, 6609, 6562, 6508, 6462, 6407, 6385, 6361, 6331, 6312, 6284, 6277, 6254, 6243, 6234, 6229, 6198, 6177, 6180, 6142, 6105, 6082, 6045, 5990, 5948, 5904, 5837, 5760, 5690, 5571, 5452, 5345, 5219, 5108, 5000, 4887, 4790, 4689, 4609, 4526, 4444, 4357, 4278, 4173, 4071, 3967, 3873, 3772, 3707, 3622, 3561, 3490, 3436, 3398, 3353, 3294, 3271, 3234, 3198, 3170, 3090, 3090]</t>
+  </si>
+  <si>
+    <t>GI01SUMO-RID16-07-NUTNRB000</t>
   </si>
   <si>
     <t>A01143</t>
@@ -6032,8 +6032,8 @@
       <c r="V62" s="6"/>
     </row>
     <row r="63" ht="15" customHeight="1">
-      <c r="A63" t="s" s="61">
-        <v>93</v>
+      <c r="A63" t="s" s="33">
+        <v>89</v>
       </c>
       <c r="B63" t="s" s="34">
         <v>12</v>
@@ -6051,7 +6051,7 @@
         <v>274</v>
       </c>
       <c r="G63" t="s" s="98">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H63" s="99">
         <v>240</v>
@@ -6074,8 +6074,8 @@
       <c r="V63" s="6"/>
     </row>
     <row r="64" ht="15" customHeight="1">
-      <c r="A64" t="s" s="61">
-        <v>93</v>
+      <c r="A64" t="s" s="33">
+        <v>89</v>
       </c>
       <c r="B64" t="s" s="34">
         <v>12</v>
@@ -6093,7 +6093,7 @@
         <v>274</v>
       </c>
       <c r="G64" t="s" s="98">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H64" s="101">
         <v>20.02</v>
@@ -6114,8 +6114,8 @@
       <c r="V64" s="6"/>
     </row>
     <row r="65" ht="15" customHeight="1">
-      <c r="A65" t="s" s="61">
-        <v>93</v>
+      <c r="A65" t="s" s="33">
+        <v>89</v>
       </c>
       <c r="B65" t="s" s="34">
         <v>12</v>
@@ -6133,10 +6133,10 @@
         <v>274</v>
       </c>
       <c r="G65" t="s" s="98">
+        <v>95</v>
+      </c>
+      <c r="H65" t="s" s="55">
         <v>96</v>
-      </c>
-      <c r="H65" t="s" s="55">
-        <v>97</v>
       </c>
       <c r="I65" s="79"/>
       <c r="J65" s="52"/>
@@ -6154,8 +6154,8 @@
       <c r="V65" s="6"/>
     </row>
     <row r="66" ht="15" customHeight="1">
-      <c r="A66" t="s" s="61">
-        <v>93</v>
+      <c r="A66" t="s" s="33">
+        <v>89</v>
       </c>
       <c r="B66" t="s" s="34">
         <v>12</v>
@@ -6173,10 +6173,10 @@
         <v>274</v>
       </c>
       <c r="G66" t="s" s="98">
+        <v>97</v>
+      </c>
+      <c r="H66" t="s" s="55">
         <v>98</v>
-      </c>
-      <c r="H66" t="s" s="55">
-        <v>99</v>
       </c>
       <c r="I66" s="79"/>
       <c r="J66" s="52"/>
@@ -6194,8 +6194,8 @@
       <c r="V66" s="6"/>
     </row>
     <row r="67" ht="15" customHeight="1">
-      <c r="A67" t="s" s="61">
-        <v>93</v>
+      <c r="A67" t="s" s="33">
+        <v>89</v>
       </c>
       <c r="B67" t="s" s="34">
         <v>12</v>
@@ -6213,10 +6213,10 @@
         <v>274</v>
       </c>
       <c r="G67" t="s" s="98">
+        <v>99</v>
+      </c>
+      <c r="H67" t="s" s="55">
         <v>100</v>
-      </c>
-      <c r="H67" t="s" s="55">
-        <v>101</v>
       </c>
       <c r="I67" s="79"/>
       <c r="J67" s="52"/>
@@ -6234,8 +6234,8 @@
       <c r="V67" s="6"/>
     </row>
     <row r="68" ht="15" customHeight="1">
-      <c r="A68" t="s" s="61">
-        <v>93</v>
+      <c r="A68" t="s" s="33">
+        <v>89</v>
       </c>
       <c r="B68" t="s" s="34">
         <v>12</v>
@@ -6253,10 +6253,10 @@
         <v>274</v>
       </c>
       <c r="G68" t="s" s="98">
+        <v>101</v>
+      </c>
+      <c r="H68" t="s" s="55">
         <v>102</v>
-      </c>
-      <c r="H68" t="s" s="55">
-        <v>103</v>
       </c>
       <c r="I68" s="79"/>
       <c r="J68" s="52"/>
@@ -6299,7 +6299,7 @@
     </row>
     <row r="70" ht="28" customHeight="1">
       <c r="A70" t="s" s="33">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s" s="34">
         <v>12</v>
@@ -6341,7 +6341,7 @@
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="s" s="61">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B71" t="s" s="34">
         <v>12</v>
@@ -6359,7 +6359,7 @@
         <v>271</v>
       </c>
       <c r="G71" t="s" s="98">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H71" s="99">
         <v>240</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="s" s="61">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s" s="34">
         <v>12</v>
@@ -6401,7 +6401,7 @@
         <v>271</v>
       </c>
       <c r="G72" t="s" s="98">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H72" s="101">
         <v>19.98</v>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="s" s="61">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B73" t="s" s="34">
         <v>12</v>
@@ -6441,7 +6441,7 @@
         <v>271</v>
       </c>
       <c r="G73" t="s" s="98">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H73" t="s" s="55">
         <v>106</v>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="s" s="61">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s" s="34">
         <v>12</v>
@@ -6481,7 +6481,7 @@
         <v>271</v>
       </c>
       <c r="G74" t="s" s="98">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H74" t="s" s="55">
         <v>107</v>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="s" s="61">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B75" t="s" s="34">
         <v>12</v>
@@ -6521,7 +6521,7 @@
         <v>271</v>
       </c>
       <c r="G75" t="s" s="98">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H75" t="s" s="55">
         <v>108</v>
@@ -6543,7 +6543,7 @@
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="s" s="61">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B76" t="s" s="34">
         <v>12</v>
@@ -6561,7 +6561,7 @@
         <v>271</v>
       </c>
       <c r="G76" t="s" s="98">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H76" t="s" s="55">
         <v>109</v>
